--- a/Eljur/template.xlsx
+++ b/Eljur/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\source\repos\Eljur\Eljur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A89F94-A926-4CB8-9873-7E622F1018E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133F5A93-9036-4F08-8CE9-6F4EC3077AFC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CFCA93-134A-4C41-B463-12BD2BC37BA8}"/>
   </bookViews>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>Учет посещаемости</t>
   </si>
@@ -393,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +492,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -753,7 +760,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -810,12 +817,117 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -840,111 +952,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
@@ -1261,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE93198-BB7A-4126-91BE-F4F0185F4DE6}">
-  <dimension ref="A1:BA47"/>
+  <dimension ref="A1:BE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AZ8" sqref="AZ8:AZ38"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW1" sqref="AW1:BE39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1293,127 +1301,141 @@
     <col min="54" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AI1" s="37" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AI1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AX1" s="2" t="s">
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="69" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="AZ1" s="69"/>
+      <c r="BA1" s="69"/>
+      <c r="BB1" s="69"/>
+      <c r="BC1" s="69"/>
+      <c r="BD1" s="69"/>
+      <c r="BE1" s="69"/>
+    </row>
+    <row r="2" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
       <c r="AH2" s="3"/>
-      <c r="AI2" s="38" t="s">
+      <c r="AI2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AX2" s="2">
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69">
         <v>2</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="AY2" s="69">
         <f>AU39/hour</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+    </row>
+    <row r="3" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
@@ -1428,27 +1450,27 @@
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
@@ -1463,229 +1485,272 @@
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
-      <c r="AX3" s="2">
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="69">
         <f>AU39/2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:52" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="60" t="s">
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="69"/>
+      <c r="BA3" s="69"/>
+      <c r="BB3" s="69"/>
+      <c r="BC3" s="69"/>
+      <c r="BD3" s="69"/>
+      <c r="BE3" s="69"/>
+    </row>
+    <row r="4" spans="1:57" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="46" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="48"/>
-      <c r="AI4" s="42" t="s">
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="49"/>
+      <c r="AI4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AJ4" s="43" t="s">
+      <c r="AJ4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AK4" s="46" t="s">
+      <c r="AK4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="43" t="s">
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AV4" s="43" t="s">
+      <c r="AV4" s="44" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="54"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="44"/>
-      <c r="AV5" s="44"/>
-    </row>
-    <row r="6" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="61"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="56" t="s">
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
+      <c r="BC4" s="69"/>
+      <c r="BD4" s="69"/>
+      <c r="BE4" s="69"/>
+    </row>
+    <row r="5" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="55"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="51"/>
+      <c r="AP5" s="51"/>
+      <c r="AQ5" s="51"/>
+      <c r="AR5" s="51"/>
+      <c r="AS5" s="51"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="69"/>
+      <c r="AZ5" s="69"/>
+      <c r="BA5" s="69"/>
+      <c r="BB5" s="69"/>
+      <c r="BC5" s="69"/>
+      <c r="BD5" s="69"/>
+      <c r="BE5" s="69"/>
+    </row>
+    <row r="6" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="37"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="56" t="s">
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="AG6" s="57"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="50"/>
-      <c r="AM6" s="50"/>
-      <c r="AN6" s="50"/>
-      <c r="AO6" s="50"/>
-      <c r="AP6" s="50"/>
-      <c r="AQ6" s="50"/>
-      <c r="AR6" s="50"/>
-      <c r="AS6" s="50"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="44"/>
-      <c r="AV6" s="44"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="58"/>
-      <c r="AG7" s="59"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="52"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="45"/>
-      <c r="AV7" s="45"/>
-      <c r="AZ7" s="2" t="s">
+      <c r="AG6" s="58"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="50"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="51"/>
+      <c r="AT6" s="52"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="69"/>
+      <c r="BC6" s="69"/>
+      <c r="BD6" s="69"/>
+      <c r="BE6" s="69"/>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="A7" s="38"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="60"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="54"/>
+      <c r="AQ7" s="54"/>
+      <c r="AR7" s="54"/>
+      <c r="AS7" s="54"/>
+      <c r="AT7" s="55"/>
+      <c r="AU7" s="46"/>
+      <c r="AV7" s="46"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="69" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="69"/>
+      <c r="BC7" s="69"/>
+      <c r="BD7" s="69"/>
+      <c r="BE7" s="69"/>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1717,33 +1782,41 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="25"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="40"/>
       <c r="AI8" s="22"/>
       <c r="AJ8" s="22"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="35"/>
-      <c r="AS8" s="35"/>
-      <c r="AT8" s="36"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="28"/>
+      <c r="AT8" s="29"/>
       <c r="AU8" s="22">
-        <f>IF( AK8 ="", 0, $AX$2)</f>
+        <f t="shared" ref="AU8:AU38" si="0">IF( AK8 ="", 0, $AX$2)</f>
         <v>0</v>
       </c>
       <c r="AV8" s="22"/>
-      <c r="AZ8" s="2" t="str">
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69" t="str">
         <f>IF( AD8="", "",((($AU$39-(AD8+AF8))/$AU$39)))</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
+      <c r="BC8" s="69"/>
+      <c r="BD8" s="69"/>
+      <c r="BE8" s="69"/>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <f>A8+1</f>
         <v>2</v>
@@ -1776,35 +1849,43 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="25"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="40"/>
       <c r="AI9" s="22"/>
       <c r="AJ9" s="22"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35"/>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="36"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="28"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="28"/>
+      <c r="AT9" s="29"/>
       <c r="AU9" s="22">
-        <f>IF( AK9 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV9" s="22"/>
-      <c r="AZ9" s="2" t="str">
-        <f t="shared" ref="AZ9:AZ38" si="0">IF( AD9="", "",((($AU$39-(AD9+AF9))/$AU$39)))</f>
+      <c r="AW9" s="69"/>
+      <c r="AX9" s="69"/>
+      <c r="AY9" s="69"/>
+      <c r="AZ9" s="69" t="str">
+        <f t="shared" ref="AZ9:AZ38" si="1">IF( AD9="", "",((($AU$39-(AD9+AF9))/$AU$39)))</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA9" s="69"/>
+      <c r="BB9" s="69"/>
+      <c r="BC9" s="69"/>
+      <c r="BD9" s="69"/>
+      <c r="BE9" s="69"/>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f t="shared" ref="A10:A36" si="1">A9+1</f>
+        <f t="shared" ref="A10:A36" si="2">A9+1</f>
         <v>3</v>
       </c>
       <c r="B10" s="12"/>
@@ -1835,35 +1916,43 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="25"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="40"/>
       <c r="AI10" s="22"/>
       <c r="AJ10" s="22"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="35"/>
-      <c r="AO10" s="35"/>
-      <c r="AP10" s="35"/>
-      <c r="AQ10" s="35"/>
-      <c r="AR10" s="35"/>
-      <c r="AS10" s="35"/>
-      <c r="AT10" s="36"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="29"/>
       <c r="AU10" s="22">
-        <f>IF( AK10 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV10" s="22"/>
-      <c r="AZ10" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA10" s="69"/>
+      <c r="BB10" s="69"/>
+      <c r="BC10" s="69"/>
+      <c r="BD10" s="69"/>
+      <c r="BE10" s="69"/>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B11" s="12"/>
@@ -1894,35 +1983,43 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="25"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="40"/>
       <c r="AI11" s="22"/>
       <c r="AJ11" s="22"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="35"/>
-      <c r="AS11" s="35"/>
-      <c r="AT11" s="36"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="28"/>
+      <c r="AT11" s="29"/>
       <c r="AU11" s="22">
-        <f>IF( AK11 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV11" s="22"/>
-      <c r="AZ11" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="69"/>
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA11" s="69"/>
+      <c r="BB11" s="69"/>
+      <c r="BC11" s="69"/>
+      <c r="BD11" s="69"/>
+      <c r="BE11" s="69"/>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B12" s="12"/>
@@ -1953,35 +2050,43 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
       <c r="AC12" s="12"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="25"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="40"/>
       <c r="AI12" s="22"/>
       <c r="AJ12" s="22"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="35"/>
-      <c r="AP12" s="35"/>
-      <c r="AQ12" s="35"/>
-      <c r="AR12" s="35"/>
-      <c r="AS12" s="35"/>
-      <c r="AT12" s="36"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="28"/>
+      <c r="AN12" s="28"/>
+      <c r="AO12" s="28"/>
+      <c r="AP12" s="28"/>
+      <c r="AQ12" s="28"/>
+      <c r="AR12" s="28"/>
+      <c r="AS12" s="28"/>
+      <c r="AT12" s="29"/>
       <c r="AU12" s="22">
-        <f>IF( AK12 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV12" s="22"/>
-      <c r="AZ12" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA12" s="69"/>
+      <c r="BB12" s="69"/>
+      <c r="BC12" s="69"/>
+      <c r="BD12" s="69"/>
+      <c r="BE12" s="69"/>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B13" s="12"/>
@@ -2012,35 +2117,43 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="25"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="40"/>
       <c r="AI13" s="22"/>
       <c r="AJ13" s="22"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="35"/>
-      <c r="AQ13" s="35"/>
-      <c r="AR13" s="35"/>
-      <c r="AS13" s="35"/>
-      <c r="AT13" s="36"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="28"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="28"/>
+      <c r="AQ13" s="28"/>
+      <c r="AR13" s="28"/>
+      <c r="AS13" s="28"/>
+      <c r="AT13" s="29"/>
       <c r="AU13" s="22">
-        <f>IF( AK13 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV13" s="22"/>
-      <c r="AZ13" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA13" s="69"/>
+      <c r="BB13" s="69"/>
+      <c r="BC13" s="69"/>
+      <c r="BD13" s="69"/>
+      <c r="BE13" s="69"/>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B14" s="12"/>
@@ -2071,35 +2184,43 @@
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="25"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="40"/>
       <c r="AI14" s="22"/>
       <c r="AJ14" s="22"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="35"/>
-      <c r="AR14" s="35"/>
-      <c r="AS14" s="35"/>
-      <c r="AT14" s="36"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
+      <c r="AT14" s="29"/>
       <c r="AU14" s="22">
-        <f>IF( AK14 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV14" s="22"/>
-      <c r="AZ14" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="69"/>
+      <c r="AY14" s="69"/>
+      <c r="AZ14" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA14" s="69"/>
+      <c r="BB14" s="69"/>
+      <c r="BC14" s="69"/>
+      <c r="BD14" s="69"/>
+      <c r="BE14" s="69"/>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B15" s="12"/>
@@ -2130,35 +2251,43 @@
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="25"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="40"/>
       <c r="AI15" s="22"/>
       <c r="AJ15" s="22"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="35"/>
-      <c r="AP15" s="35"/>
-      <c r="AQ15" s="35"/>
-      <c r="AR15" s="35"/>
-      <c r="AS15" s="35"/>
-      <c r="AT15" s="36"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="29"/>
       <c r="AU15" s="22">
-        <f>IF( AK15 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV15" s="22"/>
-      <c r="AZ15" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW15" s="69"/>
+      <c r="AX15" s="69"/>
+      <c r="AY15" s="69"/>
+      <c r="AZ15" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA15" s="69"/>
+      <c r="BB15" s="69"/>
+      <c r="BC15" s="69"/>
+      <c r="BD15" s="69"/>
+      <c r="BE15" s="69"/>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B16" s="12"/>
@@ -2189,35 +2318,43 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="25"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="40"/>
       <c r="AI16" s="22"/>
       <c r="AJ16" s="22"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="35"/>
-      <c r="AP16" s="35"/>
-      <c r="AQ16" s="35"/>
-      <c r="AR16" s="35"/>
-      <c r="AS16" s="35"/>
-      <c r="AT16" s="36"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="28"/>
+      <c r="AQ16" s="28"/>
+      <c r="AR16" s="28"/>
+      <c r="AS16" s="28"/>
+      <c r="AT16" s="29"/>
       <c r="AU16" s="22">
-        <f>IF( AK16 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV16" s="22"/>
-      <c r="AZ16" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="69"/>
+      <c r="AY16" s="69"/>
+      <c r="AZ16" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA16" s="69"/>
+      <c r="BB16" s="69"/>
+      <c r="BC16" s="69"/>
+      <c r="BD16" s="69"/>
+      <c r="BE16" s="69"/>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B17" s="12"/>
@@ -2248,35 +2385,43 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="25"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="40"/>
       <c r="AI17" s="22"/>
       <c r="AJ17" s="22"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="35"/>
-      <c r="AQ17" s="35"/>
-      <c r="AR17" s="35"/>
-      <c r="AS17" s="35"/>
-      <c r="AT17" s="36"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="28"/>
+      <c r="AS17" s="28"/>
+      <c r="AT17" s="29"/>
       <c r="AU17" s="22">
-        <f>IF( AK17 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV17" s="22"/>
-      <c r="AZ17" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="69"/>
+      <c r="AY17" s="69"/>
+      <c r="AZ17" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA17" s="69"/>
+      <c r="BB17" s="69"/>
+      <c r="BC17" s="69"/>
+      <c r="BD17" s="69"/>
+      <c r="BE17" s="69"/>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B18" s="12"/>
@@ -2307,35 +2452,43 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="25"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="40"/>
       <c r="AI18" s="22"/>
       <c r="AJ18" s="22"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
-      <c r="AR18" s="35"/>
-      <c r="AS18" s="35"/>
-      <c r="AT18" s="36"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="28"/>
+      <c r="AR18" s="28"/>
+      <c r="AS18" s="28"/>
+      <c r="AT18" s="29"/>
       <c r="AU18" s="22">
-        <f>IF( AK18 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV18" s="22"/>
-      <c r="AZ18" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW18" s="69"/>
+      <c r="AX18" s="69"/>
+      <c r="AY18" s="69"/>
+      <c r="AZ18" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA18" s="69"/>
+      <c r="BB18" s="69"/>
+      <c r="BC18" s="69"/>
+      <c r="BD18" s="69"/>
+      <c r="BE18" s="69"/>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B19" s="12"/>
@@ -2366,35 +2519,43 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="25"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="40"/>
       <c r="AI19" s="22"/>
       <c r="AJ19" s="22"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="35"/>
-      <c r="AQ19" s="35"/>
-      <c r="AR19" s="35"/>
-      <c r="AS19" s="35"/>
-      <c r="AT19" s="36"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="28"/>
+      <c r="AR19" s="28"/>
+      <c r="AS19" s="28"/>
+      <c r="AT19" s="29"/>
       <c r="AU19" s="22">
-        <f>IF( AK19 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV19" s="22"/>
-      <c r="AZ19" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW19" s="69"/>
+      <c r="AX19" s="69"/>
+      <c r="AY19" s="69"/>
+      <c r="AZ19" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA19" s="69"/>
+      <c r="BB19" s="69"/>
+      <c r="BC19" s="69"/>
+      <c r="BD19" s="69"/>
+      <c r="BE19" s="69"/>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B20" s="12"/>
@@ -2425,35 +2586,43 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="25"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="40"/>
       <c r="AI20" s="22"/>
       <c r="AJ20" s="22"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="35"/>
-      <c r="AN20" s="35"/>
-      <c r="AO20" s="35"/>
-      <c r="AP20" s="35"/>
-      <c r="AQ20" s="35"/>
-      <c r="AR20" s="35"/>
-      <c r="AS20" s="35"/>
-      <c r="AT20" s="36"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="28"/>
+      <c r="AS20" s="28"/>
+      <c r="AT20" s="29"/>
       <c r="AU20" s="22">
-        <f>IF( AK20 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV20" s="22"/>
-      <c r="AZ20" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW20" s="69"/>
+      <c r="AX20" s="69"/>
+      <c r="AY20" s="69"/>
+      <c r="AZ20" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA20" s="69"/>
+      <c r="BB20" s="69"/>
+      <c r="BC20" s="69"/>
+      <c r="BD20" s="69"/>
+      <c r="BE20" s="69"/>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B21" s="12"/>
@@ -2484,35 +2653,43 @@
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="25"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="40"/>
       <c r="AI21" s="22"/>
       <c r="AJ21" s="22"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="35"/>
-      <c r="AQ21" s="35"/>
-      <c r="AR21" s="35"/>
-      <c r="AS21" s="35"/>
-      <c r="AT21" s="36"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="28"/>
+      <c r="AQ21" s="28"/>
+      <c r="AR21" s="28"/>
+      <c r="AS21" s="28"/>
+      <c r="AT21" s="29"/>
       <c r="AU21" s="22">
-        <f>IF( AK21 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV21" s="22"/>
-      <c r="AZ21" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW21" s="69"/>
+      <c r="AX21" s="69"/>
+      <c r="AY21" s="69"/>
+      <c r="AZ21" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA21" s="69"/>
+      <c r="BB21" s="69"/>
+      <c r="BC21" s="69"/>
+      <c r="BD21" s="69"/>
+      <c r="BE21" s="69"/>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B22" s="12"/>
@@ -2543,35 +2720,43 @@
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="25"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="40"/>
       <c r="AI22" s="22"/>
       <c r="AJ22" s="22"/>
-      <c r="AK22" s="34"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="35"/>
-      <c r="AQ22" s="35"/>
-      <c r="AR22" s="35"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="36"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="28"/>
+      <c r="AQ22" s="28"/>
+      <c r="AR22" s="28"/>
+      <c r="AS22" s="28"/>
+      <c r="AT22" s="29"/>
       <c r="AU22" s="22">
-        <f>IF( AK22 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV22" s="22"/>
-      <c r="AZ22" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW22" s="69"/>
+      <c r="AX22" s="69"/>
+      <c r="AY22" s="69"/>
+      <c r="AZ22" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA22" s="69"/>
+      <c r="BB22" s="69"/>
+      <c r="BC22" s="69"/>
+      <c r="BD22" s="69"/>
+      <c r="BE22" s="69"/>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B23" s="12"/>
@@ -2602,35 +2787,43 @@
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="25"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="40"/>
       <c r="AI23" s="22"/>
       <c r="AJ23" s="22"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="35"/>
-      <c r="AQ23" s="35"/>
-      <c r="AR23" s="35"/>
-      <c r="AS23" s="35"/>
-      <c r="AT23" s="36"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="28"/>
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="28"/>
+      <c r="AQ23" s="28"/>
+      <c r="AR23" s="28"/>
+      <c r="AS23" s="28"/>
+      <c r="AT23" s="29"/>
       <c r="AU23" s="22">
-        <f>IF( AK23 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV23" s="22"/>
-      <c r="AZ23" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW23" s="69"/>
+      <c r="AX23" s="69"/>
+      <c r="AY23" s="69"/>
+      <c r="AZ23" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA23" s="69"/>
+      <c r="BB23" s="69"/>
+      <c r="BC23" s="69"/>
+      <c r="BD23" s="69"/>
+      <c r="BE23" s="69"/>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B24" s="12"/>
@@ -2661,35 +2854,43 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="25"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="40"/>
       <c r="AI24" s="22"/>
       <c r="AJ24" s="22"/>
-      <c r="AK24" s="34"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AQ24" s="35"/>
-      <c r="AR24" s="35"/>
-      <c r="AS24" s="35"/>
-      <c r="AT24" s="36"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="28"/>
+      <c r="AR24" s="28"/>
+      <c r="AS24" s="28"/>
+      <c r="AT24" s="29"/>
       <c r="AU24" s="22">
-        <f>IF( AK24 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV24" s="22"/>
-      <c r="AZ24" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW24" s="69"/>
+      <c r="AX24" s="69"/>
+      <c r="AY24" s="69"/>
+      <c r="AZ24" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA24" s="69"/>
+      <c r="BB24" s="69"/>
+      <c r="BC24" s="69"/>
+      <c r="BD24" s="69"/>
+      <c r="BE24" s="69"/>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B25" s="12"/>
@@ -2720,33 +2921,41 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="25"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="40"/>
       <c r="AI25" s="22"/>
       <c r="AJ25" s="22"/>
-      <c r="AK25" s="34"/>
-      <c r="AL25" s="35"/>
-      <c r="AM25" s="35"/>
-      <c r="AN25" s="35"/>
-      <c r="AO25" s="35"/>
-      <c r="AP25" s="35"/>
-      <c r="AQ25" s="35"/>
-      <c r="AR25" s="35"/>
-      <c r="AS25" s="35"/>
-      <c r="AT25" s="36"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="28"/>
+      <c r="AQ25" s="28"/>
+      <c r="AR25" s="28"/>
+      <c r="AS25" s="28"/>
+      <c r="AT25" s="29"/>
       <c r="AU25" s="22">
-        <f>IF( AK25 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV25" s="22"/>
-      <c r="AZ25" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW25" s="69"/>
+      <c r="AX25" s="69"/>
+      <c r="AY25" s="69"/>
+      <c r="AZ25" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA25" s="69"/>
+      <c r="BB25" s="69"/>
+      <c r="BC25" s="69"/>
+      <c r="BD25" s="69"/>
+      <c r="BE25" s="69"/>
+    </row>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <f>A25+1</f>
         <v>19</v>
@@ -2779,35 +2988,43 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="25"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="39"/>
+      <c r="AG26" s="40"/>
       <c r="AI26" s="22"/>
       <c r="AJ26" s="22"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="35"/>
-      <c r="AN26" s="35"/>
-      <c r="AO26" s="35"/>
-      <c r="AP26" s="35"/>
-      <c r="AQ26" s="35"/>
-      <c r="AR26" s="35"/>
-      <c r="AS26" s="35"/>
-      <c r="AT26" s="36"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="28"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="28"/>
+      <c r="AQ26" s="28"/>
+      <c r="AR26" s="28"/>
+      <c r="AS26" s="28"/>
+      <c r="AT26" s="29"/>
       <c r="AU26" s="22">
-        <f>IF( AK26 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV26" s="22"/>
-      <c r="AZ26" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW26" s="69"/>
+      <c r="AX26" s="69"/>
+      <c r="AY26" s="69"/>
+      <c r="AZ26" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA26" s="69"/>
+      <c r="BB26" s="69"/>
+      <c r="BC26" s="69"/>
+      <c r="BD26" s="69"/>
+      <c r="BE26" s="69"/>
+    </row>
+    <row r="27" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B27" s="12"/>
@@ -2838,35 +3055,43 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="25"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="40"/>
       <c r="AI27" s="22"/>
       <c r="AJ27" s="22"/>
-      <c r="AK27" s="34"/>
-      <c r="AL27" s="35"/>
-      <c r="AM27" s="35"/>
-      <c r="AN27" s="35"/>
-      <c r="AO27" s="35"/>
-      <c r="AP27" s="35"/>
-      <c r="AQ27" s="35"/>
-      <c r="AR27" s="35"/>
-      <c r="AS27" s="35"/>
-      <c r="AT27" s="36"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="28"/>
+      <c r="AO27" s="28"/>
+      <c r="AP27" s="28"/>
+      <c r="AQ27" s="28"/>
+      <c r="AR27" s="28"/>
+      <c r="AS27" s="28"/>
+      <c r="AT27" s="29"/>
       <c r="AU27" s="22">
-        <f>IF( AK27 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV27" s="22"/>
-      <c r="AZ27" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW27" s="69"/>
+      <c r="AX27" s="69"/>
+      <c r="AY27" s="69"/>
+      <c r="AZ27" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA27" s="69"/>
+      <c r="BB27" s="69"/>
+      <c r="BC27" s="69"/>
+      <c r="BD27" s="69"/>
+      <c r="BE27" s="69"/>
+    </row>
+    <row r="28" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B28" s="12"/>
@@ -2897,35 +3122,43 @@
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="25"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="40"/>
       <c r="AI28" s="22"/>
       <c r="AJ28" s="22"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="35"/>
-      <c r="AM28" s="35"/>
-      <c r="AN28" s="35"/>
-      <c r="AO28" s="35"/>
-      <c r="AP28" s="35"/>
-      <c r="AQ28" s="35"/>
-      <c r="AR28" s="35"/>
-      <c r="AS28" s="35"/>
-      <c r="AT28" s="36"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="28"/>
+      <c r="AN28" s="28"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="28"/>
+      <c r="AQ28" s="28"/>
+      <c r="AR28" s="28"/>
+      <c r="AS28" s="28"/>
+      <c r="AT28" s="29"/>
       <c r="AU28" s="22">
-        <f>IF( AK28 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV28" s="22"/>
-      <c r="AZ28" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW28" s="69"/>
+      <c r="AX28" s="69"/>
+      <c r="AY28" s="69"/>
+      <c r="AZ28" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA28" s="69"/>
+      <c r="BB28" s="69"/>
+      <c r="BC28" s="69"/>
+      <c r="BD28" s="69"/>
+      <c r="BE28" s="69"/>
+    </row>
+    <row r="29" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B29" s="12"/>
@@ -2956,35 +3189,43 @@
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="25"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="40"/>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="40"/>
       <c r="AI29" s="22"/>
       <c r="AJ29" s="22"/>
-      <c r="AK29" s="34"/>
-      <c r="AL29" s="35"/>
-      <c r="AM29" s="35"/>
-      <c r="AN29" s="35"/>
-      <c r="AO29" s="35"/>
-      <c r="AP29" s="35"/>
-      <c r="AQ29" s="35"/>
-      <c r="AR29" s="35"/>
-      <c r="AS29" s="35"/>
-      <c r="AT29" s="36"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="28"/>
+      <c r="AM29" s="28"/>
+      <c r="AN29" s="28"/>
+      <c r="AO29" s="28"/>
+      <c r="AP29" s="28"/>
+      <c r="AQ29" s="28"/>
+      <c r="AR29" s="28"/>
+      <c r="AS29" s="28"/>
+      <c r="AT29" s="29"/>
       <c r="AU29" s="22">
-        <f>IF( AK29 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV29" s="22"/>
-      <c r="AZ29" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW29" s="69"/>
+      <c r="AX29" s="69"/>
+      <c r="AY29" s="69"/>
+      <c r="AZ29" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA29" s="69"/>
+      <c r="BB29" s="69"/>
+      <c r="BC29" s="69"/>
+      <c r="BD29" s="69"/>
+      <c r="BE29" s="69"/>
+    </row>
+    <row r="30" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B30" s="12"/>
@@ -3015,35 +3256,43 @@
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
-      <c r="AD30" s="24"/>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="25"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="40"/>
       <c r="AI30" s="22"/>
       <c r="AJ30" s="22"/>
-      <c r="AK30" s="34"/>
-      <c r="AL30" s="35"/>
-      <c r="AM30" s="35"/>
-      <c r="AN30" s="35"/>
-      <c r="AO30" s="35"/>
-      <c r="AP30" s="35"/>
-      <c r="AQ30" s="35"/>
-      <c r="AR30" s="35"/>
-      <c r="AS30" s="35"/>
-      <c r="AT30" s="36"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="28"/>
+      <c r="AM30" s="28"/>
+      <c r="AN30" s="28"/>
+      <c r="AO30" s="28"/>
+      <c r="AP30" s="28"/>
+      <c r="AQ30" s="28"/>
+      <c r="AR30" s="28"/>
+      <c r="AS30" s="28"/>
+      <c r="AT30" s="29"/>
       <c r="AU30" s="22">
-        <f>IF( AK30 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV30" s="22"/>
-      <c r="AZ30" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW30" s="69"/>
+      <c r="AX30" s="69"/>
+      <c r="AY30" s="69"/>
+      <c r="AZ30" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA30" s="69"/>
+      <c r="BB30" s="69"/>
+      <c r="BC30" s="69"/>
+      <c r="BD30" s="69"/>
+      <c r="BE30" s="69"/>
+    </row>
+    <row r="31" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B31" s="12"/>
@@ -3074,33 +3323,41 @@
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="25"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="40"/>
       <c r="AI31" s="22"/>
       <c r="AJ31" s="22"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="35"/>
-      <c r="AM31" s="35"/>
-      <c r="AN31" s="35"/>
-      <c r="AO31" s="35"/>
-      <c r="AP31" s="35"/>
-      <c r="AQ31" s="35"/>
-      <c r="AR31" s="35"/>
-      <c r="AS31" s="35"/>
-      <c r="AT31" s="36"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="28"/>
+      <c r="AN31" s="28"/>
+      <c r="AO31" s="28"/>
+      <c r="AP31" s="28"/>
+      <c r="AQ31" s="28"/>
+      <c r="AR31" s="28"/>
+      <c r="AS31" s="28"/>
+      <c r="AT31" s="29"/>
       <c r="AU31" s="22">
-        <f>IF( AK31 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV31" s="22"/>
-      <c r="AZ31" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW31" s="69"/>
+      <c r="AX31" s="69"/>
+      <c r="AY31" s="69"/>
+      <c r="AZ31" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA31" s="69"/>
+      <c r="BB31" s="69"/>
+      <c r="BC31" s="69"/>
+      <c r="BD31" s="69"/>
+      <c r="BE31" s="69"/>
+    </row>
+    <row r="32" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <f>A31+1</f>
         <v>25</v>
@@ -3133,35 +3390,43 @@
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
       <c r="AC32" s="12"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="25"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="40"/>
       <c r="AI32" s="22"/>
       <c r="AJ32" s="22"/>
-      <c r="AK32" s="34"/>
-      <c r="AL32" s="35"/>
-      <c r="AM32" s="35"/>
-      <c r="AN32" s="35"/>
-      <c r="AO32" s="35"/>
-      <c r="AP32" s="35"/>
-      <c r="AQ32" s="35"/>
-      <c r="AR32" s="35"/>
-      <c r="AS32" s="35"/>
-      <c r="AT32" s="36"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="28"/>
+      <c r="AN32" s="28"/>
+      <c r="AO32" s="28"/>
+      <c r="AP32" s="28"/>
+      <c r="AQ32" s="28"/>
+      <c r="AR32" s="28"/>
+      <c r="AS32" s="28"/>
+      <c r="AT32" s="29"/>
       <c r="AU32" s="22">
-        <f>IF( AK32 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV32" s="22"/>
-      <c r="AZ32" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW32" s="69"/>
+      <c r="AX32" s="69"/>
+      <c r="AY32" s="69"/>
+      <c r="AZ32" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="BA32" s="69"/>
+      <c r="BB32" s="69"/>
+      <c r="BC32" s="69"/>
+      <c r="BD32" s="69"/>
+      <c r="BE32" s="69"/>
+    </row>
+    <row r="33" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B33" s="12"/>
@@ -3192,35 +3457,43 @@
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
       <c r="AC33" s="12"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="25"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="40"/>
       <c r="AI33" s="22"/>
       <c r="AJ33" s="22"/>
-      <c r="AK33" s="34"/>
-      <c r="AL33" s="35"/>
-      <c r="AM33" s="35"/>
-      <c r="AN33" s="35"/>
-      <c r="AO33" s="35"/>
-      <c r="AP33" s="35"/>
-      <c r="AQ33" s="35"/>
-      <c r="AR33" s="35"/>
-      <c r="AS33" s="35"/>
-      <c r="AT33" s="36"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="28"/>
+      <c r="AM33" s="28"/>
+      <c r="AN33" s="28"/>
+      <c r="AO33" s="28"/>
+      <c r="AP33" s="28"/>
+      <c r="AQ33" s="28"/>
+      <c r="AR33" s="28"/>
+      <c r="AS33" s="28"/>
+      <c r="AT33" s="29"/>
       <c r="AU33" s="22">
-        <f>IF( AK33 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV33" s="22"/>
-      <c r="AZ33" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW33" s="69"/>
+      <c r="AX33" s="69"/>
+      <c r="AY33" s="69"/>
+      <c r="AZ33" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="BA33" s="69"/>
+      <c r="BB33" s="69"/>
+      <c r="BC33" s="69"/>
+      <c r="BD33" s="69"/>
+      <c r="BE33" s="69"/>
+    </row>
+    <row r="34" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B34" s="12"/>
@@ -3251,35 +3524,43 @@
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
-      <c r="AD34" s="24"/>
-      <c r="AE34" s="25"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="25"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="40"/>
+      <c r="AF34" s="39"/>
+      <c r="AG34" s="40"/>
       <c r="AI34" s="22"/>
       <c r="AJ34" s="22"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="35"/>
-      <c r="AM34" s="35"/>
-      <c r="AN34" s="35"/>
-      <c r="AO34" s="35"/>
-      <c r="AP34" s="35"/>
-      <c r="AQ34" s="35"/>
-      <c r="AR34" s="35"/>
-      <c r="AS34" s="35"/>
-      <c r="AT34" s="36"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="28"/>
+      <c r="AN34" s="28"/>
+      <c r="AO34" s="28"/>
+      <c r="AP34" s="28"/>
+      <c r="AQ34" s="28"/>
+      <c r="AR34" s="28"/>
+      <c r="AS34" s="28"/>
+      <c r="AT34" s="29"/>
       <c r="AU34" s="22">
-        <f>IF( AK34 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV34" s="22"/>
-      <c r="AZ34" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW34" s="69"/>
+      <c r="AX34" s="69"/>
+      <c r="AY34" s="69"/>
+      <c r="AZ34" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="BA34" s="69"/>
+      <c r="BB34" s="69"/>
+      <c r="BC34" s="69"/>
+      <c r="BD34" s="69"/>
+      <c r="BE34" s="69"/>
+    </row>
+    <row r="35" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B35" s="12"/>
@@ -3310,35 +3591,43 @@
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
       <c r="AC35" s="12"/>
-      <c r="AD35" s="24"/>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="24"/>
-      <c r="AG35" s="25"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="40"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="40"/>
       <c r="AI35" s="22"/>
       <c r="AJ35" s="22"/>
-      <c r="AK35" s="34"/>
-      <c r="AL35" s="35"/>
-      <c r="AM35" s="35"/>
-      <c r="AN35" s="35"/>
-      <c r="AO35" s="35"/>
-      <c r="AP35" s="35"/>
-      <c r="AQ35" s="35"/>
-      <c r="AR35" s="35"/>
-      <c r="AS35" s="35"/>
-      <c r="AT35" s="36"/>
+      <c r="AK35" s="27"/>
+      <c r="AL35" s="28"/>
+      <c r="AM35" s="28"/>
+      <c r="AN35" s="28"/>
+      <c r="AO35" s="28"/>
+      <c r="AP35" s="28"/>
+      <c r="AQ35" s="28"/>
+      <c r="AR35" s="28"/>
+      <c r="AS35" s="28"/>
+      <c r="AT35" s="29"/>
       <c r="AU35" s="22">
-        <f>IF( AK35 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV35" s="22"/>
-      <c r="AZ35" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW35" s="69"/>
+      <c r="AX35" s="69"/>
+      <c r="AY35" s="69"/>
+      <c r="AZ35" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="BA35" s="69"/>
+      <c r="BB35" s="69"/>
+      <c r="BC35" s="69"/>
+      <c r="BD35" s="69"/>
+      <c r="BE35" s="69"/>
+    </row>
+    <row r="36" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B36" s="12"/>
@@ -3369,33 +3658,41 @@
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
       <c r="AC36" s="12"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="25"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="40"/>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="40"/>
       <c r="AI36" s="22"/>
       <c r="AJ36" s="22"/>
-      <c r="AK36" s="34"/>
-      <c r="AL36" s="35"/>
-      <c r="AM36" s="35"/>
-      <c r="AN36" s="35"/>
-      <c r="AO36" s="35"/>
-      <c r="AP36" s="35"/>
-      <c r="AQ36" s="35"/>
-      <c r="AR36" s="35"/>
-      <c r="AS36" s="35"/>
-      <c r="AT36" s="36"/>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="28"/>
+      <c r="AM36" s="28"/>
+      <c r="AN36" s="28"/>
+      <c r="AO36" s="28"/>
+      <c r="AP36" s="28"/>
+      <c r="AQ36" s="28"/>
+      <c r="AR36" s="28"/>
+      <c r="AS36" s="28"/>
+      <c r="AT36" s="29"/>
       <c r="AU36" s="22">
-        <f>IF( AK36 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV36" s="22"/>
-      <c r="AZ36" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW36" s="69"/>
+      <c r="AX36" s="69"/>
+      <c r="AY36" s="69"/>
+      <c r="AZ36" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BA36" s="69"/>
+      <c r="BB36" s="69"/>
+      <c r="BC36" s="69"/>
+      <c r="BD36" s="69"/>
+      <c r="BE36" s="69"/>
+    </row>
+    <row r="37" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>30</v>
       </c>
@@ -3427,33 +3724,41 @@
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="25"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="25"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="40"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="40"/>
       <c r="AI37" s="22"/>
       <c r="AJ37" s="22"/>
-      <c r="AK37" s="34"/>
-      <c r="AL37" s="35"/>
-      <c r="AM37" s="35"/>
-      <c r="AN37" s="35"/>
-      <c r="AO37" s="35"/>
-      <c r="AP37" s="35"/>
-      <c r="AQ37" s="35"/>
-      <c r="AR37" s="35"/>
-      <c r="AS37" s="35"/>
-      <c r="AT37" s="36"/>
+      <c r="AK37" s="27"/>
+      <c r="AL37" s="28"/>
+      <c r="AM37" s="28"/>
+      <c r="AN37" s="28"/>
+      <c r="AO37" s="28"/>
+      <c r="AP37" s="28"/>
+      <c r="AQ37" s="28"/>
+      <c r="AR37" s="28"/>
+      <c r="AS37" s="28"/>
+      <c r="AT37" s="29"/>
       <c r="AU37" s="22">
-        <f>IF( AK37 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV37" s="22"/>
-      <c r="AZ37" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW37" s="69"/>
+      <c r="AX37" s="69"/>
+      <c r="AY37" s="69"/>
+      <c r="AZ37" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="BA37" s="69"/>
+      <c r="BB37" s="69"/>
+      <c r="BC37" s="69"/>
+      <c r="BD37" s="69"/>
+      <c r="BE37" s="69"/>
+    </row>
+    <row r="38" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3483,33 +3788,41 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="25"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="40"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="40"/>
       <c r="AI38" s="22"/>
       <c r="AJ38" s="22"/>
-      <c r="AK38" s="34"/>
-      <c r="AL38" s="35"/>
-      <c r="AM38" s="35"/>
-      <c r="AN38" s="35"/>
-      <c r="AO38" s="35"/>
-      <c r="AP38" s="35"/>
-      <c r="AQ38" s="35"/>
-      <c r="AR38" s="35"/>
-      <c r="AS38" s="35"/>
-      <c r="AT38" s="36"/>
+      <c r="AK38" s="27"/>
+      <c r="AL38" s="28"/>
+      <c r="AM38" s="28"/>
+      <c r="AN38" s="28"/>
+      <c r="AO38" s="28"/>
+      <c r="AP38" s="28"/>
+      <c r="AQ38" s="28"/>
+      <c r="AR38" s="28"/>
+      <c r="AS38" s="28"/>
+      <c r="AT38" s="29"/>
       <c r="AU38" s="22">
-        <f>IF( AK38 ="", 0, $AX$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV38" s="22"/>
-      <c r="AZ38" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AW38" s="69"/>
+      <c r="AX38" s="69"/>
+      <c r="AY38" s="69"/>
+      <c r="AZ38" s="69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BA38" s="69"/>
+      <c r="BB38" s="69"/>
+      <c r="BC38" s="69"/>
+      <c r="BD38" s="69"/>
+      <c r="BE38" s="69"/>
+    </row>
+    <row r="39" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -3539,38 +3852,45 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="25"/>
-      <c r="AI39" s="66" t="s">
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="40"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="40"/>
+      <c r="AI39" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AJ39" s="67"/>
-      <c r="AK39" s="67"/>
-      <c r="AL39" s="67"/>
-      <c r="AM39" s="67"/>
-      <c r="AN39" s="67"/>
-      <c r="AO39" s="67"/>
-      <c r="AP39" s="67"/>
-      <c r="AQ39" s="67"/>
-      <c r="AR39" s="67"/>
-      <c r="AS39" s="67"/>
-      <c r="AT39" s="68"/>
+      <c r="AJ39" s="31"/>
+      <c r="AK39" s="31"/>
+      <c r="AL39" s="31"/>
+      <c r="AM39" s="31"/>
+      <c r="AN39" s="31"/>
+      <c r="AO39" s="31"/>
+      <c r="AP39" s="31"/>
+      <c r="AQ39" s="31"/>
+      <c r="AR39" s="31"/>
+      <c r="AS39" s="31"/>
+      <c r="AT39" s="32"/>
       <c r="AU39" s="23">
         <f>SUM(AU8:AU38)</f>
         <v>0</v>
       </c>
       <c r="AV39" s="10"/>
-      <c r="AZ39" s="2" t="s">
+      <c r="AW39" s="69"/>
+      <c r="AX39" s="69"/>
+      <c r="AY39" s="69"/>
+      <c r="AZ39" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BA39" s="2" t="e">
+      <c r="BA39" s="69" t="e">
         <f>AVERAGE(AZ8:AZ38)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="40" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BB39" s="69"/>
+      <c r="BC39" s="69"/>
+      <c r="BD39" s="69"/>
+      <c r="BE39" s="69"/>
+    </row>
+    <row r="40" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -3600,10 +3920,10 @@
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
-      <c r="AD40" s="26" t="s">
+      <c r="AD40" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="AE40" s="27"/>
+      <c r="AE40" s="62"/>
       <c r="AF40" s="13"/>
       <c r="AG40" s="14"/>
       <c r="AI40" s="1"/>
@@ -3621,7 +3941,7 @@
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
     </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -3651,18 +3971,18 @@
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="29"/>
+      <c r="AD41" s="63"/>
+      <c r="AE41" s="64"/>
       <c r="AF41" s="16"/>
       <c r="AG41" s="17"/>
       <c r="AI41" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AJ41" s="11"/>
-      <c r="AK41" s="65" t="s">
+      <c r="AK41" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AL41" s="65"/>
+      <c r="AL41" s="26"/>
       <c r="AM41" s="11"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="11"/>
@@ -3674,7 +3994,7 @@
       <c r="AU41" s="11"/>
       <c r="AV41" s="11"/>
     </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -3704,8 +4024,8 @@
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="29"/>
+      <c r="AD42" s="63"/>
+      <c r="AE42" s="64"/>
       <c r="AF42" s="16"/>
       <c r="AG42" s="17"/>
       <c r="AI42" s="1" t="s">
@@ -3725,7 +4045,7 @@
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
     </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -3755,11 +4075,11 @@
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="7"/>
-      <c r="AD43" s="30" t="e">
+      <c r="AD43" s="65" t="e">
         <f>BA39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE43" s="31"/>
+      <c r="AE43" s="66"/>
       <c r="AF43" s="16"/>
       <c r="AG43" s="17"/>
       <c r="AI43" s="1" t="s">
@@ -3779,7 +4099,7 @@
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
     </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3830,7 +4150,7 @@
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
     </row>
-    <row r="45" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3887,7 +4207,7 @@
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
     </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -3924,73 +4244,91 @@
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
-      <c r="AN46" s="63" t="s">
+      <c r="AN46" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AO46" s="63"/>
-      <c r="AT46" s="64" t="s">
+      <c r="AO46" s="24"/>
+      <c r="AT46" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AU46" s="64"/>
-      <c r="AV46" s="64"/>
-    </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="AU46" s="25"/>
+      <c r="AV46" s="25"/>
+    </row>
+    <row r="47" spans="1:57" x14ac:dyDescent="0.35">
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="AN46:AO46"/>
-    <mergeCell ref="AT46:AV46"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AK33:AT33"/>
-    <mergeCell ref="AK34:AT34"/>
-    <mergeCell ref="AK35:AT35"/>
-    <mergeCell ref="AK37:AT37"/>
-    <mergeCell ref="AK38:AT38"/>
-    <mergeCell ref="AI39:AT39"/>
-    <mergeCell ref="AK32:AT32"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AK22:AT22"/>
-    <mergeCell ref="AK23:AT23"/>
-    <mergeCell ref="AK24:AT24"/>
-    <mergeCell ref="AK25:AT25"/>
-    <mergeCell ref="AK26:AT26"/>
-    <mergeCell ref="AK27:AT27"/>
-    <mergeCell ref="AK28:AT28"/>
-    <mergeCell ref="AK29:AT29"/>
-    <mergeCell ref="AK30:AT30"/>
-    <mergeCell ref="AK31:AT31"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AD40:AE42"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="M2:AG2"/>
+    <mergeCell ref="M3:AG3"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="AK36:AT36"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AF23:AG23"/>
     <mergeCell ref="AI1:AV1"/>
     <mergeCell ref="AI2:AV2"/>
     <mergeCell ref="S4:S7"/>
@@ -4015,75 +4353,57 @@
     <mergeCell ref="M4:M7"/>
     <mergeCell ref="N4:N7"/>
     <mergeCell ref="H4:H7"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AD40:AE42"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="M2:AG2"/>
-    <mergeCell ref="M3:AG3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="AK36:AT36"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AK32:AT32"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AK22:AT22"/>
+    <mergeCell ref="AK23:AT23"/>
+    <mergeCell ref="AK24:AT24"/>
+    <mergeCell ref="AK25:AT25"/>
+    <mergeCell ref="AK26:AT26"/>
+    <mergeCell ref="AK27:AT27"/>
+    <mergeCell ref="AK28:AT28"/>
+    <mergeCell ref="AK29:AT29"/>
+    <mergeCell ref="AK30:AT30"/>
+    <mergeCell ref="AK31:AT31"/>
+    <mergeCell ref="AN46:AO46"/>
+    <mergeCell ref="AT46:AV46"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AK33:AT33"/>
+    <mergeCell ref="AK34:AT34"/>
+    <mergeCell ref="AK35:AT35"/>
+    <mergeCell ref="AK37:AT37"/>
+    <mergeCell ref="AK38:AT38"/>
+    <mergeCell ref="AI39:AT39"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="3.937007874015748E-2" top="0" bottom="0" header="0.31496062992125984" footer="0"/>

--- a/Eljur/template.xlsx
+++ b/Eljur/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\source\repos\Eljur\Eljur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133F5A93-9036-4F08-8CE9-6F4EC3077AFC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E8F7C6-D770-4AA3-81D3-5C9A6F136672}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CFCA93-134A-4C41-B463-12BD2BC37BA8}"/>
   </bookViews>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Учет посещаемости</t>
   </si>
@@ -817,6 +817,124 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -827,15 +945,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -844,115 +953,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE93198-BB7A-4126-91BE-F4F0185F4DE6}">
   <dimension ref="A1:BE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW1" sqref="AW1:BE39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1337,103 +1337,103 @@
       <c r="AE1" s="56"/>
       <c r="AF1" s="56"/>
       <c r="AG1" s="56"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AI1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69" t="s">
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AY1" s="69" t="s">
+      <c r="AY1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AZ1" s="69"/>
-      <c r="BA1" s="69"/>
-      <c r="BB1" s="69"/>
-      <c r="BC1" s="69"/>
-      <c r="BD1" s="69"/>
-      <c r="BE1" s="69"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
     </row>
     <row r="2" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
       <c r="AH2" s="3"/>
-      <c r="AI2" s="42" t="s">
+      <c r="AI2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69">
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24">
         <v>2</v>
       </c>
-      <c r="AY2" s="69">
+      <c r="AY2" s="24">
         <f>AU39/hour</f>
         <v>0</v>
       </c>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="24"/>
     </row>
     <row r="3" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
@@ -1450,27 +1450,27 @@
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
@@ -1485,51 +1485,51 @@
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69">
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="24">
         <f>AU39/2</f>
         <v>0</v>
       </c>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
-      <c r="BB3" s="69"/>
-      <c r="BC3" s="69"/>
-      <c r="BD3" s="69"/>
-      <c r="BE3" s="69"/>
+      <c r="AY3" s="24"/>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24"/>
+      <c r="BE3" s="24"/>
     </row>
     <row r="4" spans="1:57" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
       <c r="AD4" s="47" t="s">
         <v>5</v>
       </c>
@@ -1560,46 +1560,46 @@
       <c r="AV4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
-      <c r="BC4" s="69"/>
-      <c r="BD4" s="69"/>
-      <c r="BE4" s="69"/>
+      <c r="AW4" s="24"/>
+      <c r="AX4" s="24"/>
+      <c r="AY4" s="24"/>
+      <c r="AZ4" s="24"/>
+      <c r="BA4" s="24"/>
+      <c r="BB4" s="24"/>
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="24"/>
     </row>
     <row r="5" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
       <c r="AD5" s="53"/>
       <c r="AE5" s="54"/>
       <c r="AF5" s="54"/>
@@ -1618,46 +1618,46 @@
       <c r="AT5" s="52"/>
       <c r="AU5" s="45"/>
       <c r="AV5" s="45"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="69"/>
-      <c r="BB5" s="69"/>
-      <c r="BC5" s="69"/>
-      <c r="BD5" s="69"/>
-      <c r="BE5" s="69"/>
+      <c r="AW5" s="24"/>
+      <c r="AX5" s="24"/>
+      <c r="AY5" s="24"/>
+      <c r="AZ5" s="24"/>
+      <c r="BA5" s="24"/>
+      <c r="BB5" s="24"/>
+      <c r="BC5" s="24"/>
+      <c r="BD5" s="24"/>
+      <c r="BE5" s="24"/>
     </row>
     <row r="6" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
       <c r="AD6" s="57" t="s">
         <v>11</v>
       </c>
@@ -1680,46 +1680,46 @@
       <c r="AT6" s="52"/>
       <c r="AU6" s="45"/>
       <c r="AV6" s="45"/>
-      <c r="AW6" s="69"/>
-      <c r="AX6" s="69"/>
-      <c r="AY6" s="69"/>
-      <c r="AZ6" s="69"/>
-      <c r="BA6" s="69"/>
-      <c r="BB6" s="69"/>
-      <c r="BC6" s="69"/>
-      <c r="BD6" s="69"/>
-      <c r="BE6" s="69"/>
+      <c r="AW6" s="24"/>
+      <c r="AX6" s="24"/>
+      <c r="AY6" s="24"/>
+      <c r="AZ6" s="24"/>
+      <c r="BA6" s="24"/>
+      <c r="BB6" s="24"/>
+      <c r="BC6" s="24"/>
+      <c r="BD6" s="24"/>
+      <c r="BE6" s="24"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A7" s="38"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
       <c r="AD7" s="59"/>
       <c r="AE7" s="60"/>
       <c r="AF7" s="59"/>
@@ -1738,17 +1738,17 @@
       <c r="AT7" s="55"/>
       <c r="AU7" s="46"/>
       <c r="AV7" s="46"/>
-      <c r="AW7" s="69"/>
-      <c r="AX7" s="69"/>
-      <c r="AY7" s="69"/>
-      <c r="AZ7" s="69" t="s">
+      <c r="AW7" s="24"/>
+      <c r="AX7" s="24"/>
+      <c r="AY7" s="24"/>
+      <c r="AZ7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="BA7" s="69"/>
-      <c r="BB7" s="69"/>
-      <c r="BC7" s="69"/>
-      <c r="BD7" s="69"/>
-      <c r="BE7" s="69"/>
+      <c r="BA7" s="24"/>
+      <c r="BB7" s="24"/>
+      <c r="BC7" s="24"/>
+      <c r="BD7" s="24"/>
+      <c r="BE7" s="24"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
@@ -1782,39 +1782,39 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="40"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="26"/>
       <c r="AI8" s="22"/>
       <c r="AJ8" s="22"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="28"/>
-      <c r="AR8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="29"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="36"/>
+      <c r="AQ8" s="36"/>
+      <c r="AR8" s="36"/>
+      <c r="AS8" s="36"/>
+      <c r="AT8" s="37"/>
       <c r="AU8" s="22">
         <f t="shared" ref="AU8:AU38" si="0">IF( AK8 ="", 0, $AX$2)</f>
         <v>0</v>
       </c>
       <c r="AV8" s="22"/>
-      <c r="AW8" s="69"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="69" t="str">
+      <c r="AW8" s="24"/>
+      <c r="AX8" s="24"/>
+      <c r="AY8" s="24"/>
+      <c r="AZ8" s="24" t="str">
         <f>IF( AD8="", "",((($AU$39-(AD8+AF8))/$AU$39)))</f>
         <v/>
       </c>
-      <c r="BA8" s="69"/>
-      <c r="BB8" s="69"/>
-      <c r="BC8" s="69"/>
-      <c r="BD8" s="69"/>
-      <c r="BE8" s="69"/>
+      <c r="BA8" s="24"/>
+      <c r="BB8" s="24"/>
+      <c r="BC8" s="24"/>
+      <c r="BD8" s="24"/>
+      <c r="BE8" s="24"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
@@ -1849,39 +1849,39 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="40"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="26"/>
       <c r="AI9" s="22"/>
       <c r="AJ9" s="22"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="28"/>
-      <c r="AQ9" s="28"/>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="29"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="37"/>
       <c r="AU9" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV9" s="22"/>
-      <c r="AW9" s="69"/>
-      <c r="AX9" s="69"/>
-      <c r="AY9" s="69"/>
-      <c r="AZ9" s="69" t="str">
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="24"/>
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="24" t="str">
         <f t="shared" ref="AZ9:AZ38" si="1">IF( AD9="", "",((($AU$39-(AD9+AF9))/$AU$39)))</f>
         <v/>
       </c>
-      <c r="BA9" s="69"/>
-      <c r="BB9" s="69"/>
-      <c r="BC9" s="69"/>
-      <c r="BD9" s="69"/>
-      <c r="BE9" s="69"/>
+      <c r="BA9" s="24"/>
+      <c r="BB9" s="24"/>
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="24"/>
+      <c r="BE9" s="24"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
@@ -1916,39 +1916,39 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="40"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="26"/>
       <c r="AI10" s="22"/>
       <c r="AJ10" s="22"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="28"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
-      <c r="AP10" s="28"/>
-      <c r="AQ10" s="28"/>
-      <c r="AR10" s="28"/>
-      <c r="AS10" s="28"/>
-      <c r="AT10" s="29"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="36"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="37"/>
       <c r="AU10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV10" s="22"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69" t="str">
+      <c r="AW10" s="24"/>
+      <c r="AX10" s="24"/>
+      <c r="AY10" s="24"/>
+      <c r="AZ10" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
-      <c r="BC10" s="69"/>
-      <c r="BD10" s="69"/>
-      <c r="BE10" s="69"/>
+      <c r="BA10" s="24"/>
+      <c r="BB10" s="24"/>
+      <c r="BC10" s="24"/>
+      <c r="BD10" s="24"/>
+      <c r="BE10" s="24"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
@@ -1983,39 +1983,39 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="40"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="26"/>
       <c r="AI11" s="22"/>
       <c r="AJ11" s="22"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28"/>
-      <c r="AO11" s="28"/>
-      <c r="AP11" s="28"/>
-      <c r="AQ11" s="28"/>
-      <c r="AR11" s="28"/>
-      <c r="AS11" s="28"/>
-      <c r="AT11" s="29"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="36"/>
+      <c r="AT11" s="37"/>
       <c r="AU11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV11" s="22"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="69" t="str">
+      <c r="AW11" s="24"/>
+      <c r="AX11" s="24"/>
+      <c r="AY11" s="24"/>
+      <c r="AZ11" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA11" s="69"/>
-      <c r="BB11" s="69"/>
-      <c r="BC11" s="69"/>
-      <c r="BD11" s="69"/>
-      <c r="BE11" s="69"/>
+      <c r="BA11" s="24"/>
+      <c r="BB11" s="24"/>
+      <c r="BC11" s="24"/>
+      <c r="BD11" s="24"/>
+      <c r="BE11" s="24"/>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
@@ -2050,39 +2050,39 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
       <c r="AC12" s="12"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="40"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="26"/>
       <c r="AI12" s="22"/>
       <c r="AJ12" s="22"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="28"/>
-      <c r="AQ12" s="28"/>
-      <c r="AR12" s="28"/>
-      <c r="AS12" s="28"/>
-      <c r="AT12" s="29"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="37"/>
       <c r="AU12" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV12" s="22"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="69" t="str">
+      <c r="AW12" s="24"/>
+      <c r="AX12" s="24"/>
+      <c r="AY12" s="24"/>
+      <c r="AZ12" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA12" s="69"/>
-      <c r="BB12" s="69"/>
-      <c r="BC12" s="69"/>
-      <c r="BD12" s="69"/>
-      <c r="BE12" s="69"/>
+      <c r="BA12" s="24"/>
+      <c r="BB12" s="24"/>
+      <c r="BC12" s="24"/>
+      <c r="BD12" s="24"/>
+      <c r="BE12" s="24"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
@@ -2117,39 +2117,39 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="40"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="26"/>
       <c r="AI13" s="22"/>
       <c r="AJ13" s="22"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="28"/>
-      <c r="AO13" s="28"/>
-      <c r="AP13" s="28"/>
-      <c r="AQ13" s="28"/>
-      <c r="AR13" s="28"/>
-      <c r="AS13" s="28"/>
-      <c r="AT13" s="29"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="37"/>
       <c r="AU13" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV13" s="22"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="69" t="str">
+      <c r="AW13" s="24"/>
+      <c r="AX13" s="24"/>
+      <c r="AY13" s="24"/>
+      <c r="AZ13" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA13" s="69"/>
-      <c r="BB13" s="69"/>
-      <c r="BC13" s="69"/>
-      <c r="BD13" s="69"/>
-      <c r="BE13" s="69"/>
+      <c r="BA13" s="24"/>
+      <c r="BB13" s="24"/>
+      <c r="BC13" s="24"/>
+      <c r="BD13" s="24"/>
+      <c r="BE13" s="24"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
@@ -2184,39 +2184,39 @@
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="40"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="26"/>
       <c r="AI14" s="22"/>
       <c r="AJ14" s="22"/>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="28"/>
-      <c r="AQ14" s="28"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="28"/>
-      <c r="AT14" s="29"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="37"/>
       <c r="AU14" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV14" s="22"/>
-      <c r="AW14" s="69"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="69"/>
-      <c r="AZ14" s="69" t="str">
+      <c r="AW14" s="24"/>
+      <c r="AX14" s="24"/>
+      <c r="AY14" s="24"/>
+      <c r="AZ14" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA14" s="69"/>
-      <c r="BB14" s="69"/>
-      <c r="BC14" s="69"/>
-      <c r="BD14" s="69"/>
-      <c r="BE14" s="69"/>
+      <c r="BA14" s="24"/>
+      <c r="BB14" s="24"/>
+      <c r="BC14" s="24"/>
+      <c r="BD14" s="24"/>
+      <c r="BE14" s="24"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
@@ -2251,39 +2251,39 @@
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="40"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="26"/>
       <c r="AI15" s="22"/>
       <c r="AJ15" s="22"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="28"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="28"/>
-      <c r="AO15" s="28"/>
-      <c r="AP15" s="28"/>
-      <c r="AQ15" s="28"/>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="29"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="37"/>
       <c r="AU15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV15" s="22"/>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="69"/>
-      <c r="AZ15" s="69" t="str">
+      <c r="AW15" s="24"/>
+      <c r="AX15" s="24"/>
+      <c r="AY15" s="24"/>
+      <c r="AZ15" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA15" s="69"/>
-      <c r="BB15" s="69"/>
-      <c r="BC15" s="69"/>
-      <c r="BD15" s="69"/>
-      <c r="BE15" s="69"/>
+      <c r="BA15" s="24"/>
+      <c r="BB15" s="24"/>
+      <c r="BC15" s="24"/>
+      <c r="BD15" s="24"/>
+      <c r="BE15" s="24"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
@@ -2318,39 +2318,39 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="40"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="26"/>
       <c r="AI16" s="22"/>
       <c r="AJ16" s="22"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
-      <c r="AP16" s="28"/>
-      <c r="AQ16" s="28"/>
-      <c r="AR16" s="28"/>
-      <c r="AS16" s="28"/>
-      <c r="AT16" s="29"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="37"/>
       <c r="AU16" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV16" s="22"/>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="69"/>
-      <c r="AZ16" s="69" t="str">
+      <c r="AW16" s="24"/>
+      <c r="AX16" s="24"/>
+      <c r="AY16" s="24"/>
+      <c r="AZ16" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA16" s="69"/>
-      <c r="BB16" s="69"/>
-      <c r="BC16" s="69"/>
-      <c r="BD16" s="69"/>
-      <c r="BE16" s="69"/>
+      <c r="BA16" s="24"/>
+      <c r="BB16" s="24"/>
+      <c r="BC16" s="24"/>
+      <c r="BD16" s="24"/>
+      <c r="BE16" s="24"/>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
@@ -2385,39 +2385,39 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="40"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="26"/>
       <c r="AI17" s="22"/>
       <c r="AJ17" s="22"/>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
-      <c r="AP17" s="28"/>
-      <c r="AQ17" s="28"/>
-      <c r="AR17" s="28"/>
-      <c r="AS17" s="28"/>
-      <c r="AT17" s="29"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="37"/>
       <c r="AU17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV17" s="22"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="69" t="str">
+      <c r="AW17" s="24"/>
+      <c r="AX17" s="24"/>
+      <c r="AY17" s="24"/>
+      <c r="AZ17" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA17" s="69"/>
-      <c r="BB17" s="69"/>
-      <c r="BC17" s="69"/>
-      <c r="BD17" s="69"/>
-      <c r="BE17" s="69"/>
+      <c r="BA17" s="24"/>
+      <c r="BB17" s="24"/>
+      <c r="BC17" s="24"/>
+      <c r="BD17" s="24"/>
+      <c r="BE17" s="24"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
@@ -2452,39 +2452,39 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="40"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="26"/>
       <c r="AI18" s="22"/>
       <c r="AJ18" s="22"/>
-      <c r="AK18" s="27"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="28"/>
-      <c r="AR18" s="28"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="29"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="36"/>
+      <c r="AT18" s="37"/>
       <c r="AU18" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV18" s="22"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="69"/>
-      <c r="AZ18" s="69" t="str">
+      <c r="AW18" s="24"/>
+      <c r="AX18" s="24"/>
+      <c r="AY18" s="24"/>
+      <c r="AZ18" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA18" s="69"/>
-      <c r="BB18" s="69"/>
-      <c r="BC18" s="69"/>
-      <c r="BD18" s="69"/>
-      <c r="BE18" s="69"/>
+      <c r="BA18" s="24"/>
+      <c r="BB18" s="24"/>
+      <c r="BC18" s="24"/>
+      <c r="BD18" s="24"/>
+      <c r="BE18" s="24"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
@@ -2519,39 +2519,39 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="40"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="26"/>
       <c r="AI19" s="22"/>
       <c r="AJ19" s="22"/>
-      <c r="AK19" s="27"/>
-      <c r="AL19" s="28"/>
-      <c r="AM19" s="28"/>
-      <c r="AN19" s="28"/>
-      <c r="AO19" s="28"/>
-      <c r="AP19" s="28"/>
-      <c r="AQ19" s="28"/>
-      <c r="AR19" s="28"/>
-      <c r="AS19" s="28"/>
-      <c r="AT19" s="29"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="37"/>
       <c r="AU19" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV19" s="22"/>
-      <c r="AW19" s="69"/>
-      <c r="AX19" s="69"/>
-      <c r="AY19" s="69"/>
-      <c r="AZ19" s="69" t="str">
+      <c r="AW19" s="24"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA19" s="69"/>
-      <c r="BB19" s="69"/>
-      <c r="BC19" s="69"/>
-      <c r="BD19" s="69"/>
-      <c r="BE19" s="69"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="24"/>
+      <c r="BC19" s="24"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="24"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
@@ -2586,39 +2586,39 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="40"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="26"/>
       <c r="AI20" s="22"/>
       <c r="AJ20" s="22"/>
-      <c r="AK20" s="27"/>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
-      <c r="AP20" s="28"/>
-      <c r="AQ20" s="28"/>
-      <c r="AR20" s="28"/>
-      <c r="AS20" s="28"/>
-      <c r="AT20" s="29"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="36"/>
+      <c r="AS20" s="36"/>
+      <c r="AT20" s="37"/>
       <c r="AU20" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV20" s="22"/>
-      <c r="AW20" s="69"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="69"/>
-      <c r="AZ20" s="69" t="str">
+      <c r="AW20" s="24"/>
+      <c r="AX20" s="24"/>
+      <c r="AY20" s="24"/>
+      <c r="AZ20" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA20" s="69"/>
-      <c r="BB20" s="69"/>
-      <c r="BC20" s="69"/>
-      <c r="BD20" s="69"/>
-      <c r="BE20" s="69"/>
+      <c r="BA20" s="24"/>
+      <c r="BB20" s="24"/>
+      <c r="BC20" s="24"/>
+      <c r="BD20" s="24"/>
+      <c r="BE20" s="24"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
@@ -2653,39 +2653,39 @@
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="40"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="26"/>
       <c r="AI21" s="22"/>
       <c r="AJ21" s="22"/>
-      <c r="AK21" s="27"/>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
-      <c r="AP21" s="28"/>
-      <c r="AQ21" s="28"/>
-      <c r="AR21" s="28"/>
-      <c r="AS21" s="28"/>
-      <c r="AT21" s="29"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="36"/>
+      <c r="AS21" s="36"/>
+      <c r="AT21" s="37"/>
       <c r="AU21" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV21" s="22"/>
-      <c r="AW21" s="69"/>
-      <c r="AX21" s="69"/>
-      <c r="AY21" s="69"/>
-      <c r="AZ21" s="69" t="str">
+      <c r="AW21" s="24"/>
+      <c r="AX21" s="24"/>
+      <c r="AY21" s="24"/>
+      <c r="AZ21" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA21" s="69"/>
-      <c r="BB21" s="69"/>
-      <c r="BC21" s="69"/>
-      <c r="BD21" s="69"/>
-      <c r="BE21" s="69"/>
+      <c r="BA21" s="24"/>
+      <c r="BB21" s="24"/>
+      <c r="BC21" s="24"/>
+      <c r="BD21" s="24"/>
+      <c r="BE21" s="24"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
@@ -2720,39 +2720,39 @@
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="40"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="26"/>
       <c r="AI22" s="22"/>
       <c r="AJ22" s="22"/>
-      <c r="AK22" s="27"/>
-      <c r="AL22" s="28"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
-      <c r="AP22" s="28"/>
-      <c r="AQ22" s="28"/>
-      <c r="AR22" s="28"/>
-      <c r="AS22" s="28"/>
-      <c r="AT22" s="29"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="36"/>
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="36"/>
+      <c r="AR22" s="36"/>
+      <c r="AS22" s="36"/>
+      <c r="AT22" s="37"/>
       <c r="AU22" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV22" s="22"/>
-      <c r="AW22" s="69"/>
-      <c r="AX22" s="69"/>
-      <c r="AY22" s="69"/>
-      <c r="AZ22" s="69" t="str">
+      <c r="AW22" s="24"/>
+      <c r="AX22" s="24"/>
+      <c r="AY22" s="24"/>
+      <c r="AZ22" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA22" s="69"/>
-      <c r="BB22" s="69"/>
-      <c r="BC22" s="69"/>
-      <c r="BD22" s="69"/>
-      <c r="BE22" s="69"/>
+      <c r="BA22" s="24"/>
+      <c r="BB22" s="24"/>
+      <c r="BC22" s="24"/>
+      <c r="BD22" s="24"/>
+      <c r="BE22" s="24"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
@@ -2787,39 +2787,39 @@
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="40"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="26"/>
       <c r="AI23" s="22"/>
       <c r="AJ23" s="22"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="28"/>
-      <c r="AQ23" s="28"/>
-      <c r="AR23" s="28"/>
-      <c r="AS23" s="28"/>
-      <c r="AT23" s="29"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="36"/>
+      <c r="AM23" s="36"/>
+      <c r="AN23" s="36"/>
+      <c r="AO23" s="36"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="36"/>
+      <c r="AR23" s="36"/>
+      <c r="AS23" s="36"/>
+      <c r="AT23" s="37"/>
       <c r="AU23" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV23" s="22"/>
-      <c r="AW23" s="69"/>
-      <c r="AX23" s="69"/>
-      <c r="AY23" s="69"/>
-      <c r="AZ23" s="69" t="str">
+      <c r="AW23" s="24"/>
+      <c r="AX23" s="24"/>
+      <c r="AY23" s="24"/>
+      <c r="AZ23" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA23" s="69"/>
-      <c r="BB23" s="69"/>
-      <c r="BC23" s="69"/>
-      <c r="BD23" s="69"/>
-      <c r="BE23" s="69"/>
+      <c r="BA23" s="24"/>
+      <c r="BB23" s="24"/>
+      <c r="BC23" s="24"/>
+      <c r="BD23" s="24"/>
+      <c r="BE23" s="24"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
@@ -2854,39 +2854,39 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="40"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="26"/>
       <c r="AI24" s="22"/>
       <c r="AJ24" s="22"/>
-      <c r="AK24" s="27"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="28"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
-      <c r="AT24" s="29"/>
+      <c r="AK24" s="35"/>
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="36"/>
+      <c r="AO24" s="36"/>
+      <c r="AP24" s="36"/>
+      <c r="AQ24" s="36"/>
+      <c r="AR24" s="36"/>
+      <c r="AS24" s="36"/>
+      <c r="AT24" s="37"/>
       <c r="AU24" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV24" s="22"/>
-      <c r="AW24" s="69"/>
-      <c r="AX24" s="69"/>
-      <c r="AY24" s="69"/>
-      <c r="AZ24" s="69" t="str">
+      <c r="AW24" s="24"/>
+      <c r="AX24" s="24"/>
+      <c r="AY24" s="24"/>
+      <c r="AZ24" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA24" s="69"/>
-      <c r="BB24" s="69"/>
-      <c r="BC24" s="69"/>
-      <c r="BD24" s="69"/>
-      <c r="BE24" s="69"/>
+      <c r="BA24" s="24"/>
+      <c r="BB24" s="24"/>
+      <c r="BC24" s="24"/>
+      <c r="BD24" s="24"/>
+      <c r="BE24" s="24"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
@@ -2921,39 +2921,39 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="40"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="26"/>
       <c r="AI25" s="22"/>
       <c r="AJ25" s="22"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
-      <c r="AP25" s="28"/>
-      <c r="AQ25" s="28"/>
-      <c r="AR25" s="28"/>
-      <c r="AS25" s="28"/>
-      <c r="AT25" s="29"/>
+      <c r="AK25" s="35"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="36"/>
+      <c r="AN25" s="36"/>
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="36"/>
+      <c r="AQ25" s="36"/>
+      <c r="AR25" s="36"/>
+      <c r="AS25" s="36"/>
+      <c r="AT25" s="37"/>
       <c r="AU25" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV25" s="22"/>
-      <c r="AW25" s="69"/>
-      <c r="AX25" s="69"/>
-      <c r="AY25" s="69"/>
-      <c r="AZ25" s="69" t="str">
+      <c r="AW25" s="24"/>
+      <c r="AX25" s="24"/>
+      <c r="AY25" s="24"/>
+      <c r="AZ25" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA25" s="69"/>
-      <c r="BB25" s="69"/>
-      <c r="BC25" s="69"/>
-      <c r="BD25" s="69"/>
-      <c r="BE25" s="69"/>
+      <c r="BA25" s="24"/>
+      <c r="BB25" s="24"/>
+      <c r="BC25" s="24"/>
+      <c r="BD25" s="24"/>
+      <c r="BE25" s="24"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
@@ -2988,39 +2988,39 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
-      <c r="AD26" s="39"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="40"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="26"/>
       <c r="AI26" s="22"/>
       <c r="AJ26" s="22"/>
-      <c r="AK26" s="27"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="28"/>
-      <c r="AO26" s="28"/>
-      <c r="AP26" s="28"/>
-      <c r="AQ26" s="28"/>
-      <c r="AR26" s="28"/>
-      <c r="AS26" s="28"/>
-      <c r="AT26" s="29"/>
+      <c r="AK26" s="35"/>
+      <c r="AL26" s="36"/>
+      <c r="AM26" s="36"/>
+      <c r="AN26" s="36"/>
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="36"/>
+      <c r="AQ26" s="36"/>
+      <c r="AR26" s="36"/>
+      <c r="AS26" s="36"/>
+      <c r="AT26" s="37"/>
       <c r="AU26" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV26" s="22"/>
-      <c r="AW26" s="69"/>
-      <c r="AX26" s="69"/>
-      <c r="AY26" s="69"/>
-      <c r="AZ26" s="69" t="str">
+      <c r="AW26" s="24"/>
+      <c r="AX26" s="24"/>
+      <c r="AY26" s="24"/>
+      <c r="AZ26" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA26" s="69"/>
-      <c r="BB26" s="69"/>
-      <c r="BC26" s="69"/>
-      <c r="BD26" s="69"/>
-      <c r="BE26" s="69"/>
+      <c r="BA26" s="24"/>
+      <c r="BB26" s="24"/>
+      <c r="BC26" s="24"/>
+      <c r="BD26" s="24"/>
+      <c r="BE26" s="24"/>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
@@ -3055,39 +3055,39 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="40"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="26"/>
       <c r="AI27" s="22"/>
       <c r="AJ27" s="22"/>
-      <c r="AK27" s="27"/>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="28"/>
-      <c r="AN27" s="28"/>
-      <c r="AO27" s="28"/>
-      <c r="AP27" s="28"/>
-      <c r="AQ27" s="28"/>
-      <c r="AR27" s="28"/>
-      <c r="AS27" s="28"/>
-      <c r="AT27" s="29"/>
+      <c r="AK27" s="35"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="36"/>
+      <c r="AR27" s="36"/>
+      <c r="AS27" s="36"/>
+      <c r="AT27" s="37"/>
       <c r="AU27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV27" s="22"/>
-      <c r="AW27" s="69"/>
-      <c r="AX27" s="69"/>
-      <c r="AY27" s="69"/>
-      <c r="AZ27" s="69" t="str">
+      <c r="AW27" s="24"/>
+      <c r="AX27" s="24"/>
+      <c r="AY27" s="24"/>
+      <c r="AZ27" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA27" s="69"/>
-      <c r="BB27" s="69"/>
-      <c r="BC27" s="69"/>
-      <c r="BD27" s="69"/>
-      <c r="BE27" s="69"/>
+      <c r="BA27" s="24"/>
+      <c r="BB27" s="24"/>
+      <c r="BC27" s="24"/>
+      <c r="BD27" s="24"/>
+      <c r="BE27" s="24"/>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
@@ -3122,39 +3122,39 @@
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="40"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="26"/>
       <c r="AI28" s="22"/>
       <c r="AJ28" s="22"/>
-      <c r="AK28" s="27"/>
-      <c r="AL28" s="28"/>
-      <c r="AM28" s="28"/>
-      <c r="AN28" s="28"/>
-      <c r="AO28" s="28"/>
-      <c r="AP28" s="28"/>
-      <c r="AQ28" s="28"/>
-      <c r="AR28" s="28"/>
-      <c r="AS28" s="28"/>
-      <c r="AT28" s="29"/>
+      <c r="AK28" s="35"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="36"/>
+      <c r="AR28" s="36"/>
+      <c r="AS28" s="36"/>
+      <c r="AT28" s="37"/>
       <c r="AU28" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV28" s="22"/>
-      <c r="AW28" s="69"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="69"/>
-      <c r="AZ28" s="69" t="str">
+      <c r="AW28" s="24"/>
+      <c r="AX28" s="24"/>
+      <c r="AY28" s="24"/>
+      <c r="AZ28" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA28" s="69"/>
-      <c r="BB28" s="69"/>
-      <c r="BC28" s="69"/>
-      <c r="BD28" s="69"/>
-      <c r="BE28" s="69"/>
+      <c r="BA28" s="24"/>
+      <c r="BB28" s="24"/>
+      <c r="BC28" s="24"/>
+      <c r="BD28" s="24"/>
+      <c r="BE28" s="24"/>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
@@ -3189,39 +3189,39 @@
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
-      <c r="AD29" s="39"/>
-      <c r="AE29" s="40"/>
-      <c r="AF29" s="39"/>
-      <c r="AG29" s="40"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="26"/>
       <c r="AI29" s="22"/>
       <c r="AJ29" s="22"/>
-      <c r="AK29" s="27"/>
-      <c r="AL29" s="28"/>
-      <c r="AM29" s="28"/>
-      <c r="AN29" s="28"/>
-      <c r="AO29" s="28"/>
-      <c r="AP29" s="28"/>
-      <c r="AQ29" s="28"/>
-      <c r="AR29" s="28"/>
-      <c r="AS29" s="28"/>
-      <c r="AT29" s="29"/>
+      <c r="AK29" s="35"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="36"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="36"/>
+      <c r="AQ29" s="36"/>
+      <c r="AR29" s="36"/>
+      <c r="AS29" s="36"/>
+      <c r="AT29" s="37"/>
       <c r="AU29" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV29" s="22"/>
-      <c r="AW29" s="69"/>
-      <c r="AX29" s="69"/>
-      <c r="AY29" s="69"/>
-      <c r="AZ29" s="69" t="str">
+      <c r="AW29" s="24"/>
+      <c r="AX29" s="24"/>
+      <c r="AY29" s="24"/>
+      <c r="AZ29" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA29" s="69"/>
-      <c r="BB29" s="69"/>
-      <c r="BC29" s="69"/>
-      <c r="BD29" s="69"/>
-      <c r="BE29" s="69"/>
+      <c r="BA29" s="24"/>
+      <c r="BB29" s="24"/>
+      <c r="BC29" s="24"/>
+      <c r="BD29" s="24"/>
+      <c r="BE29" s="24"/>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
@@ -3256,39 +3256,39 @@
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="40"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="40"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="26"/>
       <c r="AI30" s="22"/>
       <c r="AJ30" s="22"/>
-      <c r="AK30" s="27"/>
-      <c r="AL30" s="28"/>
-      <c r="AM30" s="28"/>
-      <c r="AN30" s="28"/>
-      <c r="AO30" s="28"/>
-      <c r="AP30" s="28"/>
-      <c r="AQ30" s="28"/>
-      <c r="AR30" s="28"/>
-      <c r="AS30" s="28"/>
-      <c r="AT30" s="29"/>
+      <c r="AK30" s="35"/>
+      <c r="AL30" s="36"/>
+      <c r="AM30" s="36"/>
+      <c r="AN30" s="36"/>
+      <c r="AO30" s="36"/>
+      <c r="AP30" s="36"/>
+      <c r="AQ30" s="36"/>
+      <c r="AR30" s="36"/>
+      <c r="AS30" s="36"/>
+      <c r="AT30" s="37"/>
       <c r="AU30" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV30" s="22"/>
-      <c r="AW30" s="69"/>
-      <c r="AX30" s="69"/>
-      <c r="AY30" s="69"/>
-      <c r="AZ30" s="69" t="str">
+      <c r="AW30" s="24"/>
+      <c r="AX30" s="24"/>
+      <c r="AY30" s="24"/>
+      <c r="AZ30" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA30" s="69"/>
-      <c r="BB30" s="69"/>
-      <c r="BC30" s="69"/>
-      <c r="BD30" s="69"/>
-      <c r="BE30" s="69"/>
+      <c r="BA30" s="24"/>
+      <c r="BB30" s="24"/>
+      <c r="BC30" s="24"/>
+      <c r="BD30" s="24"/>
+      <c r="BE30" s="24"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
@@ -3323,39 +3323,39 @@
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="40"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="40"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="26"/>
       <c r="AI31" s="22"/>
       <c r="AJ31" s="22"/>
-      <c r="AK31" s="27"/>
-      <c r="AL31" s="28"/>
-      <c r="AM31" s="28"/>
-      <c r="AN31" s="28"/>
-      <c r="AO31" s="28"/>
-      <c r="AP31" s="28"/>
-      <c r="AQ31" s="28"/>
-      <c r="AR31" s="28"/>
-      <c r="AS31" s="28"/>
-      <c r="AT31" s="29"/>
+      <c r="AK31" s="35"/>
+      <c r="AL31" s="36"/>
+      <c r="AM31" s="36"/>
+      <c r="AN31" s="36"/>
+      <c r="AO31" s="36"/>
+      <c r="AP31" s="36"/>
+      <c r="AQ31" s="36"/>
+      <c r="AR31" s="36"/>
+      <c r="AS31" s="36"/>
+      <c r="AT31" s="37"/>
       <c r="AU31" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV31" s="22"/>
-      <c r="AW31" s="69"/>
-      <c r="AX31" s="69"/>
-      <c r="AY31" s="69"/>
-      <c r="AZ31" s="69" t="str">
+      <c r="AW31" s="24"/>
+      <c r="AX31" s="24"/>
+      <c r="AY31" s="24"/>
+      <c r="AZ31" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA31" s="69"/>
-      <c r="BB31" s="69"/>
-      <c r="BC31" s="69"/>
-      <c r="BD31" s="69"/>
-      <c r="BE31" s="69"/>
+      <c r="BA31" s="24"/>
+      <c r="BB31" s="24"/>
+      <c r="BC31" s="24"/>
+      <c r="BD31" s="24"/>
+      <c r="BE31" s="24"/>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
@@ -3390,39 +3390,39 @@
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
       <c r="AC32" s="12"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="40"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="26"/>
       <c r="AI32" s="22"/>
       <c r="AJ32" s="22"/>
-      <c r="AK32" s="27"/>
-      <c r="AL32" s="28"/>
-      <c r="AM32" s="28"/>
-      <c r="AN32" s="28"/>
-      <c r="AO32" s="28"/>
-      <c r="AP32" s="28"/>
-      <c r="AQ32" s="28"/>
-      <c r="AR32" s="28"/>
-      <c r="AS32" s="28"/>
-      <c r="AT32" s="29"/>
+      <c r="AK32" s="35"/>
+      <c r="AL32" s="36"/>
+      <c r="AM32" s="36"/>
+      <c r="AN32" s="36"/>
+      <c r="AO32" s="36"/>
+      <c r="AP32" s="36"/>
+      <c r="AQ32" s="36"/>
+      <c r="AR32" s="36"/>
+      <c r="AS32" s="36"/>
+      <c r="AT32" s="37"/>
       <c r="AU32" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV32" s="22"/>
-      <c r="AW32" s="69"/>
-      <c r="AX32" s="69"/>
-      <c r="AY32" s="69"/>
-      <c r="AZ32" s="69" t="str">
+      <c r="AW32" s="24"/>
+      <c r="AX32" s="24"/>
+      <c r="AY32" s="24"/>
+      <c r="AZ32" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA32" s="69"/>
-      <c r="BB32" s="69"/>
-      <c r="BC32" s="69"/>
-      <c r="BD32" s="69"/>
-      <c r="BE32" s="69"/>
+      <c r="BA32" s="24"/>
+      <c r="BB32" s="24"/>
+      <c r="BC32" s="24"/>
+      <c r="BD32" s="24"/>
+      <c r="BE32" s="24"/>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
@@ -3457,39 +3457,39 @@
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
       <c r="AC33" s="12"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="40"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="40"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="26"/>
       <c r="AI33" s="22"/>
       <c r="AJ33" s="22"/>
-      <c r="AK33" s="27"/>
-      <c r="AL33" s="28"/>
-      <c r="AM33" s="28"/>
-      <c r="AN33" s="28"/>
-      <c r="AO33" s="28"/>
-      <c r="AP33" s="28"/>
-      <c r="AQ33" s="28"/>
-      <c r="AR33" s="28"/>
-      <c r="AS33" s="28"/>
-      <c r="AT33" s="29"/>
+      <c r="AK33" s="35"/>
+      <c r="AL33" s="36"/>
+      <c r="AM33" s="36"/>
+      <c r="AN33" s="36"/>
+      <c r="AO33" s="36"/>
+      <c r="AP33" s="36"/>
+      <c r="AQ33" s="36"/>
+      <c r="AR33" s="36"/>
+      <c r="AS33" s="36"/>
+      <c r="AT33" s="37"/>
       <c r="AU33" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV33" s="22"/>
-      <c r="AW33" s="69"/>
-      <c r="AX33" s="69"/>
-      <c r="AY33" s="69"/>
-      <c r="AZ33" s="69" t="str">
+      <c r="AW33" s="24"/>
+      <c r="AX33" s="24"/>
+      <c r="AY33" s="24"/>
+      <c r="AZ33" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA33" s="69"/>
-      <c r="BB33" s="69"/>
-      <c r="BC33" s="69"/>
-      <c r="BD33" s="69"/>
-      <c r="BE33" s="69"/>
+      <c r="BA33" s="24"/>
+      <c r="BB33" s="24"/>
+      <c r="BC33" s="24"/>
+      <c r="BD33" s="24"/>
+      <c r="BE33" s="24"/>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
@@ -3524,39 +3524,39 @@
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="40"/>
-      <c r="AF34" s="39"/>
-      <c r="AG34" s="40"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="26"/>
       <c r="AI34" s="22"/>
       <c r="AJ34" s="22"/>
-      <c r="AK34" s="27"/>
-      <c r="AL34" s="28"/>
-      <c r="AM34" s="28"/>
-      <c r="AN34" s="28"/>
-      <c r="AO34" s="28"/>
-      <c r="AP34" s="28"/>
-      <c r="AQ34" s="28"/>
-      <c r="AR34" s="28"/>
-      <c r="AS34" s="28"/>
-      <c r="AT34" s="29"/>
+      <c r="AK34" s="35"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="36"/>
+      <c r="AN34" s="36"/>
+      <c r="AO34" s="36"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="36"/>
+      <c r="AR34" s="36"/>
+      <c r="AS34" s="36"/>
+      <c r="AT34" s="37"/>
       <c r="AU34" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV34" s="22"/>
-      <c r="AW34" s="69"/>
-      <c r="AX34" s="69"/>
-      <c r="AY34" s="69"/>
-      <c r="AZ34" s="69" t="str">
+      <c r="AW34" s="24"/>
+      <c r="AX34" s="24"/>
+      <c r="AY34" s="24"/>
+      <c r="AZ34" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA34" s="69"/>
-      <c r="BB34" s="69"/>
-      <c r="BC34" s="69"/>
-      <c r="BD34" s="69"/>
-      <c r="BE34" s="69"/>
+      <c r="BA34" s="24"/>
+      <c r="BB34" s="24"/>
+      <c r="BC34" s="24"/>
+      <c r="BD34" s="24"/>
+      <c r="BE34" s="24"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
@@ -3591,39 +3591,39 @@
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
       <c r="AC35" s="12"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="40"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="40"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="26"/>
       <c r="AI35" s="22"/>
       <c r="AJ35" s="22"/>
-      <c r="AK35" s="27"/>
-      <c r="AL35" s="28"/>
-      <c r="AM35" s="28"/>
-      <c r="AN35" s="28"/>
-      <c r="AO35" s="28"/>
-      <c r="AP35" s="28"/>
-      <c r="AQ35" s="28"/>
-      <c r="AR35" s="28"/>
-      <c r="AS35" s="28"/>
-      <c r="AT35" s="29"/>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
+      <c r="AT35" s="37"/>
       <c r="AU35" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV35" s="22"/>
-      <c r="AW35" s="69"/>
-      <c r="AX35" s="69"/>
-      <c r="AY35" s="69"/>
-      <c r="AZ35" s="69" t="str">
+      <c r="AW35" s="24"/>
+      <c r="AX35" s="24"/>
+      <c r="AY35" s="24"/>
+      <c r="AZ35" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA35" s="69"/>
-      <c r="BB35" s="69"/>
-      <c r="BC35" s="69"/>
-      <c r="BD35" s="69"/>
-      <c r="BE35" s="69"/>
+      <c r="BA35" s="24"/>
+      <c r="BB35" s="24"/>
+      <c r="BC35" s="24"/>
+      <c r="BD35" s="24"/>
+      <c r="BE35" s="24"/>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
@@ -3658,39 +3658,39 @@
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
       <c r="AC36" s="12"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="40"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="40"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="26"/>
       <c r="AI36" s="22"/>
       <c r="AJ36" s="22"/>
-      <c r="AK36" s="27"/>
-      <c r="AL36" s="28"/>
-      <c r="AM36" s="28"/>
-      <c r="AN36" s="28"/>
-      <c r="AO36" s="28"/>
-      <c r="AP36" s="28"/>
-      <c r="AQ36" s="28"/>
-      <c r="AR36" s="28"/>
-      <c r="AS36" s="28"/>
-      <c r="AT36" s="29"/>
+      <c r="AK36" s="35"/>
+      <c r="AL36" s="36"/>
+      <c r="AM36" s="36"/>
+      <c r="AN36" s="36"/>
+      <c r="AO36" s="36"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="36"/>
+      <c r="AR36" s="36"/>
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="37"/>
       <c r="AU36" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV36" s="22"/>
-      <c r="AW36" s="69"/>
-      <c r="AX36" s="69"/>
-      <c r="AY36" s="69"/>
-      <c r="AZ36" s="69" t="str">
+      <c r="AW36" s="24"/>
+      <c r="AX36" s="24"/>
+      <c r="AY36" s="24"/>
+      <c r="AZ36" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA36" s="69"/>
-      <c r="BB36" s="69"/>
-      <c r="BC36" s="69"/>
-      <c r="BD36" s="69"/>
-      <c r="BE36" s="69"/>
+      <c r="BA36" s="24"/>
+      <c r="BB36" s="24"/>
+      <c r="BC36" s="24"/>
+      <c r="BD36" s="24"/>
+      <c r="BE36" s="24"/>
     </row>
     <row r="37" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
@@ -3724,39 +3724,39 @@
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="40"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="40"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="26"/>
       <c r="AI37" s="22"/>
       <c r="AJ37" s="22"/>
-      <c r="AK37" s="27"/>
-      <c r="AL37" s="28"/>
-      <c r="AM37" s="28"/>
-      <c r="AN37" s="28"/>
-      <c r="AO37" s="28"/>
-      <c r="AP37" s="28"/>
-      <c r="AQ37" s="28"/>
-      <c r="AR37" s="28"/>
-      <c r="AS37" s="28"/>
-      <c r="AT37" s="29"/>
+      <c r="AK37" s="35"/>
+      <c r="AL37" s="36"/>
+      <c r="AM37" s="36"/>
+      <c r="AN37" s="36"/>
+      <c r="AO37" s="36"/>
+      <c r="AP37" s="36"/>
+      <c r="AQ37" s="36"/>
+      <c r="AR37" s="36"/>
+      <c r="AS37" s="36"/>
+      <c r="AT37" s="37"/>
       <c r="AU37" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV37" s="22"/>
-      <c r="AW37" s="69"/>
-      <c r="AX37" s="69"/>
-      <c r="AY37" s="69"/>
-      <c r="AZ37" s="69" t="str">
+      <c r="AW37" s="24"/>
+      <c r="AX37" s="24"/>
+      <c r="AY37" s="24"/>
+      <c r="AZ37" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA37" s="69"/>
-      <c r="BB37" s="69"/>
-      <c r="BC37" s="69"/>
-      <c r="BD37" s="69"/>
-      <c r="BE37" s="69"/>
+      <c r="BA37" s="24"/>
+      <c r="BB37" s="24"/>
+      <c r="BC37" s="24"/>
+      <c r="BD37" s="24"/>
+      <c r="BE37" s="24"/>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
@@ -3788,39 +3788,39 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
-      <c r="AD38" s="39"/>
-      <c r="AE38" s="40"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="40"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="26"/>
       <c r="AI38" s="22"/>
       <c r="AJ38" s="22"/>
-      <c r="AK38" s="27"/>
-      <c r="AL38" s="28"/>
-      <c r="AM38" s="28"/>
-      <c r="AN38" s="28"/>
-      <c r="AO38" s="28"/>
-      <c r="AP38" s="28"/>
-      <c r="AQ38" s="28"/>
-      <c r="AR38" s="28"/>
-      <c r="AS38" s="28"/>
-      <c r="AT38" s="29"/>
+      <c r="AK38" s="35"/>
+      <c r="AL38" s="36"/>
+      <c r="AM38" s="36"/>
+      <c r="AN38" s="36"/>
+      <c r="AO38" s="36"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="36"/>
+      <c r="AR38" s="36"/>
+      <c r="AS38" s="36"/>
+      <c r="AT38" s="37"/>
       <c r="AU38" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV38" s="22"/>
-      <c r="AW38" s="69"/>
-      <c r="AX38" s="69"/>
-      <c r="AY38" s="69"/>
-      <c r="AZ38" s="69" t="str">
+      <c r="AW38" s="24"/>
+      <c r="AX38" s="24"/>
+      <c r="AY38" s="24"/>
+      <c r="AZ38" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="BA38" s="69"/>
-      <c r="BB38" s="69"/>
-      <c r="BC38" s="69"/>
-      <c r="BD38" s="69"/>
-      <c r="BE38" s="69"/>
+      <c r="BA38" s="24"/>
+      <c r="BB38" s="24"/>
+      <c r="BC38" s="24"/>
+      <c r="BD38" s="24"/>
+      <c r="BE38" s="24"/>
     </row>
     <row r="39" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
@@ -3852,43 +3852,43 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="40"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="40"/>
-      <c r="AI39" s="30" t="s">
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="26"/>
+      <c r="AI39" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="AJ39" s="31"/>
-      <c r="AK39" s="31"/>
-      <c r="AL39" s="31"/>
-      <c r="AM39" s="31"/>
-      <c r="AN39" s="31"/>
-      <c r="AO39" s="31"/>
-      <c r="AP39" s="31"/>
-      <c r="AQ39" s="31"/>
-      <c r="AR39" s="31"/>
-      <c r="AS39" s="31"/>
-      <c r="AT39" s="32"/>
+      <c r="AJ39" s="68"/>
+      <c r="AK39" s="68"/>
+      <c r="AL39" s="68"/>
+      <c r="AM39" s="68"/>
+      <c r="AN39" s="68"/>
+      <c r="AO39" s="68"/>
+      <c r="AP39" s="68"/>
+      <c r="AQ39" s="68"/>
+      <c r="AR39" s="68"/>
+      <c r="AS39" s="68"/>
+      <c r="AT39" s="69"/>
       <c r="AU39" s="23">
         <f>SUM(AU8:AU38)</f>
         <v>0</v>
       </c>
       <c r="AV39" s="10"/>
-      <c r="AW39" s="69"/>
-      <c r="AX39" s="69"/>
-      <c r="AY39" s="69"/>
-      <c r="AZ39" s="69" t="s">
+      <c r="AW39" s="24"/>
+      <c r="AX39" s="24"/>
+      <c r="AY39" s="24"/>
+      <c r="AZ39" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="BA39" s="69" t="e">
+      <c r="BA39" s="24" t="e">
         <f>AVERAGE(AZ8:AZ38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BB39" s="69"/>
-      <c r="BC39" s="69"/>
-      <c r="BD39" s="69"/>
-      <c r="BE39" s="69"/>
+      <c r="BB39" s="24"/>
+      <c r="BC39" s="24"/>
+      <c r="BD39" s="24"/>
+      <c r="BE39" s="24"/>
     </row>
     <row r="40" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
@@ -3920,10 +3920,10 @@
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
-      <c r="AD40" s="61" t="s">
+      <c r="AD40" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AE40" s="62"/>
+      <c r="AE40" s="28"/>
       <c r="AF40" s="13"/>
       <c r="AG40" s="14"/>
       <c r="AI40" s="1"/>
@@ -3971,18 +3971,18 @@
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
-      <c r="AD41" s="63"/>
-      <c r="AE41" s="64"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="30"/>
       <c r="AF41" s="16"/>
       <c r="AG41" s="17"/>
       <c r="AI41" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AJ41" s="11"/>
-      <c r="AK41" s="26" t="s">
+      <c r="AK41" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="AL41" s="26"/>
+      <c r="AL41" s="66"/>
       <c r="AM41" s="11"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="11"/>
@@ -4024,8 +4024,8 @@
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
-      <c r="AD42" s="63"/>
-      <c r="AE42" s="64"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="30"/>
       <c r="AF42" s="16"/>
       <c r="AG42" s="17"/>
       <c r="AI42" s="1" t="s">
@@ -4075,11 +4075,11 @@
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="7"/>
-      <c r="AD43" s="65" t="e">
+      <c r="AD43" s="31" t="e">
         <f>BA39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE43" s="66"/>
+      <c r="AE43" s="32"/>
       <c r="AF43" s="16"/>
       <c r="AG43" s="17"/>
       <c r="AI43" s="1" t="s">
@@ -4244,15 +4244,15 @@
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
-      <c r="AN46" s="24" t="s">
+      <c r="AN46" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AO46" s="24"/>
-      <c r="AT46" s="25" t="s">
+      <c r="AO46" s="64"/>
+      <c r="AT46" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="AU46" s="25"/>
-      <c r="AV46" s="25"/>
+      <c r="AU46" s="65"/>
+      <c r="AV46" s="65"/>
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.35">
       <c r="AN47" s="3"/>
@@ -4260,6 +4260,126 @@
     </row>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="AN46:AO46"/>
+    <mergeCell ref="AT46:AV46"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AK33:AT33"/>
+    <mergeCell ref="AK34:AT34"/>
+    <mergeCell ref="AK35:AT35"/>
+    <mergeCell ref="AK37:AT37"/>
+    <mergeCell ref="AK38:AT38"/>
+    <mergeCell ref="AI39:AT39"/>
+    <mergeCell ref="AK32:AT32"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AK22:AT22"/>
+    <mergeCell ref="AK23:AT23"/>
+    <mergeCell ref="AK24:AT24"/>
+    <mergeCell ref="AK25:AT25"/>
+    <mergeCell ref="AK26:AT26"/>
+    <mergeCell ref="AK27:AT27"/>
+    <mergeCell ref="AK28:AT28"/>
+    <mergeCell ref="AK29:AT29"/>
+    <mergeCell ref="AK30:AT30"/>
+    <mergeCell ref="AK31:AT31"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="AI1:AV1"/>
+    <mergeCell ref="AI2:AV2"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="AI4:AI7"/>
+    <mergeCell ref="AJ4:AJ7"/>
+    <mergeCell ref="AV4:AV7"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AK4:AT7"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="AD6:AE7"/>
+    <mergeCell ref="AF6:AG7"/>
+    <mergeCell ref="AD4:AG5"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AD19:AE19"/>
     <mergeCell ref="AF37:AG37"/>
     <mergeCell ref="AD37:AE37"/>
     <mergeCell ref="AD39:AE39"/>
@@ -4284,126 +4404,6 @@
     <mergeCell ref="AD22:AE22"/>
     <mergeCell ref="AD23:AE23"/>
     <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AI1:AV1"/>
-    <mergeCell ref="AI2:AV2"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="AV4:AV7"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AK4:AT7"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="AD6:AE7"/>
-    <mergeCell ref="AF6:AG7"/>
-    <mergeCell ref="AD4:AG5"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AK32:AT32"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AK22:AT22"/>
-    <mergeCell ref="AK23:AT23"/>
-    <mergeCell ref="AK24:AT24"/>
-    <mergeCell ref="AK25:AT25"/>
-    <mergeCell ref="AK26:AT26"/>
-    <mergeCell ref="AK27:AT27"/>
-    <mergeCell ref="AK28:AT28"/>
-    <mergeCell ref="AK29:AT29"/>
-    <mergeCell ref="AK30:AT30"/>
-    <mergeCell ref="AK31:AT31"/>
-    <mergeCell ref="AN46:AO46"/>
-    <mergeCell ref="AT46:AV46"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AK33:AT33"/>
-    <mergeCell ref="AK34:AT34"/>
-    <mergeCell ref="AK35:AT35"/>
-    <mergeCell ref="AK37:AT37"/>
-    <mergeCell ref="AK38:AT38"/>
-    <mergeCell ref="AI39:AT39"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="3.937007874015748E-2" top="0" bottom="0" header="0.31496062992125984" footer="0"/>

--- a/Eljur/template.xlsx
+++ b/Eljur/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\source\repos\Eljur\Eljur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E8F7C6-D770-4AA3-81D3-5C9A6F136672}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B110F8-F81B-40B7-AE7D-08BBC69CAB7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CFCA93-134A-4C41-B463-12BD2BC37BA8}"/>
   </bookViews>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Учет посещаемости</t>
   </si>
@@ -344,19 +344,7 @@
     <t>Кол-во часов по РУП</t>
   </si>
   <si>
-    <t>_________________;</t>
-  </si>
-  <si>
     <t xml:space="preserve">в т.ч. по видам занятий: </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -Л________;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -ПЗ_______;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -ЛР_______;</t>
   </si>
   <si>
     <t>Декан факультета</t>
@@ -387,6 +375,27 @@
   </si>
   <si>
     <t>срзнач</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Л  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -ПЗ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -ЛР </t>
+  </si>
+  <si>
+    <t>Л</t>
+  </si>
+  <si>
+    <t>ПЗ</t>
+  </si>
+  <si>
+    <t>ЛР</t>
+  </si>
+  <si>
+    <t>сумм</t>
   </si>
 </sst>
 </file>
@@ -519,7 +528,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -752,6 +761,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -760,7 +778,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -818,6 +836,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1269,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE93198-BB7A-4126-91BE-F4F0185F4DE6}">
-  <dimension ref="A1:BE47"/>
+  <dimension ref="A1:BF47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" topLeftCell="AF13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6:AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1298,67 +1326,69 @@
     <col min="49" max="51" width="8.88671875" style="2" customWidth="1"/>
     <col min="52" max="52" width="8.88671875" style="2"/>
     <col min="53" max="53" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="8.88671875" style="2"/>
+    <col min="54" max="54" width="8.88671875" style="2"/>
+    <col min="55" max="55" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AI1" s="38" t="s">
+    <row r="1" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AI1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
       <c r="AW1" s="24"/>
       <c r="AX1" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AY1" s="24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AZ1" s="24"/>
       <c r="BA1" s="24"/>
@@ -1366,60 +1396,61 @@
       <c r="BC1" s="24"/>
       <c r="BD1" s="24"/>
       <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
     </row>
-    <row r="2" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
+    <row r="2" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
       <c r="AH2" s="3"/>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="39"/>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="39"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
       <c r="AW2" s="24"/>
       <c r="AX2" s="24">
         <v>2</v>
@@ -1434,8 +1465,9 @@
       <c r="BC2" s="24"/>
       <c r="BD2" s="24"/>
       <c r="BE2" s="24"/>
+      <c r="BF2" s="24"/>
     </row>
-    <row r="3" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
@@ -1450,27 +1482,28 @@
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="24"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
@@ -1497,67 +1530,69 @@
       <c r="BC3" s="24"/>
       <c r="BD3" s="24"/>
       <c r="BE3" s="24"/>
+      <c r="BF3" s="24"/>
     </row>
-    <row r="4" spans="1:57" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="61" t="s">
+    <row r="4" spans="1:58" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="47" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="49"/>
-      <c r="AI4" s="43" t="s">
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AJ4" s="44" t="s">
+      <c r="AJ4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="AK4" s="47" t="s">
+      <c r="AK4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48"/>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="44" t="s">
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AV4" s="44" t="s">
+      <c r="AV4" s="48" t="s">
         <v>10</v>
       </c>
       <c r="AW4" s="24"/>
@@ -1569,55 +1604,57 @@
       <c r="BC4" s="24"/>
       <c r="BD4" s="24"/>
       <c r="BE4" s="24"/>
+      <c r="BF4" s="24"/>
     </row>
-    <row r="5" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="55"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="50"/>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="51"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
+    <row r="5" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="66"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
       <c r="AW5" s="24"/>
       <c r="AX5" s="24"/>
       <c r="AY5" s="24"/>
@@ -1627,59 +1664,61 @@
       <c r="BC5" s="24"/>
       <c r="BD5" s="24"/>
       <c r="BE5" s="24"/>
+      <c r="BF5" s="24"/>
     </row>
-    <row r="6" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="57" t="s">
+    <row r="6" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="66"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="57" t="s">
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AG6" s="58"/>
-      <c r="AI6" s="43"/>
-      <c r="AJ6" s="45"/>
-      <c r="AK6" s="50"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="45"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49"/>
       <c r="AW6" s="24"/>
       <c r="AX6" s="24"/>
       <c r="AY6" s="24"/>
@@ -1689,68 +1728,77 @@
       <c r="BC6" s="24"/>
       <c r="BD6" s="24"/>
       <c r="BE6" s="24"/>
+      <c r="BF6" s="24"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="60"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="46"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="54"/>
-      <c r="AM7" s="54"/>
-      <c r="AN7" s="54"/>
-      <c r="AO7" s="54"/>
-      <c r="AP7" s="54"/>
-      <c r="AQ7" s="54"/>
-      <c r="AR7" s="54"/>
-      <c r="AS7" s="54"/>
-      <c r="AT7" s="55"/>
-      <c r="AU7" s="46"/>
-      <c r="AV7" s="46"/>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A7" s="67"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="58"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="58"/>
+      <c r="AO7" s="58"/>
+      <c r="AP7" s="58"/>
+      <c r="AQ7" s="58"/>
+      <c r="AR7" s="58"/>
+      <c r="AS7" s="58"/>
+      <c r="AT7" s="59"/>
+      <c r="AU7" s="50"/>
+      <c r="AV7" s="50"/>
       <c r="AW7" s="24"/>
       <c r="AX7" s="24"/>
       <c r="AY7" s="24"/>
       <c r="AZ7" s="24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BA7" s="24"/>
       <c r="BB7" s="24"/>
-      <c r="BC7" s="24"/>
-      <c r="BD7" s="24"/>
-      <c r="BE7" s="24"/>
+      <c r="BC7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF7" s="24"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1782,22 +1830,23 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="26"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="24"/>
       <c r="AI8" s="22"/>
       <c r="AJ8" s="22"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
-      <c r="AQ8" s="36"/>
-      <c r="AR8" s="36"/>
-      <c r="AS8" s="36"/>
-      <c r="AT8" s="37"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="40"/>
+      <c r="AM8" s="40"/>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="40"/>
+      <c r="AP8" s="40"/>
+      <c r="AQ8" s="40"/>
+      <c r="AR8" s="40"/>
+      <c r="AS8" s="40"/>
+      <c r="AT8" s="41"/>
       <c r="AU8" s="22">
         <f t="shared" ref="AU8:AU38" si="0">IF( AK8 ="", 0, $AX$2)</f>
         <v>0</v>
@@ -1812,11 +1861,21 @@
       </c>
       <c r="BA8" s="24"/>
       <c r="BB8" s="24"/>
-      <c r="BC8" s="24"/>
-      <c r="BD8" s="24"/>
-      <c r="BE8" s="24"/>
+      <c r="BC8" s="24">
+        <f>IF( AJ8="л", 2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD8" s="24">
+        <f>IF( AJ8="пз", 2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE8" s="24">
+        <f>IF( AJ8="лр", 2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF8" s="24"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <f>A8+1</f>
         <v>2</v>
@@ -1849,22 +1908,23 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="26"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="24"/>
       <c r="AI9" s="22"/>
       <c r="AJ9" s="22"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="36"/>
-      <c r="AQ9" s="36"/>
-      <c r="AR9" s="36"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="37"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="40"/>
+      <c r="AM9" s="40"/>
+      <c r="AN9" s="40"/>
+      <c r="AO9" s="40"/>
+      <c r="AP9" s="40"/>
+      <c r="AQ9" s="40"/>
+      <c r="AR9" s="40"/>
+      <c r="AS9" s="40"/>
+      <c r="AT9" s="41"/>
       <c r="AU9" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1879,13 +1939,23 @@
       </c>
       <c r="BA9" s="24"/>
       <c r="BB9" s="24"/>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="24"/>
+      <c r="BC9" s="24">
+        <f t="shared" ref="BC9:BC38" si="2">IF( AJ9="л", 2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD9" s="24">
+        <f t="shared" ref="BD9:BD38" si="3">IF( AJ9="пз", 2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE9" s="24">
+        <f t="shared" ref="BE9:BE38" si="4">IF( AJ9="лр", 2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF9" s="24"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f t="shared" ref="A10:A36" si="2">A9+1</f>
+        <f t="shared" ref="A10:A36" si="5">A9+1</f>
         <v>3</v>
       </c>
       <c r="B10" s="12"/>
@@ -1916,22 +1986,23 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="26"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="24"/>
       <c r="AI10" s="22"/>
       <c r="AJ10" s="22"/>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="36"/>
-      <c r="AP10" s="36"/>
-      <c r="AQ10" s="36"/>
-      <c r="AR10" s="36"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="37"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="40"/>
+      <c r="AM10" s="40"/>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="40"/>
+      <c r="AQ10" s="40"/>
+      <c r="AR10" s="40"/>
+      <c r="AS10" s="40"/>
+      <c r="AT10" s="41"/>
       <c r="AU10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1946,13 +2017,23 @@
       </c>
       <c r="BA10" s="24"/>
       <c r="BB10" s="24"/>
-      <c r="BC10" s="24"/>
-      <c r="BD10" s="24"/>
-      <c r="BE10" s="24"/>
+      <c r="BC10" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD10" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE10" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF10" s="24"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B11" s="12"/>
@@ -1983,22 +2064,22 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="26"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="30"/>
       <c r="AI11" s="22"/>
       <c r="AJ11" s="22"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="36"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="36"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="37"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="40"/>
+      <c r="AN11" s="40"/>
+      <c r="AO11" s="40"/>
+      <c r="AP11" s="40"/>
+      <c r="AQ11" s="40"/>
+      <c r="AR11" s="40"/>
+      <c r="AS11" s="40"/>
+      <c r="AT11" s="41"/>
       <c r="AU11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2013,13 +2094,23 @@
       </c>
       <c r="BA11" s="24"/>
       <c r="BB11" s="24"/>
-      <c r="BC11" s="24"/>
-      <c r="BD11" s="24"/>
-      <c r="BE11" s="24"/>
+      <c r="BC11" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD11" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE11" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF11" s="24"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B12" s="12"/>
@@ -2050,22 +2141,22 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
       <c r="AC12" s="12"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="26"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="30"/>
       <c r="AI12" s="22"/>
       <c r="AJ12" s="22"/>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="36"/>
-      <c r="AQ12" s="36"/>
-      <c r="AR12" s="36"/>
-      <c r="AS12" s="36"/>
-      <c r="AT12" s="37"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="41"/>
       <c r="AU12" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2080,13 +2171,23 @@
       </c>
       <c r="BA12" s="24"/>
       <c r="BB12" s="24"/>
-      <c r="BC12" s="24"/>
-      <c r="BD12" s="24"/>
-      <c r="BE12" s="24"/>
+      <c r="BC12" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD12" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE12" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF12" s="24"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B13" s="12"/>
@@ -2117,22 +2218,22 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="26"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="30"/>
       <c r="AI13" s="22"/>
       <c r="AJ13" s="22"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="36"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="36"/>
-      <c r="AP13" s="36"/>
-      <c r="AQ13" s="36"/>
-      <c r="AR13" s="36"/>
-      <c r="AS13" s="36"/>
-      <c r="AT13" s="37"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="40"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="40"/>
+      <c r="AS13" s="40"/>
+      <c r="AT13" s="41"/>
       <c r="AU13" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2147,13 +2248,23 @@
       </c>
       <c r="BA13" s="24"/>
       <c r="BB13" s="24"/>
-      <c r="BC13" s="24"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="24"/>
+      <c r="BC13" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD13" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE13" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF13" s="24"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B14" s="12"/>
@@ -2184,22 +2295,22 @@
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="26"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="30"/>
       <c r="AI14" s="22"/>
       <c r="AJ14" s="22"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="36"/>
-      <c r="AS14" s="36"/>
-      <c r="AT14" s="37"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
+      <c r="AS14" s="40"/>
+      <c r="AT14" s="41"/>
       <c r="AU14" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2214,13 +2325,23 @@
       </c>
       <c r="BA14" s="24"/>
       <c r="BB14" s="24"/>
-      <c r="BC14" s="24"/>
-      <c r="BD14" s="24"/>
-      <c r="BE14" s="24"/>
+      <c r="BC14" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD14" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE14" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF14" s="24"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B15" s="12"/>
@@ -2251,22 +2372,22 @@
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="26"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="30"/>
       <c r="AI15" s="22"/>
       <c r="AJ15" s="22"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="36"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="36"/>
-      <c r="AQ15" s="36"/>
-      <c r="AR15" s="36"/>
-      <c r="AS15" s="36"/>
-      <c r="AT15" s="37"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="40"/>
+      <c r="AR15" s="40"/>
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="41"/>
       <c r="AU15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2281,13 +2402,23 @@
       </c>
       <c r="BA15" s="24"/>
       <c r="BB15" s="24"/>
-      <c r="BC15" s="24"/>
-      <c r="BD15" s="24"/>
-      <c r="BE15" s="24"/>
+      <c r="BC15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD15" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF15" s="24"/>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B16" s="12"/>
@@ -2318,22 +2449,22 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="26"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="30"/>
       <c r="AI16" s="22"/>
       <c r="AJ16" s="22"/>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="36"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="36"/>
-      <c r="AP16" s="36"/>
-      <c r="AQ16" s="36"/>
-      <c r="AR16" s="36"/>
-      <c r="AS16" s="36"/>
-      <c r="AT16" s="37"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="40"/>
+      <c r="AN16" s="40"/>
+      <c r="AO16" s="40"/>
+      <c r="AP16" s="40"/>
+      <c r="AQ16" s="40"/>
+      <c r="AR16" s="40"/>
+      <c r="AS16" s="40"/>
+      <c r="AT16" s="41"/>
       <c r="AU16" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2348,13 +2479,23 @@
       </c>
       <c r="BA16" s="24"/>
       <c r="BB16" s="24"/>
-      <c r="BC16" s="24"/>
-      <c r="BD16" s="24"/>
-      <c r="BE16" s="24"/>
+      <c r="BC16" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD16" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE16" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF16" s="24"/>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B17" s="12"/>
@@ -2385,22 +2526,22 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="26"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="30"/>
       <c r="AI17" s="22"/>
       <c r="AJ17" s="22"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
-      <c r="AQ17" s="36"/>
-      <c r="AR17" s="36"/>
-      <c r="AS17" s="36"/>
-      <c r="AT17" s="37"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="40"/>
+      <c r="AM17" s="40"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="40"/>
+      <c r="AP17" s="40"/>
+      <c r="AQ17" s="40"/>
+      <c r="AR17" s="40"/>
+      <c r="AS17" s="40"/>
+      <c r="AT17" s="41"/>
       <c r="AU17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2415,13 +2556,23 @@
       </c>
       <c r="BA17" s="24"/>
       <c r="BB17" s="24"/>
-      <c r="BC17" s="24"/>
-      <c r="BD17" s="24"/>
-      <c r="BE17" s="24"/>
+      <c r="BC17" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD17" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE17" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF17" s="24"/>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B18" s="12"/>
@@ -2452,22 +2603,22 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="26"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="30"/>
       <c r="AI18" s="22"/>
       <c r="AJ18" s="22"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="36"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="36"/>
-      <c r="AQ18" s="36"/>
-      <c r="AR18" s="36"/>
-      <c r="AS18" s="36"/>
-      <c r="AT18" s="37"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="40"/>
+      <c r="AM18" s="40"/>
+      <c r="AN18" s="40"/>
+      <c r="AO18" s="40"/>
+      <c r="AP18" s="40"/>
+      <c r="AQ18" s="40"/>
+      <c r="AR18" s="40"/>
+      <c r="AS18" s="40"/>
+      <c r="AT18" s="41"/>
       <c r="AU18" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2482,13 +2633,23 @@
       </c>
       <c r="BA18" s="24"/>
       <c r="BB18" s="24"/>
-      <c r="BC18" s="24"/>
-      <c r="BD18" s="24"/>
-      <c r="BE18" s="24"/>
+      <c r="BC18" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD18" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE18" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF18" s="24"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B19" s="12"/>
@@ -2519,22 +2680,22 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="26"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="30"/>
       <c r="AI19" s="22"/>
       <c r="AJ19" s="22"/>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="36"/>
-      <c r="AR19" s="36"/>
-      <c r="AS19" s="36"/>
-      <c r="AT19" s="37"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="40"/>
+      <c r="AN19" s="40"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="AR19" s="40"/>
+      <c r="AS19" s="40"/>
+      <c r="AT19" s="41"/>
       <c r="AU19" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2549,13 +2710,23 @@
       </c>
       <c r="BA19" s="24"/>
       <c r="BB19" s="24"/>
-      <c r="BC19" s="24"/>
-      <c r="BD19" s="24"/>
-      <c r="BE19" s="24"/>
+      <c r="BC19" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD19" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE19" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF19" s="24"/>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B20" s="12"/>
@@ -2586,22 +2757,22 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="26"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="30"/>
       <c r="AI20" s="22"/>
       <c r="AJ20" s="22"/>
-      <c r="AK20" s="35"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="36"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="36"/>
-      <c r="AP20" s="36"/>
-      <c r="AQ20" s="36"/>
-      <c r="AR20" s="36"/>
-      <c r="AS20" s="36"/>
-      <c r="AT20" s="37"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="40"/>
+      <c r="AP20" s="40"/>
+      <c r="AQ20" s="40"/>
+      <c r="AR20" s="40"/>
+      <c r="AS20" s="40"/>
+      <c r="AT20" s="41"/>
       <c r="AU20" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2616,13 +2787,23 @@
       </c>
       <c r="BA20" s="24"/>
       <c r="BB20" s="24"/>
-      <c r="BC20" s="24"/>
-      <c r="BD20" s="24"/>
-      <c r="BE20" s="24"/>
+      <c r="BC20" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD20" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE20" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF20" s="24"/>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B21" s="12"/>
@@ -2653,22 +2834,22 @@
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="26"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="30"/>
       <c r="AI21" s="22"/>
       <c r="AJ21" s="22"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="36"/>
-      <c r="AM21" s="36"/>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="36"/>
-      <c r="AQ21" s="36"/>
-      <c r="AR21" s="36"/>
-      <c r="AS21" s="36"/>
-      <c r="AT21" s="37"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="40"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+      <c r="AT21" s="41"/>
       <c r="AU21" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2683,13 +2864,23 @@
       </c>
       <c r="BA21" s="24"/>
       <c r="BB21" s="24"/>
-      <c r="BC21" s="24"/>
-      <c r="BD21" s="24"/>
-      <c r="BE21" s="24"/>
+      <c r="BC21" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD21" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE21" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF21" s="24"/>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B22" s="12"/>
@@ -2720,22 +2911,22 @@
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="26"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="30"/>
       <c r="AI22" s="22"/>
       <c r="AJ22" s="22"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="36"/>
-      <c r="AM22" s="36"/>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="36"/>
-      <c r="AR22" s="36"/>
-      <c r="AS22" s="36"/>
-      <c r="AT22" s="37"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="40"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="40"/>
+      <c r="AO22" s="40"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="40"/>
+      <c r="AR22" s="40"/>
+      <c r="AS22" s="40"/>
+      <c r="AT22" s="41"/>
       <c r="AU22" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2750,13 +2941,23 @@
       </c>
       <c r="BA22" s="24"/>
       <c r="BB22" s="24"/>
-      <c r="BC22" s="24"/>
-      <c r="BD22" s="24"/>
-      <c r="BE22" s="24"/>
+      <c r="BC22" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD22" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE22" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF22" s="24"/>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B23" s="12"/>
@@ -2787,22 +2988,22 @@
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="26"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="30"/>
       <c r="AI23" s="22"/>
       <c r="AJ23" s="22"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="36"/>
-      <c r="AR23" s="36"/>
-      <c r="AS23" s="36"/>
-      <c r="AT23" s="37"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="40"/>
+      <c r="AP23" s="40"/>
+      <c r="AQ23" s="40"/>
+      <c r="AR23" s="40"/>
+      <c r="AS23" s="40"/>
+      <c r="AT23" s="41"/>
       <c r="AU23" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2817,13 +3018,23 @@
       </c>
       <c r="BA23" s="24"/>
       <c r="BB23" s="24"/>
-      <c r="BC23" s="24"/>
-      <c r="BD23" s="24"/>
-      <c r="BE23" s="24"/>
+      <c r="BC23" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD23" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE23" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF23" s="24"/>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B24" s="12"/>
@@ -2854,22 +3065,22 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="26"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="30"/>
       <c r="AI24" s="22"/>
       <c r="AJ24" s="22"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="36"/>
-      <c r="AR24" s="36"/>
-      <c r="AS24" s="36"/>
-      <c r="AT24" s="37"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="40"/>
+      <c r="AN24" s="40"/>
+      <c r="AO24" s="40"/>
+      <c r="AP24" s="40"/>
+      <c r="AQ24" s="40"/>
+      <c r="AR24" s="40"/>
+      <c r="AS24" s="40"/>
+      <c r="AT24" s="41"/>
       <c r="AU24" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2884,13 +3095,23 @@
       </c>
       <c r="BA24" s="24"/>
       <c r="BB24" s="24"/>
-      <c r="BC24" s="24"/>
-      <c r="BD24" s="24"/>
-      <c r="BE24" s="24"/>
+      <c r="BC24" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD24" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE24" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF24" s="24"/>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B25" s="12"/>
@@ -2921,22 +3142,22 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="26"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="30"/>
       <c r="AI25" s="22"/>
       <c r="AJ25" s="22"/>
-      <c r="AK25" s="35"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="36"/>
-      <c r="AQ25" s="36"/>
-      <c r="AR25" s="36"/>
-      <c r="AS25" s="36"/>
-      <c r="AT25" s="37"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="40"/>
+      <c r="AN25" s="40"/>
+      <c r="AO25" s="40"/>
+      <c r="AP25" s="40"/>
+      <c r="AQ25" s="40"/>
+      <c r="AR25" s="40"/>
+      <c r="AS25" s="40"/>
+      <c r="AT25" s="41"/>
       <c r="AU25" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2951,11 +3172,21 @@
       </c>
       <c r="BA25" s="24"/>
       <c r="BB25" s="24"/>
-      <c r="BC25" s="24"/>
-      <c r="BD25" s="24"/>
-      <c r="BE25" s="24"/>
+      <c r="BC25" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD25" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE25" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF25" s="24"/>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <f>A25+1</f>
         <v>19</v>
@@ -2988,22 +3219,22 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="26"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="30"/>
       <c r="AI26" s="22"/>
       <c r="AJ26" s="22"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="36"/>
-      <c r="AQ26" s="36"/>
-      <c r="AR26" s="36"/>
-      <c r="AS26" s="36"/>
-      <c r="AT26" s="37"/>
+      <c r="AK26" s="39"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="40"/>
+      <c r="AO26" s="40"/>
+      <c r="AP26" s="40"/>
+      <c r="AQ26" s="40"/>
+      <c r="AR26" s="40"/>
+      <c r="AS26" s="40"/>
+      <c r="AT26" s="41"/>
       <c r="AU26" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3018,13 +3249,23 @@
       </c>
       <c r="BA26" s="24"/>
       <c r="BB26" s="24"/>
-      <c r="BC26" s="24"/>
-      <c r="BD26" s="24"/>
-      <c r="BE26" s="24"/>
+      <c r="BC26" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD26" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE26" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF26" s="24"/>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B27" s="12"/>
@@ -3055,22 +3296,22 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="26"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="30"/>
       <c r="AI27" s="22"/>
       <c r="AJ27" s="22"/>
-      <c r="AK27" s="35"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="36"/>
-      <c r="AR27" s="36"/>
-      <c r="AS27" s="36"/>
-      <c r="AT27" s="37"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="40"/>
+      <c r="AN27" s="40"/>
+      <c r="AO27" s="40"/>
+      <c r="AP27" s="40"/>
+      <c r="AQ27" s="40"/>
+      <c r="AR27" s="40"/>
+      <c r="AS27" s="40"/>
+      <c r="AT27" s="41"/>
       <c r="AU27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3085,13 +3326,23 @@
       </c>
       <c r="BA27" s="24"/>
       <c r="BB27" s="24"/>
-      <c r="BC27" s="24"/>
-      <c r="BD27" s="24"/>
-      <c r="BE27" s="24"/>
+      <c r="BC27" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD27" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE27" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF27" s="24"/>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B28" s="12"/>
@@ -3122,22 +3373,22 @@
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="26"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="30"/>
       <c r="AI28" s="22"/>
       <c r="AJ28" s="22"/>
-      <c r="AK28" s="35"/>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="36"/>
-      <c r="AN28" s="36"/>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="36"/>
-      <c r="AQ28" s="36"/>
-      <c r="AR28" s="36"/>
-      <c r="AS28" s="36"/>
-      <c r="AT28" s="37"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="40"/>
+      <c r="AM28" s="40"/>
+      <c r="AN28" s="40"/>
+      <c r="AO28" s="40"/>
+      <c r="AP28" s="40"/>
+      <c r="AQ28" s="40"/>
+      <c r="AR28" s="40"/>
+      <c r="AS28" s="40"/>
+      <c r="AT28" s="41"/>
       <c r="AU28" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3152,13 +3403,23 @@
       </c>
       <c r="BA28" s="24"/>
       <c r="BB28" s="24"/>
-      <c r="BC28" s="24"/>
-      <c r="BD28" s="24"/>
-      <c r="BE28" s="24"/>
+      <c r="BC28" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD28" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE28" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF28" s="24"/>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B29" s="12"/>
@@ -3189,22 +3450,22 @@
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
-      <c r="AD29" s="25"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="25"/>
-      <c r="AG29" s="26"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="30"/>
       <c r="AI29" s="22"/>
       <c r="AJ29" s="22"/>
-      <c r="AK29" s="35"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="36"/>
-      <c r="AN29" s="36"/>
-      <c r="AO29" s="36"/>
-      <c r="AP29" s="36"/>
-      <c r="AQ29" s="36"/>
-      <c r="AR29" s="36"/>
-      <c r="AS29" s="36"/>
-      <c r="AT29" s="37"/>
+      <c r="AK29" s="39"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="40"/>
+      <c r="AN29" s="40"/>
+      <c r="AO29" s="40"/>
+      <c r="AP29" s="40"/>
+      <c r="AQ29" s="40"/>
+      <c r="AR29" s="40"/>
+      <c r="AS29" s="40"/>
+      <c r="AT29" s="41"/>
       <c r="AU29" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3219,13 +3480,23 @@
       </c>
       <c r="BA29" s="24"/>
       <c r="BB29" s="24"/>
-      <c r="BC29" s="24"/>
-      <c r="BD29" s="24"/>
-      <c r="BE29" s="24"/>
+      <c r="BC29" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD29" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE29" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF29" s="24"/>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B30" s="12"/>
@@ -3256,22 +3527,22 @@
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
-      <c r="AD30" s="25"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="25"/>
-      <c r="AG30" s="26"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="30"/>
       <c r="AI30" s="22"/>
       <c r="AJ30" s="22"/>
-      <c r="AK30" s="35"/>
-      <c r="AL30" s="36"/>
-      <c r="AM30" s="36"/>
-      <c r="AN30" s="36"/>
-      <c r="AO30" s="36"/>
-      <c r="AP30" s="36"/>
-      <c r="AQ30" s="36"/>
-      <c r="AR30" s="36"/>
-      <c r="AS30" s="36"/>
-      <c r="AT30" s="37"/>
+      <c r="AK30" s="39"/>
+      <c r="AL30" s="40"/>
+      <c r="AM30" s="40"/>
+      <c r="AN30" s="40"/>
+      <c r="AO30" s="40"/>
+      <c r="AP30" s="40"/>
+      <c r="AQ30" s="40"/>
+      <c r="AR30" s="40"/>
+      <c r="AS30" s="40"/>
+      <c r="AT30" s="41"/>
       <c r="AU30" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3286,13 +3557,23 @@
       </c>
       <c r="BA30" s="24"/>
       <c r="BB30" s="24"/>
-      <c r="BC30" s="24"/>
-      <c r="BD30" s="24"/>
-      <c r="BE30" s="24"/>
+      <c r="BC30" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD30" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE30" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF30" s="24"/>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B31" s="12"/>
@@ -3323,22 +3604,22 @@
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
-      <c r="AD31" s="25"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="25"/>
-      <c r="AG31" s="26"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="30"/>
       <c r="AI31" s="22"/>
       <c r="AJ31" s="22"/>
-      <c r="AK31" s="35"/>
-      <c r="AL31" s="36"/>
-      <c r="AM31" s="36"/>
-      <c r="AN31" s="36"/>
-      <c r="AO31" s="36"/>
-      <c r="AP31" s="36"/>
-      <c r="AQ31" s="36"/>
-      <c r="AR31" s="36"/>
-      <c r="AS31" s="36"/>
-      <c r="AT31" s="37"/>
+      <c r="AK31" s="39"/>
+      <c r="AL31" s="40"/>
+      <c r="AM31" s="40"/>
+      <c r="AN31" s="40"/>
+      <c r="AO31" s="40"/>
+      <c r="AP31" s="40"/>
+      <c r="AQ31" s="40"/>
+      <c r="AR31" s="40"/>
+      <c r="AS31" s="40"/>
+      <c r="AT31" s="41"/>
       <c r="AU31" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3353,11 +3634,21 @@
       </c>
       <c r="BA31" s="24"/>
       <c r="BB31" s="24"/>
-      <c r="BC31" s="24"/>
-      <c r="BD31" s="24"/>
-      <c r="BE31" s="24"/>
+      <c r="BC31" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD31" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE31" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF31" s="24"/>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <f>A31+1</f>
         <v>25</v>
@@ -3390,22 +3681,22 @@
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
       <c r="AC32" s="12"/>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="25"/>
-      <c r="AG32" s="26"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="30"/>
       <c r="AI32" s="22"/>
       <c r="AJ32" s="22"/>
-      <c r="AK32" s="35"/>
-      <c r="AL32" s="36"/>
-      <c r="AM32" s="36"/>
-      <c r="AN32" s="36"/>
-      <c r="AO32" s="36"/>
-      <c r="AP32" s="36"/>
-      <c r="AQ32" s="36"/>
-      <c r="AR32" s="36"/>
-      <c r="AS32" s="36"/>
-      <c r="AT32" s="37"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="40"/>
+      <c r="AM32" s="40"/>
+      <c r="AN32" s="40"/>
+      <c r="AO32" s="40"/>
+      <c r="AP32" s="40"/>
+      <c r="AQ32" s="40"/>
+      <c r="AR32" s="40"/>
+      <c r="AS32" s="40"/>
+      <c r="AT32" s="41"/>
       <c r="AU32" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3420,13 +3711,23 @@
       </c>
       <c r="BA32" s="24"/>
       <c r="BB32" s="24"/>
-      <c r="BC32" s="24"/>
-      <c r="BD32" s="24"/>
-      <c r="BE32" s="24"/>
+      <c r="BC32" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD32" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE32" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF32" s="24"/>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B33" s="12"/>
@@ -3457,22 +3758,22 @@
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
       <c r="AC33" s="12"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="26"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="30"/>
       <c r="AI33" s="22"/>
       <c r="AJ33" s="22"/>
-      <c r="AK33" s="35"/>
-      <c r="AL33" s="36"/>
-      <c r="AM33" s="36"/>
-      <c r="AN33" s="36"/>
-      <c r="AO33" s="36"/>
-      <c r="AP33" s="36"/>
-      <c r="AQ33" s="36"/>
-      <c r="AR33" s="36"/>
-      <c r="AS33" s="36"/>
-      <c r="AT33" s="37"/>
+      <c r="AK33" s="39"/>
+      <c r="AL33" s="40"/>
+      <c r="AM33" s="40"/>
+      <c r="AN33" s="40"/>
+      <c r="AO33" s="40"/>
+      <c r="AP33" s="40"/>
+      <c r="AQ33" s="40"/>
+      <c r="AR33" s="40"/>
+      <c r="AS33" s="40"/>
+      <c r="AT33" s="41"/>
       <c r="AU33" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3487,13 +3788,23 @@
       </c>
       <c r="BA33" s="24"/>
       <c r="BB33" s="24"/>
-      <c r="BC33" s="24"/>
-      <c r="BD33" s="24"/>
-      <c r="BE33" s="24"/>
+      <c r="BC33" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD33" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE33" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF33" s="24"/>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B34" s="12"/>
@@ -3524,22 +3835,22 @@
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
-      <c r="AD34" s="25"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="25"/>
-      <c r="AG34" s="26"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="30"/>
       <c r="AI34" s="22"/>
       <c r="AJ34" s="22"/>
-      <c r="AK34" s="35"/>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36"/>
-      <c r="AQ34" s="36"/>
-      <c r="AR34" s="36"/>
-      <c r="AS34" s="36"/>
-      <c r="AT34" s="37"/>
+      <c r="AK34" s="39"/>
+      <c r="AL34" s="40"/>
+      <c r="AM34" s="40"/>
+      <c r="AN34" s="40"/>
+      <c r="AO34" s="40"/>
+      <c r="AP34" s="40"/>
+      <c r="AQ34" s="40"/>
+      <c r="AR34" s="40"/>
+      <c r="AS34" s="40"/>
+      <c r="AT34" s="41"/>
       <c r="AU34" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3554,13 +3865,23 @@
       </c>
       <c r="BA34" s="24"/>
       <c r="BB34" s="24"/>
-      <c r="BC34" s="24"/>
-      <c r="BD34" s="24"/>
-      <c r="BE34" s="24"/>
+      <c r="BC34" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD34" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE34" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF34" s="24"/>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B35" s="12"/>
@@ -3591,22 +3912,22 @@
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
       <c r="AC35" s="12"/>
-      <c r="AD35" s="25"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="25"/>
-      <c r="AG35" s="26"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="30"/>
       <c r="AI35" s="22"/>
       <c r="AJ35" s="22"/>
-      <c r="AK35" s="35"/>
-      <c r="AL35" s="36"/>
-      <c r="AM35" s="36"/>
-      <c r="AN35" s="36"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="36"/>
-      <c r="AR35" s="36"/>
-      <c r="AS35" s="36"/>
-      <c r="AT35" s="37"/>
+      <c r="AK35" s="39"/>
+      <c r="AL35" s="40"/>
+      <c r="AM35" s="40"/>
+      <c r="AN35" s="40"/>
+      <c r="AO35" s="40"/>
+      <c r="AP35" s="40"/>
+      <c r="AQ35" s="40"/>
+      <c r="AR35" s="40"/>
+      <c r="AS35" s="40"/>
+      <c r="AT35" s="41"/>
       <c r="AU35" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3621,13 +3942,23 @@
       </c>
       <c r="BA35" s="24"/>
       <c r="BB35" s="24"/>
-      <c r="BC35" s="24"/>
-      <c r="BD35" s="24"/>
-      <c r="BE35" s="24"/>
+      <c r="BC35" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD35" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE35" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF35" s="24"/>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B36" s="12"/>
@@ -3658,22 +3989,22 @@
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
       <c r="AC36" s="12"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="25"/>
-      <c r="AG36" s="26"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="30"/>
       <c r="AI36" s="22"/>
       <c r="AJ36" s="22"/>
-      <c r="AK36" s="35"/>
-      <c r="AL36" s="36"/>
-      <c r="AM36" s="36"/>
-      <c r="AN36" s="36"/>
-      <c r="AO36" s="36"/>
-      <c r="AP36" s="36"/>
-      <c r="AQ36" s="36"/>
-      <c r="AR36" s="36"/>
-      <c r="AS36" s="36"/>
-      <c r="AT36" s="37"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="40"/>
+      <c r="AM36" s="40"/>
+      <c r="AN36" s="40"/>
+      <c r="AO36" s="40"/>
+      <c r="AP36" s="40"/>
+      <c r="AQ36" s="40"/>
+      <c r="AR36" s="40"/>
+      <c r="AS36" s="40"/>
+      <c r="AT36" s="41"/>
       <c r="AU36" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3688,11 +4019,21 @@
       </c>
       <c r="BA36" s="24"/>
       <c r="BB36" s="24"/>
-      <c r="BC36" s="24"/>
-      <c r="BD36" s="24"/>
-      <c r="BE36" s="24"/>
+      <c r="BC36" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD36" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE36" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF36" s="24"/>
     </row>
-    <row r="37" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>30</v>
       </c>
@@ -3724,22 +4065,22 @@
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
-      <c r="AD37" s="25"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="25"/>
-      <c r="AG37" s="26"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="30"/>
       <c r="AI37" s="22"/>
       <c r="AJ37" s="22"/>
-      <c r="AK37" s="35"/>
-      <c r="AL37" s="36"/>
-      <c r="AM37" s="36"/>
-      <c r="AN37" s="36"/>
-      <c r="AO37" s="36"/>
-      <c r="AP37" s="36"/>
-      <c r="AQ37" s="36"/>
-      <c r="AR37" s="36"/>
-      <c r="AS37" s="36"/>
-      <c r="AT37" s="37"/>
+      <c r="AK37" s="39"/>
+      <c r="AL37" s="40"/>
+      <c r="AM37" s="40"/>
+      <c r="AN37" s="40"/>
+      <c r="AO37" s="40"/>
+      <c r="AP37" s="40"/>
+      <c r="AQ37" s="40"/>
+      <c r="AR37" s="40"/>
+      <c r="AS37" s="40"/>
+      <c r="AT37" s="41"/>
       <c r="AU37" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3754,11 +4095,21 @@
       </c>
       <c r="BA37" s="24"/>
       <c r="BB37" s="24"/>
-      <c r="BC37" s="24"/>
-      <c r="BD37" s="24"/>
-      <c r="BE37" s="24"/>
+      <c r="BC37" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD37" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE37" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF37" s="24"/>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3788,22 +4139,22 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="26"/>
-      <c r="AF38" s="25"/>
-      <c r="AG38" s="26"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="30"/>
       <c r="AI38" s="22"/>
       <c r="AJ38" s="22"/>
-      <c r="AK38" s="35"/>
-      <c r="AL38" s="36"/>
-      <c r="AM38" s="36"/>
-      <c r="AN38" s="36"/>
-      <c r="AO38" s="36"/>
-      <c r="AP38" s="36"/>
-      <c r="AQ38" s="36"/>
-      <c r="AR38" s="36"/>
-      <c r="AS38" s="36"/>
-      <c r="AT38" s="37"/>
+      <c r="AK38" s="39"/>
+      <c r="AL38" s="40"/>
+      <c r="AM38" s="40"/>
+      <c r="AN38" s="40"/>
+      <c r="AO38" s="40"/>
+      <c r="AP38" s="40"/>
+      <c r="AQ38" s="40"/>
+      <c r="AR38" s="40"/>
+      <c r="AS38" s="40"/>
+      <c r="AT38" s="41"/>
       <c r="AU38" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3818,11 +4169,21 @@
       </c>
       <c r="BA38" s="24"/>
       <c r="BB38" s="24"/>
-      <c r="BC38" s="24"/>
-      <c r="BD38" s="24"/>
-      <c r="BE38" s="24"/>
+      <c r="BC38" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD38" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE38" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF38" s="24"/>
     </row>
-    <row r="39" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -3852,24 +4213,24 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="26"/>
-      <c r="AI39" s="67" t="s">
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="30"/>
+      <c r="AI39" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AJ39" s="68"/>
-      <c r="AK39" s="68"/>
-      <c r="AL39" s="68"/>
-      <c r="AM39" s="68"/>
-      <c r="AN39" s="68"/>
-      <c r="AO39" s="68"/>
-      <c r="AP39" s="68"/>
-      <c r="AQ39" s="68"/>
-      <c r="AR39" s="68"/>
-      <c r="AS39" s="68"/>
-      <c r="AT39" s="69"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="72"/>
+      <c r="AL39" s="72"/>
+      <c r="AM39" s="72"/>
+      <c r="AN39" s="72"/>
+      <c r="AO39" s="72"/>
+      <c r="AP39" s="72"/>
+      <c r="AQ39" s="72"/>
+      <c r="AR39" s="72"/>
+      <c r="AS39" s="72"/>
+      <c r="AT39" s="73"/>
       <c r="AU39" s="23">
         <f>SUM(AU8:AU38)</f>
         <v>0</v>
@@ -3879,18 +4240,30 @@
       <c r="AX39" s="24"/>
       <c r="AY39" s="24"/>
       <c r="AZ39" s="24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BA39" s="24" t="e">
         <f>AVERAGE(AZ8:AZ38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BB39" s="24"/>
-      <c r="BC39" s="24"/>
-      <c r="BD39" s="24"/>
-      <c r="BE39" s="24"/>
+      <c r="BB39" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC39" s="24">
+        <f>SUM(BC8:BC38)</f>
+        <v>0</v>
+      </c>
+      <c r="BD39" s="24">
+        <f>SUM(BD8:BD38)</f>
+        <v>0</v>
+      </c>
+      <c r="BE39" s="24">
+        <f>SUM(BE8:BE38)</f>
+        <v>0</v>
+      </c>
+      <c r="BF39" s="24"/>
     </row>
-    <row r="40" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -3920,10 +4293,10 @@
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
-      <c r="AD40" s="27" t="s">
+      <c r="AD40" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AE40" s="28"/>
+      <c r="AE40" s="32"/>
       <c r="AF40" s="13"/>
       <c r="AG40" s="14"/>
       <c r="AI40" s="1"/>
@@ -3940,8 +4313,18 @@
       <c r="AT40" s="1"/>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
+      <c r="AW40" s="24"/>
+      <c r="AX40" s="24"/>
+      <c r="AY40" s="24"/>
+      <c r="AZ40" s="24"/>
+      <c r="BA40" s="24"/>
+      <c r="BB40" s="24"/>
+      <c r="BC40" s="24"/>
+      <c r="BD40" s="24"/>
+      <c r="BE40" s="24"/>
+      <c r="BF40" s="24"/>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -3971,18 +4354,19 @@
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="30"/>
+      <c r="AD41" s="33"/>
+      <c r="AE41" s="34"/>
       <c r="AF41" s="16"/>
       <c r="AG41" s="17"/>
       <c r="AI41" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AJ41" s="11"/>
-      <c r="AK41" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL41" s="66"/>
+      <c r="AK41" s="70">
+        <f>AU39</f>
+        <v>0</v>
+      </c>
+      <c r="AL41" s="70"/>
       <c r="AM41" s="11"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="11"/>
@@ -3993,8 +4377,18 @@
       <c r="AT41" s="11"/>
       <c r="AU41" s="11"/>
       <c r="AV41" s="11"/>
+      <c r="AW41" s="24"/>
+      <c r="AX41" s="24"/>
+      <c r="AY41" s="24"/>
+      <c r="AZ41" s="24"/>
+      <c r="BA41" s="24"/>
+      <c r="BB41" s="24"/>
+      <c r="BC41" s="24"/>
+      <c r="BD41" s="24"/>
+      <c r="BE41" s="24"/>
+      <c r="BF41" s="24"/>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -4024,16 +4418,16 @@
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="30"/>
+      <c r="AD42" s="33"/>
+      <c r="AE42" s="34"/>
       <c r="AF42" s="16"/>
       <c r="AG42" s="17"/>
       <c r="AI42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ42" s="1"/>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="1"/>
+      <c r="AK42" s="26"/>
+      <c r="AL42" s="26"/>
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
       <c r="AO42" s="1"/>
@@ -4044,8 +4438,18 @@
       <c r="AT42" s="1"/>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
+      <c r="AW42" s="24"/>
+      <c r="AX42" s="24"/>
+      <c r="AY42" s="24"/>
+      <c r="AZ42" s="24"/>
+      <c r="BA42" s="24"/>
+      <c r="BB42" s="24"/>
+      <c r="BC42" s="24"/>
+      <c r="BD42" s="24"/>
+      <c r="BE42" s="24"/>
+      <c r="BF42" s="24"/>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -4075,17 +4479,20 @@
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="7"/>
-      <c r="AD43" s="31" t="e">
+      <c r="AD43" s="35" t="e">
         <f>BA39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE43" s="32"/>
+      <c r="AE43" s="36"/>
       <c r="AF43" s="16"/>
       <c r="AG43" s="17"/>
-      <c r="AI43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ43" s="1"/>
+      <c r="AI43" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ43" s="25">
+        <f>BC39</f>
+        <v>0</v>
+      </c>
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
       <c r="AM43" s="1"/>
@@ -4098,8 +4505,18 @@
       <c r="AT43" s="1"/>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
+      <c r="AW43" s="24"/>
+      <c r="AX43" s="24"/>
+      <c r="AY43" s="24"/>
+      <c r="AZ43" s="24"/>
+      <c r="BA43" s="24"/>
+      <c r="BB43" s="24"/>
+      <c r="BC43" s="24"/>
+      <c r="BD43" s="24"/>
+      <c r="BE43" s="24"/>
+      <c r="BF43" s="24"/>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4133,10 +4550,13 @@
       <c r="AE44" s="16"/>
       <c r="AF44" s="16"/>
       <c r="AG44" s="17"/>
-      <c r="AI44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ44" s="1"/>
+      <c r="AI44" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ44" s="28">
+        <f>BD39</f>
+        <v>0</v>
+      </c>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
       <c r="AM44" s="1"/>
@@ -4150,7 +4570,7 @@
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4184,30 +4604,33 @@
       <c r="AE45" s="16"/>
       <c r="AF45" s="16"/>
       <c r="AG45" s="17"/>
-      <c r="AI45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ45" s="1"/>
+      <c r="AI45" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ45" s="28">
+        <f>BE39</f>
+        <v>0</v>
+      </c>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AM45" s="1"/>
       <c r="AN45" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AO45" s="1"/>
       <c r="AP45" s="1"/>
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
       <c r="AS45" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AT45" s="1"/>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -4242,19 +4665,19 @@
       <c r="AF46" s="19"/>
       <c r="AG46" s="20"/>
       <c r="AI46" s="1"/>
-      <c r="AJ46" s="1"/>
+      <c r="AJ46" s="26"/>
       <c r="AK46" s="1"/>
-      <c r="AN46" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO46" s="64"/>
-      <c r="AT46" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU46" s="65"/>
-      <c r="AV46" s="65"/>
+      <c r="AN46" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO46" s="68"/>
+      <c r="AT46" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU46" s="69"/>
+      <c r="AV46" s="69"/>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.35">
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
     </row>

--- a/Eljur/template.xlsx
+++ b/Eljur/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\source\repos\Eljur\Eljur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B110F8-F81B-40B7-AE7D-08BBC69CAB7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E302BB25-7D97-49A6-9831-181AE34AE2BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CFCA93-134A-4C41-B463-12BD2BC37BA8}"/>
   </bookViews>
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE93198-BB7A-4126-91BE-F4F0185F4DE6}">
   <dimension ref="A1:BF47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH6" sqref="AH6:AH12"/>
+    <sheetView tabSelected="1" topLeftCell="AF3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8:AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4829,7 +4829,7 @@
     <mergeCell ref="AD24:AE24"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="3.937007874015748E-2" top="0" bottom="0" header="0.31496062992125984" footer="0"/>
-  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0"/>
+  <pageSetup paperSize="8" scale="97" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Eljur/template.xlsx
+++ b/Eljur/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\source\repos\Eljur\Eljur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C70A935-5819-4DD4-94EB-B0572B4DB6A9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1023A9A4-6BFF-495C-BA45-652437185ACD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Начало" sheetId="5" r:id="rId1"/>
@@ -1421,7 +1421,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2141,16 +2141,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2473,7 +2476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D85535-87E3-468A-826C-34903E37DA01}">
   <dimension ref="A1:CN47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11:J11"/>
     </sheetView>
   </sheetViews>
@@ -11792,8 +11795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06D13F6-67BB-466D-AEC8-8E09EA45C017}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="70" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G13"/>
+    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="60" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11865,11 +11868,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="79" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="258"/>
-      <c r="B3" s="258"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
       <c r="C3" s="74"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
       <c r="F3" s="146"/>
       <c r="G3" s="118"/>
       <c r="H3" s="146"/>
@@ -11878,11 +11881,11 @@
       <c r="K3" s="146"/>
     </row>
     <row r="4" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="258"/>
-      <c r="B4" s="258"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="74"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="258"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
       <c r="F4" s="146"/>
       <c r="G4" s="118"/>
       <c r="H4" s="146"/>
@@ -11891,518 +11894,518 @@
       <c r="K4" s="146"/>
     </row>
     <row r="5" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="258"/>
-      <c r="B5" s="258"/>
+      <c r="A5" s="146"/>
+      <c r="B5" s="146"/>
       <c r="C5" s="74"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="258"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="146"/>
       <c r="H5" s="258"/>
-      <c r="I5" s="260"/>
-      <c r="J5" s="258"/>
+      <c r="I5" s="261"/>
+      <c r="J5" s="146"/>
       <c r="K5" s="258"/>
     </row>
     <row r="6" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="258"/>
-      <c r="B6" s="258"/>
+      <c r="A6" s="146"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="74"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="258"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="146"/>
       <c r="H6" s="258"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="258"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="146"/>
       <c r="K6" s="258"/>
     </row>
     <row r="7" spans="1:11" s="79" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="258"/>
-      <c r="B7" s="258"/>
+      <c r="A7" s="146"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="74"/>
-      <c r="D7" s="258"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="258"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="258"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="258"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="146"/>
       <c r="K7" s="258"/>
     </row>
     <row r="8" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="258"/>
-      <c r="B8" s="258"/>
+      <c r="A8" s="146"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="74"/>
-      <c r="D8" s="258"/>
-      <c r="E8" s="258"/>
-      <c r="F8" s="261"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="261"/>
-      <c r="I8" s="261"/>
-      <c r="J8" s="262"/>
-      <c r="K8" s="261"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="263"/>
+      <c r="H8" s="259"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="263"/>
+      <c r="K8" s="259"/>
     </row>
     <row r="9" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="258"/>
-      <c r="B9" s="258"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="74"/>
-      <c r="D9" s="258"/>
-      <c r="E9" s="258"/>
-      <c r="F9" s="261"/>
-      <c r="G9" s="262"/>
-      <c r="H9" s="261"/>
-      <c r="I9" s="261"/>
-      <c r="J9" s="262"/>
-      <c r="K9" s="261"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="259"/>
+      <c r="I9" s="262"/>
+      <c r="J9" s="263"/>
+      <c r="K9" s="259"/>
     </row>
     <row r="10" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="258"/>
-      <c r="B10" s="258"/>
+      <c r="A10" s="146"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="74"/>
-      <c r="D10" s="258"/>
-      <c r="E10" s="258"/>
-      <c r="F10" s="261"/>
-      <c r="G10" s="262"/>
-      <c r="H10" s="261"/>
-      <c r="I10" s="261"/>
-      <c r="J10" s="262"/>
-      <c r="K10" s="261"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="263"/>
+      <c r="H10" s="259"/>
+      <c r="I10" s="262"/>
+      <c r="J10" s="263"/>
+      <c r="K10" s="259"/>
     </row>
     <row r="11" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="258"/>
-      <c r="B11" s="258"/>
+      <c r="A11" s="146"/>
+      <c r="B11" s="146"/>
       <c r="C11" s="74"/>
-      <c r="D11" s="258"/>
-      <c r="E11" s="258"/>
-      <c r="F11" s="261"/>
-      <c r="G11" s="262"/>
-      <c r="H11" s="261"/>
-      <c r="I11" s="261"/>
-      <c r="J11" s="262"/>
-      <c r="K11" s="261"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="262"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="259"/>
+      <c r="I11" s="262"/>
+      <c r="J11" s="263"/>
+      <c r="K11" s="259"/>
     </row>
     <row r="12" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="258"/>
-      <c r="B12" s="258"/>
+      <c r="A12" s="146"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="74"/>
-      <c r="D12" s="258"/>
-      <c r="E12" s="258"/>
-      <c r="F12" s="261"/>
-      <c r="G12" s="262"/>
-      <c r="H12" s="261"/>
-      <c r="I12" s="261"/>
-      <c r="J12" s="262"/>
-      <c r="K12" s="261"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="262"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="259"/>
+      <c r="I12" s="262"/>
+      <c r="J12" s="263"/>
+      <c r="K12" s="259"/>
     </row>
     <row r="13" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="258"/>
-      <c r="B13" s="258"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="74"/>
-      <c r="D13" s="258"/>
-      <c r="E13" s="258"/>
-      <c r="F13" s="261"/>
-      <c r="G13" s="262"/>
-      <c r="H13" s="261"/>
-      <c r="I13" s="261"/>
-      <c r="J13" s="262"/>
-      <c r="K13" s="261"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="262"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="259"/>
+      <c r="I13" s="262"/>
+      <c r="J13" s="263"/>
+      <c r="K13" s="259"/>
     </row>
     <row r="14" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="258"/>
-      <c r="B14" s="258"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="74"/>
-      <c r="D14" s="258"/>
-      <c r="E14" s="258"/>
-      <c r="F14" s="261"/>
-      <c r="G14" s="262"/>
-      <c r="H14" s="261"/>
-      <c r="I14" s="261"/>
-      <c r="J14" s="262"/>
-      <c r="K14" s="261"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="262"/>
+      <c r="G14" s="263"/>
+      <c r="H14" s="259"/>
+      <c r="I14" s="262"/>
+      <c r="J14" s="263"/>
+      <c r="K14" s="259"/>
     </row>
     <row r="15" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="258"/>
-      <c r="B15" s="258"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="74"/>
-      <c r="D15" s="258"/>
-      <c r="E15" s="258"/>
-      <c r="F15" s="261"/>
-      <c r="G15" s="262"/>
-      <c r="H15" s="261"/>
-      <c r="I15" s="261"/>
-      <c r="J15" s="262"/>
-      <c r="K15" s="261"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="262"/>
+      <c r="G15" s="263"/>
+      <c r="H15" s="259"/>
+      <c r="I15" s="262"/>
+      <c r="J15" s="263"/>
+      <c r="K15" s="259"/>
     </row>
     <row r="16" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="258"/>
-      <c r="B16" s="258"/>
+      <c r="A16" s="146"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="74"/>
-      <c r="D16" s="258"/>
-      <c r="E16" s="258"/>
-      <c r="F16" s="261"/>
-      <c r="G16" s="262"/>
-      <c r="H16" s="261"/>
-      <c r="I16" s="261"/>
-      <c r="J16" s="262"/>
-      <c r="K16" s="261"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="262"/>
+      <c r="G16" s="263"/>
+      <c r="H16" s="259"/>
+      <c r="I16" s="262"/>
+      <c r="J16" s="263"/>
+      <c r="K16" s="259"/>
     </row>
     <row r="17" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="258"/>
-      <c r="B17" s="258"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="74"/>
-      <c r="D17" s="258"/>
-      <c r="E17" s="258"/>
-      <c r="F17" s="261"/>
-      <c r="G17" s="262"/>
-      <c r="H17" s="261"/>
-      <c r="I17" s="261"/>
-      <c r="J17" s="262"/>
-      <c r="K17" s="261"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="262"/>
+      <c r="G17" s="263"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="262"/>
+      <c r="J17" s="263"/>
+      <c r="K17" s="259"/>
     </row>
     <row r="18" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="258"/>
-      <c r="B18" s="258"/>
+      <c r="A18" s="146"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="74"/>
-      <c r="D18" s="258"/>
-      <c r="E18" s="258"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="262"/>
-      <c r="H18" s="261"/>
-      <c r="I18" s="261"/>
-      <c r="J18" s="262"/>
-      <c r="K18" s="261"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="262"/>
+      <c r="G18" s="263"/>
+      <c r="H18" s="259"/>
+      <c r="I18" s="262"/>
+      <c r="J18" s="263"/>
+      <c r="K18" s="259"/>
     </row>
     <row r="19" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="258"/>
-      <c r="B19" s="258"/>
+      <c r="A19" s="146"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="74"/>
-      <c r="D19" s="258"/>
-      <c r="E19" s="258"/>
-      <c r="F19" s="261"/>
-      <c r="G19" s="262"/>
-      <c r="H19" s="261"/>
-      <c r="I19" s="261"/>
-      <c r="J19" s="262"/>
-      <c r="K19" s="261"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="262"/>
+      <c r="G19" s="263"/>
+      <c r="H19" s="259"/>
+      <c r="I19" s="262"/>
+      <c r="J19" s="263"/>
+      <c r="K19" s="259"/>
     </row>
     <row r="20" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="258"/>
-      <c r="B20" s="258"/>
+      <c r="A20" s="146"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="74"/>
-      <c r="D20" s="258"/>
-      <c r="E20" s="258"/>
-      <c r="F20" s="261"/>
-      <c r="G20" s="262"/>
-      <c r="H20" s="261"/>
-      <c r="I20" s="261"/>
-      <c r="J20" s="262"/>
-      <c r="K20" s="261"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="262"/>
+      <c r="G20" s="263"/>
+      <c r="H20" s="259"/>
+      <c r="I20" s="262"/>
+      <c r="J20" s="263"/>
+      <c r="K20" s="259"/>
     </row>
     <row r="21" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="258"/>
-      <c r="B21" s="258"/>
+      <c r="A21" s="146"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="74"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="258"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="262"/>
-      <c r="H21" s="261"/>
-      <c r="I21" s="261"/>
-      <c r="J21" s="262"/>
-      <c r="K21" s="261"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="262"/>
+      <c r="G21" s="263"/>
+      <c r="H21" s="259"/>
+      <c r="I21" s="262"/>
+      <c r="J21" s="263"/>
+      <c r="K21" s="259"/>
     </row>
     <row r="22" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="258"/>
-      <c r="B22" s="258"/>
+      <c r="A22" s="146"/>
+      <c r="B22" s="146"/>
       <c r="C22" s="74"/>
-      <c r="D22" s="258"/>
-      <c r="E22" s="258"/>
-      <c r="F22" s="261"/>
-      <c r="G22" s="262"/>
-      <c r="H22" s="261"/>
-      <c r="I22" s="261"/>
-      <c r="J22" s="262"/>
-      <c r="K22" s="261"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="262"/>
+      <c r="G22" s="263"/>
+      <c r="H22" s="259"/>
+      <c r="I22" s="262"/>
+      <c r="J22" s="263"/>
+      <c r="K22" s="259"/>
     </row>
     <row r="23" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="258"/>
-      <c r="B23" s="258"/>
+      <c r="A23" s="146"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="74"/>
-      <c r="D23" s="258"/>
-      <c r="E23" s="258"/>
-      <c r="F23" s="261"/>
-      <c r="G23" s="262"/>
-      <c r="H23" s="261"/>
-      <c r="I23" s="261"/>
-      <c r="J23" s="262"/>
-      <c r="K23" s="261"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="262"/>
+      <c r="G23" s="263"/>
+      <c r="H23" s="259"/>
+      <c r="I23" s="262"/>
+      <c r="J23" s="263"/>
+      <c r="K23" s="259"/>
     </row>
     <row r="24" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="258"/>
-      <c r="B24" s="258"/>
+      <c r="A24" s="146"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="74"/>
-      <c r="D24" s="258"/>
-      <c r="E24" s="258"/>
-      <c r="F24" s="261"/>
-      <c r="G24" s="262"/>
-      <c r="H24" s="261"/>
-      <c r="I24" s="261"/>
-      <c r="J24" s="262"/>
-      <c r="K24" s="261"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="262"/>
+      <c r="G24" s="263"/>
+      <c r="H24" s="259"/>
+      <c r="I24" s="262"/>
+      <c r="J24" s="263"/>
+      <c r="K24" s="259"/>
     </row>
     <row r="25" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="258"/>
-      <c r="B25" s="258"/>
+      <c r="A25" s="146"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="74"/>
-      <c r="D25" s="258"/>
-      <c r="E25" s="258"/>
-      <c r="F25" s="261"/>
-      <c r="G25" s="262"/>
-      <c r="H25" s="261"/>
-      <c r="I25" s="261"/>
-      <c r="J25" s="262"/>
-      <c r="K25" s="261"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="262"/>
+      <c r="G25" s="263"/>
+      <c r="H25" s="259"/>
+      <c r="I25" s="262"/>
+      <c r="J25" s="263"/>
+      <c r="K25" s="259"/>
     </row>
     <row r="26" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="258"/>
-      <c r="B26" s="258"/>
+      <c r="A26" s="146"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="74"/>
-      <c r="D26" s="258"/>
-      <c r="E26" s="258"/>
-      <c r="F26" s="261"/>
-      <c r="G26" s="262"/>
-      <c r="H26" s="261"/>
-      <c r="I26" s="261"/>
-      <c r="J26" s="262"/>
-      <c r="K26" s="261"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="262"/>
+      <c r="G26" s="263"/>
+      <c r="H26" s="259"/>
+      <c r="I26" s="262"/>
+      <c r="J26" s="263"/>
+      <c r="K26" s="259"/>
     </row>
     <row r="27" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="258"/>
-      <c r="B27" s="258"/>
+      <c r="A27" s="146"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="74"/>
-      <c r="D27" s="258"/>
-      <c r="E27" s="258"/>
-      <c r="F27" s="261"/>
-      <c r="G27" s="262"/>
-      <c r="H27" s="261"/>
-      <c r="I27" s="261"/>
-      <c r="J27" s="262"/>
-      <c r="K27" s="261"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="262"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="259"/>
+      <c r="I27" s="262"/>
+      <c r="J27" s="263"/>
+      <c r="K27" s="259"/>
     </row>
     <row r="28" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="258"/>
-      <c r="B28" s="258"/>
+      <c r="A28" s="146"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="74"/>
-      <c r="D28" s="258"/>
-      <c r="E28" s="258"/>
-      <c r="F28" s="261"/>
-      <c r="G28" s="262"/>
-      <c r="H28" s="261"/>
-      <c r="I28" s="261"/>
-      <c r="J28" s="262"/>
-      <c r="K28" s="261"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="262"/>
+      <c r="G28" s="263"/>
+      <c r="H28" s="259"/>
+      <c r="I28" s="262"/>
+      <c r="J28" s="263"/>
+      <c r="K28" s="259"/>
     </row>
     <row r="29" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="258"/>
-      <c r="B29" s="258"/>
+      <c r="A29" s="146"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="74"/>
-      <c r="D29" s="258"/>
-      <c r="E29" s="258"/>
-      <c r="F29" s="261"/>
-      <c r="G29" s="262"/>
-      <c r="H29" s="261"/>
-      <c r="I29" s="261"/>
-      <c r="J29" s="262"/>
-      <c r="K29" s="261"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="262"/>
+      <c r="G29" s="263"/>
+      <c r="H29" s="259"/>
+      <c r="I29" s="262"/>
+      <c r="J29" s="263"/>
+      <c r="K29" s="259"/>
     </row>
     <row r="30" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="258"/>
-      <c r="B30" s="258"/>
+      <c r="A30" s="146"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="74"/>
-      <c r="D30" s="258"/>
-      <c r="E30" s="258"/>
-      <c r="F30" s="261"/>
-      <c r="G30" s="262"/>
-      <c r="H30" s="261"/>
-      <c r="I30" s="261"/>
-      <c r="J30" s="262"/>
-      <c r="K30" s="261"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="262"/>
+      <c r="G30" s="263"/>
+      <c r="H30" s="259"/>
+      <c r="I30" s="262"/>
+      <c r="J30" s="263"/>
+      <c r="K30" s="259"/>
     </row>
     <row r="31" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="258"/>
-      <c r="B31" s="258"/>
+      <c r="A31" s="146"/>
+      <c r="B31" s="146"/>
       <c r="C31" s="74"/>
-      <c r="D31" s="258"/>
-      <c r="E31" s="258"/>
-      <c r="F31" s="261"/>
-      <c r="G31" s="262"/>
-      <c r="H31" s="261"/>
-      <c r="I31" s="261"/>
-      <c r="J31" s="262"/>
-      <c r="K31" s="261"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="262"/>
+      <c r="G31" s="263"/>
+      <c r="H31" s="259"/>
+      <c r="I31" s="262"/>
+      <c r="J31" s="263"/>
+      <c r="K31" s="259"/>
     </row>
     <row r="32" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="258"/>
-      <c r="B32" s="258"/>
+      <c r="A32" s="146"/>
+      <c r="B32" s="146"/>
       <c r="C32" s="74"/>
-      <c r="D32" s="258"/>
-      <c r="E32" s="258"/>
-      <c r="F32" s="261"/>
-      <c r="G32" s="262"/>
-      <c r="H32" s="261"/>
-      <c r="I32" s="261"/>
-      <c r="J32" s="262"/>
-      <c r="K32" s="261"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="262"/>
+      <c r="G32" s="263"/>
+      <c r="H32" s="259"/>
+      <c r="I32" s="262"/>
+      <c r="J32" s="263"/>
+      <c r="K32" s="259"/>
     </row>
     <row r="33" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="258"/>
-      <c r="B33" s="258"/>
+      <c r="A33" s="146"/>
+      <c r="B33" s="146"/>
       <c r="C33" s="74"/>
-      <c r="D33" s="258"/>
-      <c r="E33" s="258"/>
-      <c r="F33" s="261"/>
-      <c r="G33" s="262"/>
-      <c r="H33" s="261"/>
-      <c r="I33" s="261"/>
-      <c r="J33" s="262"/>
-      <c r="K33" s="261"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="262"/>
+      <c r="G33" s="263"/>
+      <c r="H33" s="259"/>
+      <c r="I33" s="262"/>
+      <c r="J33" s="263"/>
+      <c r="K33" s="259"/>
     </row>
     <row r="34" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="258"/>
-      <c r="B34" s="258"/>
+      <c r="A34" s="146"/>
+      <c r="B34" s="146"/>
       <c r="C34" s="74"/>
-      <c r="D34" s="258"/>
-      <c r="E34" s="258"/>
-      <c r="F34" s="261"/>
-      <c r="G34" s="262"/>
-      <c r="H34" s="261"/>
-      <c r="I34" s="261"/>
-      <c r="J34" s="262"/>
-      <c r="K34" s="261"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="262"/>
+      <c r="G34" s="263"/>
+      <c r="H34" s="259"/>
+      <c r="I34" s="262"/>
+      <c r="J34" s="263"/>
+      <c r="K34" s="259"/>
     </row>
     <row r="35" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="258"/>
-      <c r="B35" s="258"/>
+      <c r="A35" s="146"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="74"/>
-      <c r="D35" s="258"/>
-      <c r="E35" s="258"/>
-      <c r="F35" s="261"/>
-      <c r="G35" s="262"/>
-      <c r="H35" s="261"/>
-      <c r="I35" s="261"/>
-      <c r="J35" s="262"/>
-      <c r="K35" s="261"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="262"/>
+      <c r="G35" s="263"/>
+      <c r="H35" s="259"/>
+      <c r="I35" s="262"/>
+      <c r="J35" s="263"/>
+      <c r="K35" s="259"/>
     </row>
     <row r="36" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="258"/>
-      <c r="B36" s="258"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="146"/>
       <c r="C36" s="74"/>
-      <c r="D36" s="258"/>
-      <c r="E36" s="258"/>
-      <c r="F36" s="261"/>
-      <c r="G36" s="262"/>
-      <c r="H36" s="261"/>
-      <c r="I36" s="261"/>
-      <c r="J36" s="262"/>
-      <c r="K36" s="261"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="262"/>
+      <c r="G36" s="263"/>
+      <c r="H36" s="259"/>
+      <c r="I36" s="262"/>
+      <c r="J36" s="263"/>
+      <c r="K36" s="259"/>
     </row>
     <row r="37" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="258"/>
-      <c r="B37" s="258"/>
+      <c r="A37" s="146"/>
+      <c r="B37" s="146"/>
       <c r="C37" s="74"/>
-      <c r="D37" s="258"/>
-      <c r="E37" s="258"/>
-      <c r="F37" s="261"/>
-      <c r="G37" s="262"/>
-      <c r="H37" s="261"/>
-      <c r="I37" s="261"/>
-      <c r="J37" s="262"/>
-      <c r="K37" s="261"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="262"/>
+      <c r="G37" s="263"/>
+      <c r="H37" s="259"/>
+      <c r="I37" s="262"/>
+      <c r="J37" s="263"/>
+      <c r="K37" s="259"/>
     </row>
     <row r="38" spans="1:11" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="258"/>
-      <c r="B38" s="258"/>
+      <c r="A38" s="146"/>
+      <c r="B38" s="146"/>
       <c r="C38" s="74"/>
-      <c r="D38" s="258"/>
-      <c r="E38" s="258"/>
-      <c r="F38" s="261"/>
-      <c r="G38" s="262"/>
-      <c r="H38" s="261"/>
-      <c r="I38" s="261"/>
-      <c r="J38" s="262"/>
-      <c r="K38" s="261"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="262"/>
+      <c r="G38" s="263"/>
+      <c r="H38" s="259"/>
+      <c r="I38" s="262"/>
+      <c r="J38" s="263"/>
+      <c r="K38" s="259"/>
     </row>
     <row r="39" spans="1:11" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="258"/>
-      <c r="B39" s="258"/>
+      <c r="A39" s="146"/>
+      <c r="B39" s="146"/>
       <c r="C39" s="74"/>
-      <c r="D39" s="258"/>
-      <c r="E39" s="258"/>
-      <c r="F39" s="261"/>
-      <c r="G39" s="262"/>
-      <c r="H39" s="261"/>
-      <c r="I39" s="261"/>
-      <c r="J39" s="262"/>
-      <c r="K39" s="261"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="262"/>
+      <c r="G39" s="263"/>
+      <c r="H39" s="259"/>
+      <c r="I39" s="262"/>
+      <c r="J39" s="263"/>
+      <c r="K39" s="259"/>
     </row>
     <row r="40" spans="1:11" s="79" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="258"/>
-      <c r="B40" s="258"/>
+      <c r="A40" s="146"/>
+      <c r="B40" s="146"/>
       <c r="C40" s="74"/>
-      <c r="D40" s="258"/>
-      <c r="E40" s="258"/>
-      <c r="F40" s="261"/>
-      <c r="G40" s="262"/>
-      <c r="H40" s="261"/>
-      <c r="I40" s="261"/>
-      <c r="J40" s="262"/>
-      <c r="K40" s="261"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="262"/>
+      <c r="G40" s="263"/>
+      <c r="H40" s="259"/>
+      <c r="I40" s="262"/>
+      <c r="J40" s="263"/>
+      <c r="K40" s="259"/>
     </row>
     <row r="41" spans="1:11" s="79" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="258"/>
-      <c r="B41" s="258"/>
+      <c r="A41" s="146"/>
+      <c r="B41" s="146"/>
       <c r="C41" s="74"/>
-      <c r="D41" s="258"/>
-      <c r="E41" s="258"/>
-      <c r="F41" s="261"/>
-      <c r="G41" s="262"/>
-      <c r="H41" s="261"/>
-      <c r="I41" s="261"/>
-      <c r="J41" s="262"/>
-      <c r="K41" s="261"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="262"/>
+      <c r="G41" s="263"/>
+      <c r="H41" s="259"/>
+      <c r="I41" s="262"/>
+      <c r="J41" s="263"/>
+      <c r="K41" s="259"/>
     </row>
     <row r="42" spans="1:11" s="79" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="259"/>
-      <c r="B42" s="259"/>
+      <c r="A42" s="260"/>
+      <c r="B42" s="260"/>
       <c r="C42" s="74"/>
-      <c r="D42" s="259"/>
-      <c r="E42" s="259"/>
-      <c r="F42" s="261"/>
-      <c r="G42" s="262"/>
-      <c r="H42" s="261"/>
-      <c r="I42" s="261"/>
-      <c r="J42" s="262"/>
-      <c r="K42" s="261"/>
+      <c r="D42" s="260"/>
+      <c r="E42" s="260"/>
+      <c r="F42" s="262"/>
+      <c r="G42" s="263"/>
+      <c r="H42" s="259"/>
+      <c r="I42" s="262"/>
+      <c r="J42" s="263"/>
+      <c r="K42" s="259"/>
     </row>
     <row r="43" spans="1:11" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="259"/>
-      <c r="B43" s="259"/>
+      <c r="A43" s="260"/>
+      <c r="B43" s="260"/>
       <c r="C43" s="74"/>
-      <c r="D43" s="259"/>
-      <c r="E43" s="259"/>
-      <c r="F43" s="261"/>
-      <c r="G43" s="262"/>
-      <c r="H43" s="261"/>
-      <c r="I43" s="261"/>
-      <c r="J43" s="262"/>
-      <c r="K43" s="261"/>
+      <c r="D43" s="260"/>
+      <c r="E43" s="260"/>
+      <c r="F43" s="262"/>
+      <c r="G43" s="263"/>
+      <c r="H43" s="259"/>
+      <c r="I43" s="262"/>
+      <c r="J43" s="263"/>
+      <c r="K43" s="259"/>
     </row>
     <row r="44" spans="1:11" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="259"/>
-      <c r="B44" s="259"/>
+      <c r="A44" s="260"/>
+      <c r="B44" s="260"/>
       <c r="C44" s="74"/>
-      <c r="D44" s="259"/>
-      <c r="E44" s="259"/>
+      <c r="D44" s="260"/>
+      <c r="E44" s="260"/>
       <c r="F44" s="113"/>
       <c r="G44" s="113"/>
       <c r="H44" s="113"/>

--- a/Eljur/template.xlsx
+++ b/Eljur/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\source\repos\Eljur\Eljur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE3299C-F047-490E-9468-7752575CD555}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394E49F7-E17C-4B5E-9FC0-772AD24821AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,6 +339,38 @@
     <definedName name="_1_5_Zach7">Начало!$BF$20</definedName>
     <definedName name="_1_5_Zach8">Начало!$BF$22</definedName>
     <definedName name="_1_5_Zach9">Начало!$BF$24</definedName>
+    <definedName name="_1_6_DateTaskDone1">Начало!$BI$8:$BI$37</definedName>
+    <definedName name="_1_6_DateTaskDone2">Начало!$BK$8:$BK$37</definedName>
+    <definedName name="_1_6_DateTaskDone3">Начало!$BM$8:$BM$37</definedName>
+    <definedName name="_1_6_DateTaskDone4">Начало!$BO$8:$BO$37</definedName>
+    <definedName name="_1_6_DateTaskDone5">Начало!$BQ$8:$BQ$37</definedName>
+    <definedName name="_1_6_DateTaskDone6">Начало!$BS$8:$BS$37</definedName>
+    <definedName name="_1_6_DateTaskDone7">Начало!$BU$8:$BU$37</definedName>
+    <definedName name="_1_6_DateTaskDone8">Начало!$BW$8:$BW$37</definedName>
+    <definedName name="_1_6_Subject1">Начало!$BI$3</definedName>
+    <definedName name="_1_6_Subject2">Начало!$BK$3</definedName>
+    <definedName name="_1_6_Subject3">Начало!$BM$3</definedName>
+    <definedName name="_1_6_Subject4">Начало!$BO$3</definedName>
+    <definedName name="_1_6_Subject5">Начало!$BQ$3</definedName>
+    <definedName name="_1_6_Subject6">Начало!$BS$3</definedName>
+    <definedName name="_1_6_Subject7">Начало!$BU$3</definedName>
+    <definedName name="_1_6_Subject8">Начало!$BW$3</definedName>
+    <definedName name="_1_7_DateTaskDone1">Начало!$BY$8:$BY$37</definedName>
+    <definedName name="_1_7_DateTaskDone2">Начало!$CA$8:$CA$37</definedName>
+    <definedName name="_1_7_DateTaskDone3">Начало!$CC$8:$CC$37</definedName>
+    <definedName name="_1_7_DateTaskDone4">Начало!$CE$8:$CE$37</definedName>
+    <definedName name="_1_7_DateTaskDone5">Начало!$CG$8:$CG$37</definedName>
+    <definedName name="_1_7_DateTaskDone6">Начало!$CI$8:$CI$37</definedName>
+    <definedName name="_1_7_DateTaskDone7">Начало!$CK$8:$CK$37</definedName>
+    <definedName name="_1_7_DateTaskDone8">Начало!$CM$8:$CM$37</definedName>
+    <definedName name="_1_7_Subject1">Начало!$BY$3</definedName>
+    <definedName name="_1_7_Subject2">Начало!$CA$3</definedName>
+    <definedName name="_1_7_Subject3">Начало!$CC$3</definedName>
+    <definedName name="_1_7_Subject4">Начало!$CE$3</definedName>
+    <definedName name="_1_7_Subject5">Начало!$CG$3</definedName>
+    <definedName name="_1_7_Subject6">Начало!$CI$3</definedName>
+    <definedName name="_1_7_Subject7">Начало!$CK$3</definedName>
+    <definedName name="_1_7_Subject8">Начало!$CM$3</definedName>
     <definedName name="_3_1_DekanDescr1">Конец!$B$3</definedName>
     <definedName name="_3_1_DekanDescr10">Конец!$B$30</definedName>
     <definedName name="_3_1_DekanDescr11">Конец!$B$33</definedName>
@@ -1020,7 +1052,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1282,6 +1314,20 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1671,7 +1717,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2405,6 +2451,12 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2726,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D85535-87E3-468A-826C-34903E37DA01}">
   <dimension ref="A1:CN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N7" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AX18" sqref="AX18:AX19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="AH1" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="BI8" sqref="BI8:CN37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3719,38 +3771,38 @@
       <c r="BH8" s="85">
         <v>1</v>
       </c>
-      <c r="BI8" s="86"/>
-      <c r="BJ8" s="86"/>
-      <c r="BK8" s="86"/>
-      <c r="BL8" s="86"/>
-      <c r="BM8" s="86"/>
-      <c r="BN8" s="86"/>
-      <c r="BO8" s="86"/>
-      <c r="BP8" s="86"/>
-      <c r="BQ8" s="86"/>
-      <c r="BR8" s="86"/>
-      <c r="BS8" s="86"/>
-      <c r="BT8" s="86"/>
-      <c r="BU8" s="86"/>
-      <c r="BV8" s="86"/>
-      <c r="BW8" s="86"/>
-      <c r="BX8" s="86"/>
-      <c r="BY8" s="86"/>
-      <c r="BZ8" s="86"/>
-      <c r="CA8" s="86"/>
-      <c r="CB8" s="86"/>
-      <c r="CC8" s="86"/>
-      <c r="CD8" s="87"/>
-      <c r="CE8" s="86"/>
-      <c r="CF8" s="86"/>
-      <c r="CG8" s="86"/>
-      <c r="CH8" s="86"/>
-      <c r="CI8" s="86"/>
-      <c r="CJ8" s="86"/>
-      <c r="CK8" s="86"/>
-      <c r="CL8" s="86"/>
-      <c r="CM8" s="86"/>
-      <c r="CN8" s="86"/>
+      <c r="BI8" s="264"/>
+      <c r="BJ8" s="264"/>
+      <c r="BK8" s="264"/>
+      <c r="BL8" s="264"/>
+      <c r="BM8" s="264"/>
+      <c r="BN8" s="264"/>
+      <c r="BO8" s="264"/>
+      <c r="BP8" s="264"/>
+      <c r="BQ8" s="264"/>
+      <c r="BR8" s="264"/>
+      <c r="BS8" s="264"/>
+      <c r="BT8" s="264"/>
+      <c r="BU8" s="264"/>
+      <c r="BV8" s="264"/>
+      <c r="BW8" s="264"/>
+      <c r="BX8" s="264"/>
+      <c r="BY8" s="264"/>
+      <c r="BZ8" s="264"/>
+      <c r="CA8" s="264"/>
+      <c r="CB8" s="264"/>
+      <c r="CC8" s="264"/>
+      <c r="CD8" s="265"/>
+      <c r="CE8" s="264"/>
+      <c r="CF8" s="264"/>
+      <c r="CG8" s="264"/>
+      <c r="CH8" s="264"/>
+      <c r="CI8" s="264"/>
+      <c r="CJ8" s="264"/>
+      <c r="CK8" s="264"/>
+      <c r="CL8" s="264"/>
+      <c r="CM8" s="264"/>
+      <c r="CN8" s="264"/>
     </row>
     <row r="9" spans="1:92" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="153"/>
@@ -3819,38 +3871,38 @@
       <c r="BH9" s="85">
         <v>2</v>
       </c>
-      <c r="BI9" s="86"/>
-      <c r="BJ9" s="86"/>
-      <c r="BK9" s="86"/>
-      <c r="BL9" s="86"/>
-      <c r="BM9" s="86"/>
-      <c r="BN9" s="86"/>
-      <c r="BO9" s="86"/>
-      <c r="BP9" s="86"/>
-      <c r="BQ9" s="86"/>
-      <c r="BR9" s="86"/>
-      <c r="BS9" s="86"/>
-      <c r="BT9" s="86"/>
-      <c r="BU9" s="86"/>
-      <c r="BV9" s="86"/>
-      <c r="BW9" s="86"/>
-      <c r="BX9" s="86"/>
-      <c r="BY9" s="86"/>
-      <c r="BZ9" s="86"/>
-      <c r="CA9" s="86"/>
-      <c r="CB9" s="86"/>
-      <c r="CC9" s="86"/>
-      <c r="CD9" s="87"/>
-      <c r="CE9" s="86"/>
-      <c r="CF9" s="86"/>
-      <c r="CG9" s="86"/>
-      <c r="CH9" s="86"/>
-      <c r="CI9" s="86"/>
-      <c r="CJ9" s="86"/>
-      <c r="CK9" s="86"/>
-      <c r="CL9" s="86"/>
-      <c r="CM9" s="86"/>
-      <c r="CN9" s="86"/>
+      <c r="BI9" s="264"/>
+      <c r="BJ9" s="264"/>
+      <c r="BK9" s="264"/>
+      <c r="BL9" s="264"/>
+      <c r="BM9" s="264"/>
+      <c r="BN9" s="264"/>
+      <c r="BO9" s="264"/>
+      <c r="BP9" s="264"/>
+      <c r="BQ9" s="264"/>
+      <c r="BR9" s="264"/>
+      <c r="BS9" s="264"/>
+      <c r="BT9" s="264"/>
+      <c r="BU9" s="264"/>
+      <c r="BV9" s="264"/>
+      <c r="BW9" s="264"/>
+      <c r="BX9" s="264"/>
+      <c r="BY9" s="264"/>
+      <c r="BZ9" s="264"/>
+      <c r="CA9" s="264"/>
+      <c r="CB9" s="264"/>
+      <c r="CC9" s="264"/>
+      <c r="CD9" s="265"/>
+      <c r="CE9" s="264"/>
+      <c r="CF9" s="264"/>
+      <c r="CG9" s="264"/>
+      <c r="CH9" s="264"/>
+      <c r="CI9" s="264"/>
+      <c r="CJ9" s="264"/>
+      <c r="CK9" s="264"/>
+      <c r="CL9" s="264"/>
+      <c r="CM9" s="264"/>
+      <c r="CN9" s="264"/>
     </row>
     <row r="10" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="117"/>
@@ -3917,38 +3969,38 @@
       <c r="BH10" s="85">
         <v>3</v>
       </c>
-      <c r="BI10" s="86"/>
-      <c r="BJ10" s="86"/>
-      <c r="BK10" s="86"/>
-      <c r="BL10" s="86"/>
-      <c r="BM10" s="86"/>
-      <c r="BN10" s="86"/>
-      <c r="BO10" s="86"/>
-      <c r="BP10" s="86"/>
-      <c r="BQ10" s="86"/>
-      <c r="BR10" s="86"/>
-      <c r="BS10" s="86"/>
-      <c r="BT10" s="86"/>
-      <c r="BU10" s="86"/>
-      <c r="BV10" s="86"/>
-      <c r="BW10" s="86"/>
-      <c r="BX10" s="86"/>
-      <c r="BY10" s="86"/>
-      <c r="BZ10" s="86"/>
-      <c r="CA10" s="86"/>
-      <c r="CB10" s="86"/>
-      <c r="CC10" s="86"/>
-      <c r="CD10" s="87"/>
-      <c r="CE10" s="86"/>
-      <c r="CF10" s="86"/>
-      <c r="CG10" s="86"/>
-      <c r="CH10" s="86"/>
-      <c r="CI10" s="86"/>
-      <c r="CJ10" s="86"/>
-      <c r="CK10" s="86"/>
-      <c r="CL10" s="86"/>
-      <c r="CM10" s="86"/>
-      <c r="CN10" s="86"/>
+      <c r="BI10" s="264"/>
+      <c r="BJ10" s="264"/>
+      <c r="BK10" s="264"/>
+      <c r="BL10" s="264"/>
+      <c r="BM10" s="264"/>
+      <c r="BN10" s="264"/>
+      <c r="BO10" s="264"/>
+      <c r="BP10" s="264"/>
+      <c r="BQ10" s="264"/>
+      <c r="BR10" s="264"/>
+      <c r="BS10" s="264"/>
+      <c r="BT10" s="264"/>
+      <c r="BU10" s="264"/>
+      <c r="BV10" s="264"/>
+      <c r="BW10" s="264"/>
+      <c r="BX10" s="264"/>
+      <c r="BY10" s="264"/>
+      <c r="BZ10" s="264"/>
+      <c r="CA10" s="264"/>
+      <c r="CB10" s="264"/>
+      <c r="CC10" s="264"/>
+      <c r="CD10" s="265"/>
+      <c r="CE10" s="264"/>
+      <c r="CF10" s="264"/>
+      <c r="CG10" s="264"/>
+      <c r="CH10" s="264"/>
+      <c r="CI10" s="264"/>
+      <c r="CJ10" s="264"/>
+      <c r="CK10" s="264"/>
+      <c r="CL10" s="264"/>
+      <c r="CM10" s="264"/>
+      <c r="CN10" s="264"/>
     </row>
     <row r="11" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="117"/>
@@ -4017,38 +4069,38 @@
       <c r="BH11" s="85">
         <v>4</v>
       </c>
-      <c r="BI11" s="86"/>
-      <c r="BJ11" s="86"/>
-      <c r="BK11" s="86"/>
-      <c r="BL11" s="86"/>
-      <c r="BM11" s="86"/>
-      <c r="BN11" s="86"/>
-      <c r="BO11" s="86"/>
-      <c r="BP11" s="86"/>
-      <c r="BQ11" s="86"/>
-      <c r="BR11" s="86"/>
-      <c r="BS11" s="86"/>
-      <c r="BT11" s="86"/>
-      <c r="BU11" s="86"/>
-      <c r="BV11" s="86"/>
-      <c r="BW11" s="86"/>
-      <c r="BX11" s="86"/>
-      <c r="BY11" s="86"/>
-      <c r="BZ11" s="86"/>
-      <c r="CA11" s="86"/>
-      <c r="CB11" s="86"/>
-      <c r="CC11" s="86"/>
-      <c r="CD11" s="87"/>
-      <c r="CE11" s="86"/>
-      <c r="CF11" s="86"/>
-      <c r="CG11" s="86"/>
-      <c r="CH11" s="86"/>
-      <c r="CI11" s="86"/>
-      <c r="CJ11" s="86"/>
-      <c r="CK11" s="86"/>
-      <c r="CL11" s="86"/>
-      <c r="CM11" s="86"/>
-      <c r="CN11" s="86"/>
+      <c r="BI11" s="264"/>
+      <c r="BJ11" s="264"/>
+      <c r="BK11" s="264"/>
+      <c r="BL11" s="264"/>
+      <c r="BM11" s="264"/>
+      <c r="BN11" s="264"/>
+      <c r="BO11" s="264"/>
+      <c r="BP11" s="264"/>
+      <c r="BQ11" s="264"/>
+      <c r="BR11" s="264"/>
+      <c r="BS11" s="264"/>
+      <c r="BT11" s="264"/>
+      <c r="BU11" s="264"/>
+      <c r="BV11" s="264"/>
+      <c r="BW11" s="264"/>
+      <c r="BX11" s="264"/>
+      <c r="BY11" s="264"/>
+      <c r="BZ11" s="264"/>
+      <c r="CA11" s="264"/>
+      <c r="CB11" s="264"/>
+      <c r="CC11" s="264"/>
+      <c r="CD11" s="265"/>
+      <c r="CE11" s="264"/>
+      <c r="CF11" s="264"/>
+      <c r="CG11" s="264"/>
+      <c r="CH11" s="264"/>
+      <c r="CI11" s="264"/>
+      <c r="CJ11" s="264"/>
+      <c r="CK11" s="264"/>
+      <c r="CL11" s="264"/>
+      <c r="CM11" s="264"/>
+      <c r="CN11" s="264"/>
     </row>
     <row r="12" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="117"/>
@@ -4115,38 +4167,38 @@
       <c r="BH12" s="85">
         <v>5</v>
       </c>
-      <c r="BI12" s="86"/>
-      <c r="BJ12" s="86"/>
-      <c r="BK12" s="86"/>
-      <c r="BL12" s="86"/>
-      <c r="BM12" s="86"/>
-      <c r="BN12" s="86"/>
-      <c r="BO12" s="86"/>
-      <c r="BP12" s="86"/>
-      <c r="BQ12" s="86"/>
-      <c r="BR12" s="86"/>
-      <c r="BS12" s="86"/>
-      <c r="BT12" s="86"/>
-      <c r="BU12" s="86"/>
-      <c r="BV12" s="86"/>
-      <c r="BW12" s="86"/>
-      <c r="BX12" s="86"/>
-      <c r="BY12" s="86"/>
-      <c r="BZ12" s="86"/>
-      <c r="CA12" s="86"/>
-      <c r="CB12" s="86"/>
-      <c r="CC12" s="86"/>
-      <c r="CD12" s="87"/>
-      <c r="CE12" s="86"/>
-      <c r="CF12" s="86"/>
-      <c r="CG12" s="86"/>
-      <c r="CH12" s="86"/>
-      <c r="CI12" s="86"/>
-      <c r="CJ12" s="86"/>
-      <c r="CK12" s="86"/>
-      <c r="CL12" s="86"/>
-      <c r="CM12" s="86"/>
-      <c r="CN12" s="86"/>
+      <c r="BI12" s="264"/>
+      <c r="BJ12" s="264"/>
+      <c r="BK12" s="264"/>
+      <c r="BL12" s="264"/>
+      <c r="BM12" s="264"/>
+      <c r="BN12" s="264"/>
+      <c r="BO12" s="264"/>
+      <c r="BP12" s="264"/>
+      <c r="BQ12" s="264"/>
+      <c r="BR12" s="264"/>
+      <c r="BS12" s="264"/>
+      <c r="BT12" s="264"/>
+      <c r="BU12" s="264"/>
+      <c r="BV12" s="264"/>
+      <c r="BW12" s="264"/>
+      <c r="BX12" s="264"/>
+      <c r="BY12" s="264"/>
+      <c r="BZ12" s="264"/>
+      <c r="CA12" s="264"/>
+      <c r="CB12" s="264"/>
+      <c r="CC12" s="264"/>
+      <c r="CD12" s="265"/>
+      <c r="CE12" s="264"/>
+      <c r="CF12" s="264"/>
+      <c r="CG12" s="264"/>
+      <c r="CH12" s="264"/>
+      <c r="CI12" s="264"/>
+      <c r="CJ12" s="264"/>
+      <c r="CK12" s="264"/>
+      <c r="CL12" s="264"/>
+      <c r="CM12" s="264"/>
+      <c r="CN12" s="264"/>
     </row>
     <row r="13" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="117"/>
@@ -4215,38 +4267,38 @@
       <c r="BH13" s="85">
         <v>6</v>
       </c>
-      <c r="BI13" s="86"/>
-      <c r="BJ13" s="86"/>
-      <c r="BK13" s="86"/>
-      <c r="BL13" s="86"/>
-      <c r="BM13" s="86"/>
-      <c r="BN13" s="86"/>
-      <c r="BO13" s="86"/>
-      <c r="BP13" s="86"/>
-      <c r="BQ13" s="86"/>
-      <c r="BR13" s="86"/>
-      <c r="BS13" s="86"/>
-      <c r="BT13" s="86"/>
-      <c r="BU13" s="86"/>
-      <c r="BV13" s="86"/>
-      <c r="BW13" s="86"/>
-      <c r="BX13" s="86"/>
-      <c r="BY13" s="86"/>
-      <c r="BZ13" s="86"/>
-      <c r="CA13" s="86"/>
-      <c r="CB13" s="86"/>
-      <c r="CC13" s="86"/>
-      <c r="CD13" s="87"/>
-      <c r="CE13" s="86"/>
-      <c r="CF13" s="86"/>
-      <c r="CG13" s="86"/>
-      <c r="CH13" s="86"/>
-      <c r="CI13" s="86"/>
-      <c r="CJ13" s="86"/>
-      <c r="CK13" s="86"/>
-      <c r="CL13" s="86"/>
-      <c r="CM13" s="86"/>
-      <c r="CN13" s="86"/>
+      <c r="BI13" s="264"/>
+      <c r="BJ13" s="264"/>
+      <c r="BK13" s="264"/>
+      <c r="BL13" s="264"/>
+      <c r="BM13" s="264"/>
+      <c r="BN13" s="264"/>
+      <c r="BO13" s="264"/>
+      <c r="BP13" s="264"/>
+      <c r="BQ13" s="264"/>
+      <c r="BR13" s="264"/>
+      <c r="BS13" s="264"/>
+      <c r="BT13" s="264"/>
+      <c r="BU13" s="264"/>
+      <c r="BV13" s="264"/>
+      <c r="BW13" s="264"/>
+      <c r="BX13" s="264"/>
+      <c r="BY13" s="264"/>
+      <c r="BZ13" s="264"/>
+      <c r="CA13" s="264"/>
+      <c r="CB13" s="264"/>
+      <c r="CC13" s="264"/>
+      <c r="CD13" s="265"/>
+      <c r="CE13" s="264"/>
+      <c r="CF13" s="264"/>
+      <c r="CG13" s="264"/>
+      <c r="CH13" s="264"/>
+      <c r="CI13" s="264"/>
+      <c r="CJ13" s="264"/>
+      <c r="CK13" s="264"/>
+      <c r="CL13" s="264"/>
+      <c r="CM13" s="264"/>
+      <c r="CN13" s="264"/>
     </row>
     <row r="14" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="117"/>
@@ -4313,38 +4365,38 @@
       <c r="BH14" s="85">
         <v>7</v>
       </c>
-      <c r="BI14" s="86"/>
-      <c r="BJ14" s="86"/>
-      <c r="BK14" s="86"/>
-      <c r="BL14" s="86"/>
-      <c r="BM14" s="86"/>
-      <c r="BN14" s="86"/>
-      <c r="BO14" s="86"/>
-      <c r="BP14" s="86"/>
-      <c r="BQ14" s="86"/>
-      <c r="BR14" s="86"/>
-      <c r="BS14" s="86"/>
-      <c r="BT14" s="86"/>
-      <c r="BU14" s="86"/>
-      <c r="BV14" s="86"/>
-      <c r="BW14" s="86"/>
-      <c r="BX14" s="86"/>
-      <c r="BY14" s="86"/>
-      <c r="BZ14" s="86"/>
-      <c r="CA14" s="86"/>
-      <c r="CB14" s="86"/>
-      <c r="CC14" s="86"/>
-      <c r="CD14" s="87"/>
-      <c r="CE14" s="86"/>
-      <c r="CF14" s="86"/>
-      <c r="CG14" s="86"/>
-      <c r="CH14" s="86"/>
-      <c r="CI14" s="86"/>
-      <c r="CJ14" s="86"/>
-      <c r="CK14" s="86"/>
-      <c r="CL14" s="86"/>
-      <c r="CM14" s="86"/>
-      <c r="CN14" s="86"/>
+      <c r="BI14" s="264"/>
+      <c r="BJ14" s="264"/>
+      <c r="BK14" s="264"/>
+      <c r="BL14" s="264"/>
+      <c r="BM14" s="264"/>
+      <c r="BN14" s="264"/>
+      <c r="BO14" s="264"/>
+      <c r="BP14" s="264"/>
+      <c r="BQ14" s="264"/>
+      <c r="BR14" s="264"/>
+      <c r="BS14" s="264"/>
+      <c r="BT14" s="264"/>
+      <c r="BU14" s="264"/>
+      <c r="BV14" s="264"/>
+      <c r="BW14" s="264"/>
+      <c r="BX14" s="264"/>
+      <c r="BY14" s="264"/>
+      <c r="BZ14" s="264"/>
+      <c r="CA14" s="264"/>
+      <c r="CB14" s="264"/>
+      <c r="CC14" s="264"/>
+      <c r="CD14" s="265"/>
+      <c r="CE14" s="264"/>
+      <c r="CF14" s="264"/>
+      <c r="CG14" s="264"/>
+      <c r="CH14" s="264"/>
+      <c r="CI14" s="264"/>
+      <c r="CJ14" s="264"/>
+      <c r="CK14" s="264"/>
+      <c r="CL14" s="264"/>
+      <c r="CM14" s="264"/>
+      <c r="CN14" s="264"/>
     </row>
     <row r="15" spans="1:92" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="135" t="s">
@@ -4415,38 +4467,38 @@
       <c r="BH15" s="85">
         <v>8</v>
       </c>
-      <c r="BI15" s="86"/>
-      <c r="BJ15" s="86"/>
-      <c r="BK15" s="86"/>
-      <c r="BL15" s="86"/>
-      <c r="BM15" s="86"/>
-      <c r="BN15" s="86"/>
-      <c r="BO15" s="86"/>
-      <c r="BP15" s="86"/>
-      <c r="BQ15" s="86"/>
-      <c r="BR15" s="86"/>
-      <c r="BS15" s="86"/>
-      <c r="BT15" s="86"/>
-      <c r="BU15" s="86"/>
-      <c r="BV15" s="86"/>
-      <c r="BW15" s="86"/>
-      <c r="BX15" s="86"/>
-      <c r="BY15" s="86"/>
-      <c r="BZ15" s="86"/>
-      <c r="CA15" s="86"/>
-      <c r="CB15" s="86"/>
-      <c r="CC15" s="86"/>
-      <c r="CD15" s="87"/>
-      <c r="CE15" s="86"/>
-      <c r="CF15" s="86"/>
-      <c r="CG15" s="86"/>
-      <c r="CH15" s="86"/>
-      <c r="CI15" s="86"/>
-      <c r="CJ15" s="86"/>
-      <c r="CK15" s="86"/>
-      <c r="CL15" s="86"/>
-      <c r="CM15" s="86"/>
-      <c r="CN15" s="86"/>
+      <c r="BI15" s="264"/>
+      <c r="BJ15" s="264"/>
+      <c r="BK15" s="264"/>
+      <c r="BL15" s="264"/>
+      <c r="BM15" s="264"/>
+      <c r="BN15" s="264"/>
+      <c r="BO15" s="264"/>
+      <c r="BP15" s="264"/>
+      <c r="BQ15" s="264"/>
+      <c r="BR15" s="264"/>
+      <c r="BS15" s="264"/>
+      <c r="BT15" s="264"/>
+      <c r="BU15" s="264"/>
+      <c r="BV15" s="264"/>
+      <c r="BW15" s="264"/>
+      <c r="BX15" s="264"/>
+      <c r="BY15" s="264"/>
+      <c r="BZ15" s="264"/>
+      <c r="CA15" s="264"/>
+      <c r="CB15" s="264"/>
+      <c r="CC15" s="264"/>
+      <c r="CD15" s="265"/>
+      <c r="CE15" s="264"/>
+      <c r="CF15" s="264"/>
+      <c r="CG15" s="264"/>
+      <c r="CH15" s="264"/>
+      <c r="CI15" s="264"/>
+      <c r="CJ15" s="264"/>
+      <c r="CK15" s="264"/>
+      <c r="CL15" s="264"/>
+      <c r="CM15" s="264"/>
+      <c r="CN15" s="264"/>
     </row>
     <row r="16" spans="1:92" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="136"/>
@@ -4513,38 +4565,38 @@
       <c r="BH16" s="85">
         <v>9</v>
       </c>
-      <c r="BI16" s="86"/>
-      <c r="BJ16" s="86"/>
-      <c r="BK16" s="86"/>
-      <c r="BL16" s="86"/>
-      <c r="BM16" s="86"/>
-      <c r="BN16" s="86"/>
-      <c r="BO16" s="86"/>
-      <c r="BP16" s="86"/>
-      <c r="BQ16" s="86"/>
-      <c r="BR16" s="86"/>
-      <c r="BS16" s="86"/>
-      <c r="BT16" s="86"/>
-      <c r="BU16" s="86"/>
-      <c r="BV16" s="86"/>
-      <c r="BW16" s="86"/>
-      <c r="BX16" s="86"/>
-      <c r="BY16" s="86"/>
-      <c r="BZ16" s="86"/>
-      <c r="CA16" s="86"/>
-      <c r="CB16" s="86"/>
-      <c r="CC16" s="86"/>
-      <c r="CD16" s="87"/>
-      <c r="CE16" s="86"/>
-      <c r="CF16" s="86"/>
-      <c r="CG16" s="86"/>
-      <c r="CH16" s="86"/>
-      <c r="CI16" s="86"/>
-      <c r="CJ16" s="86"/>
-      <c r="CK16" s="86"/>
-      <c r="CL16" s="86"/>
-      <c r="CM16" s="86"/>
-      <c r="CN16" s="86"/>
+      <c r="BI16" s="264"/>
+      <c r="BJ16" s="264"/>
+      <c r="BK16" s="264"/>
+      <c r="BL16" s="264"/>
+      <c r="BM16" s="264"/>
+      <c r="BN16" s="264"/>
+      <c r="BO16" s="264"/>
+      <c r="BP16" s="264"/>
+      <c r="BQ16" s="264"/>
+      <c r="BR16" s="264"/>
+      <c r="BS16" s="264"/>
+      <c r="BT16" s="264"/>
+      <c r="BU16" s="264"/>
+      <c r="BV16" s="264"/>
+      <c r="BW16" s="264"/>
+      <c r="BX16" s="264"/>
+      <c r="BY16" s="264"/>
+      <c r="BZ16" s="264"/>
+      <c r="CA16" s="264"/>
+      <c r="CB16" s="264"/>
+      <c r="CC16" s="264"/>
+      <c r="CD16" s="265"/>
+      <c r="CE16" s="264"/>
+      <c r="CF16" s="264"/>
+      <c r="CG16" s="264"/>
+      <c r="CH16" s="264"/>
+      <c r="CI16" s="264"/>
+      <c r="CJ16" s="264"/>
+      <c r="CK16" s="264"/>
+      <c r="CL16" s="264"/>
+      <c r="CM16" s="264"/>
+      <c r="CN16" s="264"/>
     </row>
     <row r="17" spans="1:92" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="136"/>
@@ -4613,38 +4665,38 @@
       <c r="BH17" s="85">
         <v>10</v>
       </c>
-      <c r="BI17" s="86"/>
-      <c r="BJ17" s="86"/>
-      <c r="BK17" s="86"/>
-      <c r="BL17" s="86"/>
-      <c r="BM17" s="86"/>
-      <c r="BN17" s="86"/>
-      <c r="BO17" s="86"/>
-      <c r="BP17" s="86"/>
-      <c r="BQ17" s="86"/>
-      <c r="BR17" s="86"/>
-      <c r="BS17" s="86"/>
-      <c r="BT17" s="86"/>
-      <c r="BU17" s="86"/>
-      <c r="BV17" s="86"/>
-      <c r="BW17" s="86"/>
-      <c r="BX17" s="86"/>
-      <c r="BY17" s="86"/>
-      <c r="BZ17" s="86"/>
-      <c r="CA17" s="86"/>
-      <c r="CB17" s="86"/>
-      <c r="CC17" s="86"/>
-      <c r="CD17" s="87"/>
-      <c r="CE17" s="86"/>
-      <c r="CF17" s="86"/>
-      <c r="CG17" s="86"/>
-      <c r="CH17" s="86"/>
-      <c r="CI17" s="86"/>
-      <c r="CJ17" s="86"/>
-      <c r="CK17" s="86"/>
-      <c r="CL17" s="86"/>
-      <c r="CM17" s="86"/>
-      <c r="CN17" s="86"/>
+      <c r="BI17" s="264"/>
+      <c r="BJ17" s="264"/>
+      <c r="BK17" s="264"/>
+      <c r="BL17" s="264"/>
+      <c r="BM17" s="264"/>
+      <c r="BN17" s="264"/>
+      <c r="BO17" s="264"/>
+      <c r="BP17" s="264"/>
+      <c r="BQ17" s="264"/>
+      <c r="BR17" s="264"/>
+      <c r="BS17" s="264"/>
+      <c r="BT17" s="264"/>
+      <c r="BU17" s="264"/>
+      <c r="BV17" s="264"/>
+      <c r="BW17" s="264"/>
+      <c r="BX17" s="264"/>
+      <c r="BY17" s="264"/>
+      <c r="BZ17" s="264"/>
+      <c r="CA17" s="264"/>
+      <c r="CB17" s="264"/>
+      <c r="CC17" s="264"/>
+      <c r="CD17" s="265"/>
+      <c r="CE17" s="264"/>
+      <c r="CF17" s="264"/>
+      <c r="CG17" s="264"/>
+      <c r="CH17" s="264"/>
+      <c r="CI17" s="264"/>
+      <c r="CJ17" s="264"/>
+      <c r="CK17" s="264"/>
+      <c r="CL17" s="264"/>
+      <c r="CM17" s="264"/>
+      <c r="CN17" s="264"/>
     </row>
     <row r="18" spans="1:92" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="134" t="s">
@@ -4713,38 +4765,38 @@
       <c r="BH18" s="85">
         <v>11</v>
       </c>
-      <c r="BI18" s="86"/>
-      <c r="BJ18" s="86"/>
-      <c r="BK18" s="86"/>
-      <c r="BL18" s="86"/>
-      <c r="BM18" s="86"/>
-      <c r="BN18" s="86"/>
-      <c r="BO18" s="86"/>
-      <c r="BP18" s="86"/>
-      <c r="BQ18" s="86"/>
-      <c r="BR18" s="86"/>
-      <c r="BS18" s="86"/>
-      <c r="BT18" s="86"/>
-      <c r="BU18" s="86"/>
-      <c r="BV18" s="86"/>
-      <c r="BW18" s="86"/>
-      <c r="BX18" s="86"/>
-      <c r="BY18" s="86"/>
-      <c r="BZ18" s="86"/>
-      <c r="CA18" s="86"/>
-      <c r="CB18" s="86"/>
-      <c r="CC18" s="86"/>
-      <c r="CD18" s="87"/>
-      <c r="CE18" s="86"/>
-      <c r="CF18" s="86"/>
-      <c r="CG18" s="86"/>
-      <c r="CH18" s="86"/>
-      <c r="CI18" s="86"/>
-      <c r="CJ18" s="86"/>
-      <c r="CK18" s="86"/>
-      <c r="CL18" s="86"/>
-      <c r="CM18" s="86"/>
-      <c r="CN18" s="86"/>
+      <c r="BI18" s="264"/>
+      <c r="BJ18" s="264"/>
+      <c r="BK18" s="264"/>
+      <c r="BL18" s="264"/>
+      <c r="BM18" s="264"/>
+      <c r="BN18" s="264"/>
+      <c r="BO18" s="264"/>
+      <c r="BP18" s="264"/>
+      <c r="BQ18" s="264"/>
+      <c r="BR18" s="264"/>
+      <c r="BS18" s="264"/>
+      <c r="BT18" s="264"/>
+      <c r="BU18" s="264"/>
+      <c r="BV18" s="264"/>
+      <c r="BW18" s="264"/>
+      <c r="BX18" s="264"/>
+      <c r="BY18" s="264"/>
+      <c r="BZ18" s="264"/>
+      <c r="CA18" s="264"/>
+      <c r="CB18" s="264"/>
+      <c r="CC18" s="264"/>
+      <c r="CD18" s="265"/>
+      <c r="CE18" s="264"/>
+      <c r="CF18" s="264"/>
+      <c r="CG18" s="264"/>
+      <c r="CH18" s="264"/>
+      <c r="CI18" s="264"/>
+      <c r="CJ18" s="264"/>
+      <c r="CK18" s="264"/>
+      <c r="CL18" s="264"/>
+      <c r="CM18" s="264"/>
+      <c r="CN18" s="264"/>
     </row>
     <row r="19" spans="1:92" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="134"/>
@@ -4813,38 +4865,38 @@
       <c r="BH19" s="85">
         <v>12</v>
       </c>
-      <c r="BI19" s="86"/>
-      <c r="BJ19" s="86"/>
-      <c r="BK19" s="86"/>
-      <c r="BL19" s="86"/>
-      <c r="BM19" s="86"/>
-      <c r="BN19" s="86"/>
-      <c r="BO19" s="86"/>
-      <c r="BP19" s="86"/>
-      <c r="BQ19" s="86"/>
-      <c r="BR19" s="86"/>
-      <c r="BS19" s="86"/>
-      <c r="BT19" s="86"/>
-      <c r="BU19" s="86"/>
-      <c r="BV19" s="86"/>
-      <c r="BW19" s="86"/>
-      <c r="BX19" s="86"/>
-      <c r="BY19" s="86"/>
-      <c r="BZ19" s="86"/>
-      <c r="CA19" s="86"/>
-      <c r="CB19" s="86"/>
-      <c r="CC19" s="86"/>
-      <c r="CD19" s="87"/>
-      <c r="CE19" s="86"/>
-      <c r="CF19" s="86"/>
-      <c r="CG19" s="86"/>
-      <c r="CH19" s="86"/>
-      <c r="CI19" s="86"/>
-      <c r="CJ19" s="86"/>
-      <c r="CK19" s="86"/>
-      <c r="CL19" s="86"/>
-      <c r="CM19" s="86"/>
-      <c r="CN19" s="86"/>
+      <c r="BI19" s="264"/>
+      <c r="BJ19" s="264"/>
+      <c r="BK19" s="264"/>
+      <c r="BL19" s="264"/>
+      <c r="BM19" s="264"/>
+      <c r="BN19" s="264"/>
+      <c r="BO19" s="264"/>
+      <c r="BP19" s="264"/>
+      <c r="BQ19" s="264"/>
+      <c r="BR19" s="264"/>
+      <c r="BS19" s="264"/>
+      <c r="BT19" s="264"/>
+      <c r="BU19" s="264"/>
+      <c r="BV19" s="264"/>
+      <c r="BW19" s="264"/>
+      <c r="BX19" s="264"/>
+      <c r="BY19" s="264"/>
+      <c r="BZ19" s="264"/>
+      <c r="CA19" s="264"/>
+      <c r="CB19" s="264"/>
+      <c r="CC19" s="264"/>
+      <c r="CD19" s="265"/>
+      <c r="CE19" s="264"/>
+      <c r="CF19" s="264"/>
+      <c r="CG19" s="264"/>
+      <c r="CH19" s="264"/>
+      <c r="CI19" s="264"/>
+      <c r="CJ19" s="264"/>
+      <c r="CK19" s="264"/>
+      <c r="CL19" s="264"/>
+      <c r="CM19" s="264"/>
+      <c r="CN19" s="264"/>
     </row>
     <row r="20" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="117"/>
@@ -4911,38 +4963,38 @@
       <c r="BH20" s="85">
         <v>13</v>
       </c>
-      <c r="BI20" s="86"/>
-      <c r="BJ20" s="86"/>
-      <c r="BK20" s="86"/>
-      <c r="BL20" s="86"/>
-      <c r="BM20" s="86"/>
-      <c r="BN20" s="86"/>
-      <c r="BO20" s="86"/>
-      <c r="BP20" s="86"/>
-      <c r="BQ20" s="86"/>
-      <c r="BR20" s="86"/>
-      <c r="BS20" s="86"/>
-      <c r="BT20" s="86"/>
-      <c r="BU20" s="86"/>
-      <c r="BV20" s="86"/>
-      <c r="BW20" s="86"/>
-      <c r="BX20" s="86"/>
-      <c r="BY20" s="86"/>
-      <c r="BZ20" s="86"/>
-      <c r="CA20" s="86"/>
-      <c r="CB20" s="86"/>
-      <c r="CC20" s="86"/>
-      <c r="CD20" s="87"/>
-      <c r="CE20" s="86"/>
-      <c r="CF20" s="86"/>
-      <c r="CG20" s="86"/>
-      <c r="CH20" s="86"/>
-      <c r="CI20" s="86"/>
-      <c r="CJ20" s="86"/>
-      <c r="CK20" s="86"/>
-      <c r="CL20" s="86"/>
-      <c r="CM20" s="86"/>
-      <c r="CN20" s="86"/>
+      <c r="BI20" s="264"/>
+      <c r="BJ20" s="264"/>
+      <c r="BK20" s="264"/>
+      <c r="BL20" s="264"/>
+      <c r="BM20" s="264"/>
+      <c r="BN20" s="264"/>
+      <c r="BO20" s="264"/>
+      <c r="BP20" s="264"/>
+      <c r="BQ20" s="264"/>
+      <c r="BR20" s="264"/>
+      <c r="BS20" s="264"/>
+      <c r="BT20" s="264"/>
+      <c r="BU20" s="264"/>
+      <c r="BV20" s="264"/>
+      <c r="BW20" s="264"/>
+      <c r="BX20" s="264"/>
+      <c r="BY20" s="264"/>
+      <c r="BZ20" s="264"/>
+      <c r="CA20" s="264"/>
+      <c r="CB20" s="264"/>
+      <c r="CC20" s="264"/>
+      <c r="CD20" s="265"/>
+      <c r="CE20" s="264"/>
+      <c r="CF20" s="264"/>
+      <c r="CG20" s="264"/>
+      <c r="CH20" s="264"/>
+      <c r="CI20" s="264"/>
+      <c r="CJ20" s="264"/>
+      <c r="CK20" s="264"/>
+      <c r="CL20" s="264"/>
+      <c r="CM20" s="264"/>
+      <c r="CN20" s="264"/>
     </row>
     <row r="21" spans="1:92" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="131">
@@ -5019,38 +5071,38 @@
       <c r="BH21" s="85">
         <v>14</v>
       </c>
-      <c r="BI21" s="86"/>
-      <c r="BJ21" s="86"/>
-      <c r="BK21" s="86"/>
-      <c r="BL21" s="86"/>
-      <c r="BM21" s="86"/>
-      <c r="BN21" s="86"/>
-      <c r="BO21" s="86"/>
-      <c r="BP21" s="86"/>
-      <c r="BQ21" s="86"/>
-      <c r="BR21" s="86"/>
-      <c r="BS21" s="86"/>
-      <c r="BT21" s="86"/>
-      <c r="BU21" s="86"/>
-      <c r="BV21" s="86"/>
-      <c r="BW21" s="86"/>
-      <c r="BX21" s="86"/>
-      <c r="BY21" s="86"/>
-      <c r="BZ21" s="86"/>
-      <c r="CA21" s="86"/>
-      <c r="CB21" s="86"/>
-      <c r="CC21" s="86"/>
-      <c r="CD21" s="87"/>
-      <c r="CE21" s="86"/>
-      <c r="CF21" s="86"/>
-      <c r="CG21" s="86"/>
-      <c r="CH21" s="86"/>
-      <c r="CI21" s="86"/>
-      <c r="CJ21" s="86"/>
-      <c r="CK21" s="86"/>
-      <c r="CL21" s="86"/>
-      <c r="CM21" s="86"/>
-      <c r="CN21" s="86"/>
+      <c r="BI21" s="264"/>
+      <c r="BJ21" s="264"/>
+      <c r="BK21" s="264"/>
+      <c r="BL21" s="264"/>
+      <c r="BM21" s="264"/>
+      <c r="BN21" s="264"/>
+      <c r="BO21" s="264"/>
+      <c r="BP21" s="264"/>
+      <c r="BQ21" s="264"/>
+      <c r="BR21" s="264"/>
+      <c r="BS21" s="264"/>
+      <c r="BT21" s="264"/>
+      <c r="BU21" s="264"/>
+      <c r="BV21" s="264"/>
+      <c r="BW21" s="264"/>
+      <c r="BX21" s="264"/>
+      <c r="BY21" s="264"/>
+      <c r="BZ21" s="264"/>
+      <c r="CA21" s="264"/>
+      <c r="CB21" s="264"/>
+      <c r="CC21" s="264"/>
+      <c r="CD21" s="265"/>
+      <c r="CE21" s="264"/>
+      <c r="CF21" s="264"/>
+      <c r="CG21" s="264"/>
+      <c r="CH21" s="264"/>
+      <c r="CI21" s="264"/>
+      <c r="CJ21" s="264"/>
+      <c r="CK21" s="264"/>
+      <c r="CL21" s="264"/>
+      <c r="CM21" s="264"/>
+      <c r="CN21" s="264"/>
     </row>
     <row r="22" spans="1:92" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="131"/>
@@ -5117,38 +5169,38 @@
       <c r="BH22" s="85">
         <v>15</v>
       </c>
-      <c r="BI22" s="86"/>
-      <c r="BJ22" s="86"/>
-      <c r="BK22" s="86"/>
-      <c r="BL22" s="86"/>
-      <c r="BM22" s="86"/>
-      <c r="BN22" s="86"/>
-      <c r="BO22" s="86"/>
-      <c r="BP22" s="86"/>
-      <c r="BQ22" s="86"/>
-      <c r="BR22" s="86"/>
-      <c r="BS22" s="86"/>
-      <c r="BT22" s="86"/>
-      <c r="BU22" s="86"/>
-      <c r="BV22" s="86"/>
-      <c r="BW22" s="86"/>
-      <c r="BX22" s="86"/>
-      <c r="BY22" s="86"/>
-      <c r="BZ22" s="86"/>
-      <c r="CA22" s="86"/>
-      <c r="CB22" s="86"/>
-      <c r="CC22" s="86"/>
-      <c r="CD22" s="87"/>
-      <c r="CE22" s="86"/>
-      <c r="CF22" s="86"/>
-      <c r="CG22" s="86"/>
-      <c r="CH22" s="86"/>
-      <c r="CI22" s="86"/>
-      <c r="CJ22" s="86"/>
-      <c r="CK22" s="86"/>
-      <c r="CL22" s="86"/>
-      <c r="CM22" s="86"/>
-      <c r="CN22" s="86"/>
+      <c r="BI22" s="264"/>
+      <c r="BJ22" s="264"/>
+      <c r="BK22" s="264"/>
+      <c r="BL22" s="264"/>
+      <c r="BM22" s="264"/>
+      <c r="BN22" s="264"/>
+      <c r="BO22" s="264"/>
+      <c r="BP22" s="264"/>
+      <c r="BQ22" s="264"/>
+      <c r="BR22" s="264"/>
+      <c r="BS22" s="264"/>
+      <c r="BT22" s="264"/>
+      <c r="BU22" s="264"/>
+      <c r="BV22" s="264"/>
+      <c r="BW22" s="264"/>
+      <c r="BX22" s="264"/>
+      <c r="BY22" s="264"/>
+      <c r="BZ22" s="264"/>
+      <c r="CA22" s="264"/>
+      <c r="CB22" s="264"/>
+      <c r="CC22" s="264"/>
+      <c r="CD22" s="265"/>
+      <c r="CE22" s="264"/>
+      <c r="CF22" s="264"/>
+      <c r="CG22" s="264"/>
+      <c r="CH22" s="264"/>
+      <c r="CI22" s="264"/>
+      <c r="CJ22" s="264"/>
+      <c r="CK22" s="264"/>
+      <c r="CL22" s="264"/>
+      <c r="CM22" s="264"/>
+      <c r="CN22" s="264"/>
     </row>
     <row r="23" spans="1:92" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="131" t="s">
@@ -5221,38 +5273,38 @@
       <c r="BH23" s="85">
         <v>16</v>
       </c>
-      <c r="BI23" s="86"/>
-      <c r="BJ23" s="86"/>
-      <c r="BK23" s="86"/>
-      <c r="BL23" s="86"/>
-      <c r="BM23" s="86"/>
-      <c r="BN23" s="86"/>
-      <c r="BO23" s="86"/>
-      <c r="BP23" s="86"/>
-      <c r="BQ23" s="86"/>
-      <c r="BR23" s="86"/>
-      <c r="BS23" s="86"/>
-      <c r="BT23" s="86"/>
-      <c r="BU23" s="86"/>
-      <c r="BV23" s="86"/>
-      <c r="BW23" s="86"/>
-      <c r="BX23" s="86"/>
-      <c r="BY23" s="86"/>
-      <c r="BZ23" s="86"/>
-      <c r="CA23" s="86"/>
-      <c r="CB23" s="86"/>
-      <c r="CC23" s="86"/>
-      <c r="CD23" s="87"/>
-      <c r="CE23" s="86"/>
-      <c r="CF23" s="86"/>
-      <c r="CG23" s="86"/>
-      <c r="CH23" s="86"/>
-      <c r="CI23" s="86"/>
-      <c r="CJ23" s="86"/>
-      <c r="CK23" s="86"/>
-      <c r="CL23" s="86"/>
-      <c r="CM23" s="86"/>
-      <c r="CN23" s="86"/>
+      <c r="BI23" s="264"/>
+      <c r="BJ23" s="264"/>
+      <c r="BK23" s="264"/>
+      <c r="BL23" s="264"/>
+      <c r="BM23" s="264"/>
+      <c r="BN23" s="264"/>
+      <c r="BO23" s="264"/>
+      <c r="BP23" s="264"/>
+      <c r="BQ23" s="264"/>
+      <c r="BR23" s="264"/>
+      <c r="BS23" s="264"/>
+      <c r="BT23" s="264"/>
+      <c r="BU23" s="264"/>
+      <c r="BV23" s="264"/>
+      <c r="BW23" s="264"/>
+      <c r="BX23" s="264"/>
+      <c r="BY23" s="264"/>
+      <c r="BZ23" s="264"/>
+      <c r="CA23" s="264"/>
+      <c r="CB23" s="264"/>
+      <c r="CC23" s="264"/>
+      <c r="CD23" s="265"/>
+      <c r="CE23" s="264"/>
+      <c r="CF23" s="264"/>
+      <c r="CG23" s="264"/>
+      <c r="CH23" s="264"/>
+      <c r="CI23" s="264"/>
+      <c r="CJ23" s="264"/>
+      <c r="CK23" s="264"/>
+      <c r="CL23" s="264"/>
+      <c r="CM23" s="264"/>
+      <c r="CN23" s="264"/>
     </row>
     <row r="24" spans="1:92" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="131"/>
@@ -5319,38 +5371,38 @@
       <c r="BH24" s="85">
         <v>17</v>
       </c>
-      <c r="BI24" s="86"/>
-      <c r="BJ24" s="86"/>
-      <c r="BK24" s="86"/>
-      <c r="BL24" s="86"/>
-      <c r="BM24" s="86"/>
-      <c r="BN24" s="86"/>
-      <c r="BO24" s="86"/>
-      <c r="BP24" s="86"/>
-      <c r="BQ24" s="86"/>
-      <c r="BR24" s="86"/>
-      <c r="BS24" s="86"/>
-      <c r="BT24" s="86"/>
-      <c r="BU24" s="86"/>
-      <c r="BV24" s="86"/>
-      <c r="BW24" s="86"/>
-      <c r="BX24" s="86"/>
-      <c r="BY24" s="86"/>
-      <c r="BZ24" s="86"/>
-      <c r="CA24" s="86"/>
-      <c r="CB24" s="86"/>
-      <c r="CC24" s="86"/>
-      <c r="CD24" s="87"/>
-      <c r="CE24" s="86"/>
-      <c r="CF24" s="86"/>
-      <c r="CG24" s="86"/>
-      <c r="CH24" s="86"/>
-      <c r="CI24" s="86"/>
-      <c r="CJ24" s="86"/>
-      <c r="CK24" s="86"/>
-      <c r="CL24" s="86"/>
-      <c r="CM24" s="86"/>
-      <c r="CN24" s="86"/>
+      <c r="BI24" s="264"/>
+      <c r="BJ24" s="264"/>
+      <c r="BK24" s="264"/>
+      <c r="BL24" s="264"/>
+      <c r="BM24" s="264"/>
+      <c r="BN24" s="264"/>
+      <c r="BO24" s="264"/>
+      <c r="BP24" s="264"/>
+      <c r="BQ24" s="264"/>
+      <c r="BR24" s="264"/>
+      <c r="BS24" s="264"/>
+      <c r="BT24" s="264"/>
+      <c r="BU24" s="264"/>
+      <c r="BV24" s="264"/>
+      <c r="BW24" s="264"/>
+      <c r="BX24" s="264"/>
+      <c r="BY24" s="264"/>
+      <c r="BZ24" s="264"/>
+      <c r="CA24" s="264"/>
+      <c r="CB24" s="264"/>
+      <c r="CC24" s="264"/>
+      <c r="CD24" s="265"/>
+      <c r="CE24" s="264"/>
+      <c r="CF24" s="264"/>
+      <c r="CG24" s="264"/>
+      <c r="CH24" s="264"/>
+      <c r="CI24" s="264"/>
+      <c r="CJ24" s="264"/>
+      <c r="CK24" s="264"/>
+      <c r="CL24" s="264"/>
+      <c r="CM24" s="264"/>
+      <c r="CN24" s="264"/>
     </row>
     <row r="25" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="117"/>
@@ -5419,38 +5471,38 @@
       <c r="BH25" s="85">
         <v>18</v>
       </c>
-      <c r="BI25" s="86"/>
-      <c r="BJ25" s="86"/>
-      <c r="BK25" s="86"/>
-      <c r="BL25" s="86"/>
-      <c r="BM25" s="86"/>
-      <c r="BN25" s="86"/>
-      <c r="BO25" s="86"/>
-      <c r="BP25" s="86"/>
-      <c r="BQ25" s="86"/>
-      <c r="BR25" s="86"/>
-      <c r="BS25" s="86"/>
-      <c r="BT25" s="86"/>
-      <c r="BU25" s="86"/>
-      <c r="BV25" s="86"/>
-      <c r="BW25" s="86"/>
-      <c r="BX25" s="86"/>
-      <c r="BY25" s="86"/>
-      <c r="BZ25" s="86"/>
-      <c r="CA25" s="86"/>
-      <c r="CB25" s="86"/>
-      <c r="CC25" s="86"/>
-      <c r="CD25" s="87"/>
-      <c r="CE25" s="86"/>
-      <c r="CF25" s="86"/>
-      <c r="CG25" s="86"/>
-      <c r="CH25" s="86"/>
-      <c r="CI25" s="86"/>
-      <c r="CJ25" s="86"/>
-      <c r="CK25" s="86"/>
-      <c r="CL25" s="86"/>
-      <c r="CM25" s="86"/>
-      <c r="CN25" s="86"/>
+      <c r="BI25" s="264"/>
+      <c r="BJ25" s="264"/>
+      <c r="BK25" s="264"/>
+      <c r="BL25" s="264"/>
+      <c r="BM25" s="264"/>
+      <c r="BN25" s="264"/>
+      <c r="BO25" s="264"/>
+      <c r="BP25" s="264"/>
+      <c r="BQ25" s="264"/>
+      <c r="BR25" s="264"/>
+      <c r="BS25" s="264"/>
+      <c r="BT25" s="264"/>
+      <c r="BU25" s="264"/>
+      <c r="BV25" s="264"/>
+      <c r="BW25" s="264"/>
+      <c r="BX25" s="264"/>
+      <c r="BY25" s="264"/>
+      <c r="BZ25" s="264"/>
+      <c r="CA25" s="264"/>
+      <c r="CB25" s="264"/>
+      <c r="CC25" s="264"/>
+      <c r="CD25" s="265"/>
+      <c r="CE25" s="264"/>
+      <c r="CF25" s="264"/>
+      <c r="CG25" s="264"/>
+      <c r="CH25" s="264"/>
+      <c r="CI25" s="264"/>
+      <c r="CJ25" s="264"/>
+      <c r="CK25" s="264"/>
+      <c r="CL25" s="264"/>
+      <c r="CM25" s="264"/>
+      <c r="CN25" s="264"/>
     </row>
     <row r="26" spans="1:92" s="79" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="129" t="s">
@@ -5519,38 +5571,38 @@
       <c r="BH26" s="85">
         <v>19</v>
       </c>
-      <c r="BI26" s="86"/>
-      <c r="BJ26" s="86"/>
-      <c r="BK26" s="86"/>
-      <c r="BL26" s="86"/>
-      <c r="BM26" s="86"/>
-      <c r="BN26" s="86"/>
-      <c r="BO26" s="86"/>
-      <c r="BP26" s="86"/>
-      <c r="BQ26" s="86"/>
-      <c r="BR26" s="86"/>
-      <c r="BS26" s="86"/>
-      <c r="BT26" s="86"/>
-      <c r="BU26" s="86"/>
-      <c r="BV26" s="86"/>
-      <c r="BW26" s="86"/>
-      <c r="BX26" s="86"/>
-      <c r="BY26" s="86"/>
-      <c r="BZ26" s="86"/>
-      <c r="CA26" s="86"/>
-      <c r="CB26" s="86"/>
-      <c r="CC26" s="86"/>
-      <c r="CD26" s="87"/>
-      <c r="CE26" s="86"/>
-      <c r="CF26" s="86"/>
-      <c r="CG26" s="86"/>
-      <c r="CH26" s="86"/>
-      <c r="CI26" s="86"/>
-      <c r="CJ26" s="86"/>
-      <c r="CK26" s="86"/>
-      <c r="CL26" s="86"/>
-      <c r="CM26" s="86"/>
-      <c r="CN26" s="86"/>
+      <c r="BI26" s="264"/>
+      <c r="BJ26" s="264"/>
+      <c r="BK26" s="264"/>
+      <c r="BL26" s="264"/>
+      <c r="BM26" s="264"/>
+      <c r="BN26" s="264"/>
+      <c r="BO26" s="264"/>
+      <c r="BP26" s="264"/>
+      <c r="BQ26" s="264"/>
+      <c r="BR26" s="264"/>
+      <c r="BS26" s="264"/>
+      <c r="BT26" s="264"/>
+      <c r="BU26" s="264"/>
+      <c r="BV26" s="264"/>
+      <c r="BW26" s="264"/>
+      <c r="BX26" s="264"/>
+      <c r="BY26" s="264"/>
+      <c r="BZ26" s="264"/>
+      <c r="CA26" s="264"/>
+      <c r="CB26" s="264"/>
+      <c r="CC26" s="264"/>
+      <c r="CD26" s="265"/>
+      <c r="CE26" s="264"/>
+      <c r="CF26" s="264"/>
+      <c r="CG26" s="264"/>
+      <c r="CH26" s="264"/>
+      <c r="CI26" s="264"/>
+      <c r="CJ26" s="264"/>
+      <c r="CK26" s="264"/>
+      <c r="CL26" s="264"/>
+      <c r="CM26" s="264"/>
+      <c r="CN26" s="264"/>
     </row>
     <row r="27" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="121"/>
@@ -5619,38 +5671,38 @@
       <c r="BH27" s="85">
         <v>20</v>
       </c>
-      <c r="BI27" s="86"/>
-      <c r="BJ27" s="86"/>
-      <c r="BK27" s="86"/>
-      <c r="BL27" s="86"/>
-      <c r="BM27" s="86"/>
-      <c r="BN27" s="86"/>
-      <c r="BO27" s="86"/>
-      <c r="BP27" s="86"/>
-      <c r="BQ27" s="86"/>
-      <c r="BR27" s="86"/>
-      <c r="BS27" s="86"/>
-      <c r="BT27" s="86"/>
-      <c r="BU27" s="86"/>
-      <c r="BV27" s="86"/>
-      <c r="BW27" s="86"/>
-      <c r="BX27" s="86"/>
-      <c r="BY27" s="86"/>
-      <c r="BZ27" s="86"/>
-      <c r="CA27" s="86"/>
-      <c r="CB27" s="86"/>
-      <c r="CC27" s="86"/>
-      <c r="CD27" s="87"/>
-      <c r="CE27" s="86"/>
-      <c r="CF27" s="86"/>
-      <c r="CG27" s="86"/>
-      <c r="CH27" s="86"/>
-      <c r="CI27" s="86"/>
-      <c r="CJ27" s="86"/>
-      <c r="CK27" s="86"/>
-      <c r="CL27" s="86"/>
-      <c r="CM27" s="86"/>
-      <c r="CN27" s="86"/>
+      <c r="BI27" s="264"/>
+      <c r="BJ27" s="264"/>
+      <c r="BK27" s="264"/>
+      <c r="BL27" s="264"/>
+      <c r="BM27" s="264"/>
+      <c r="BN27" s="264"/>
+      <c r="BO27" s="264"/>
+      <c r="BP27" s="264"/>
+      <c r="BQ27" s="264"/>
+      <c r="BR27" s="264"/>
+      <c r="BS27" s="264"/>
+      <c r="BT27" s="264"/>
+      <c r="BU27" s="264"/>
+      <c r="BV27" s="264"/>
+      <c r="BW27" s="264"/>
+      <c r="BX27" s="264"/>
+      <c r="BY27" s="264"/>
+      <c r="BZ27" s="264"/>
+      <c r="CA27" s="264"/>
+      <c r="CB27" s="264"/>
+      <c r="CC27" s="264"/>
+      <c r="CD27" s="265"/>
+      <c r="CE27" s="264"/>
+      <c r="CF27" s="264"/>
+      <c r="CG27" s="264"/>
+      <c r="CH27" s="264"/>
+      <c r="CI27" s="264"/>
+      <c r="CJ27" s="264"/>
+      <c r="CK27" s="264"/>
+      <c r="CL27" s="264"/>
+      <c r="CM27" s="264"/>
+      <c r="CN27" s="264"/>
     </row>
     <row r="28" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="88"/>
@@ -5717,38 +5769,38 @@
       <c r="BH28" s="85">
         <v>21</v>
       </c>
-      <c r="BI28" s="86"/>
-      <c r="BJ28" s="86"/>
-      <c r="BK28" s="86"/>
-      <c r="BL28" s="86"/>
-      <c r="BM28" s="86"/>
-      <c r="BN28" s="86"/>
-      <c r="BO28" s="86"/>
-      <c r="BP28" s="86"/>
-      <c r="BQ28" s="86"/>
-      <c r="BR28" s="86"/>
-      <c r="BS28" s="86"/>
-      <c r="BT28" s="86"/>
-      <c r="BU28" s="86"/>
-      <c r="BV28" s="86"/>
-      <c r="BW28" s="86"/>
-      <c r="BX28" s="86"/>
-      <c r="BY28" s="86"/>
-      <c r="BZ28" s="86"/>
-      <c r="CA28" s="86"/>
-      <c r="CB28" s="86"/>
-      <c r="CC28" s="86"/>
-      <c r="CD28" s="87"/>
-      <c r="CE28" s="86"/>
-      <c r="CF28" s="86"/>
-      <c r="CG28" s="86"/>
-      <c r="CH28" s="86"/>
-      <c r="CI28" s="86"/>
-      <c r="CJ28" s="86"/>
-      <c r="CK28" s="86"/>
-      <c r="CL28" s="86"/>
-      <c r="CM28" s="86"/>
-      <c r="CN28" s="86"/>
+      <c r="BI28" s="264"/>
+      <c r="BJ28" s="264"/>
+      <c r="BK28" s="264"/>
+      <c r="BL28" s="264"/>
+      <c r="BM28" s="264"/>
+      <c r="BN28" s="264"/>
+      <c r="BO28" s="264"/>
+      <c r="BP28" s="264"/>
+      <c r="BQ28" s="264"/>
+      <c r="BR28" s="264"/>
+      <c r="BS28" s="264"/>
+      <c r="BT28" s="264"/>
+      <c r="BU28" s="264"/>
+      <c r="BV28" s="264"/>
+      <c r="BW28" s="264"/>
+      <c r="BX28" s="264"/>
+      <c r="BY28" s="264"/>
+      <c r="BZ28" s="264"/>
+      <c r="CA28" s="264"/>
+      <c r="CB28" s="264"/>
+      <c r="CC28" s="264"/>
+      <c r="CD28" s="265"/>
+      <c r="CE28" s="264"/>
+      <c r="CF28" s="264"/>
+      <c r="CG28" s="264"/>
+      <c r="CH28" s="264"/>
+      <c r="CI28" s="264"/>
+      <c r="CJ28" s="264"/>
+      <c r="CK28" s="264"/>
+      <c r="CL28" s="264"/>
+      <c r="CM28" s="264"/>
+      <c r="CN28" s="264"/>
     </row>
     <row r="29" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
@@ -5817,38 +5869,38 @@
       <c r="BH29" s="85">
         <v>22</v>
       </c>
-      <c r="BI29" s="86"/>
-      <c r="BJ29" s="86"/>
-      <c r="BK29" s="86"/>
-      <c r="BL29" s="86"/>
-      <c r="BM29" s="86"/>
-      <c r="BN29" s="86"/>
-      <c r="BO29" s="86"/>
-      <c r="BP29" s="86"/>
-      <c r="BQ29" s="86"/>
-      <c r="BR29" s="86"/>
-      <c r="BS29" s="86"/>
-      <c r="BT29" s="86"/>
-      <c r="BU29" s="86"/>
-      <c r="BV29" s="86"/>
-      <c r="BW29" s="86"/>
-      <c r="BX29" s="86"/>
-      <c r="BY29" s="86"/>
-      <c r="BZ29" s="86"/>
-      <c r="CA29" s="86"/>
-      <c r="CB29" s="86"/>
-      <c r="CC29" s="86"/>
-      <c r="CD29" s="87"/>
-      <c r="CE29" s="86"/>
-      <c r="CF29" s="86"/>
-      <c r="CG29" s="86"/>
-      <c r="CH29" s="86"/>
-      <c r="CI29" s="86"/>
-      <c r="CJ29" s="86"/>
-      <c r="CK29" s="86"/>
-      <c r="CL29" s="86"/>
-      <c r="CM29" s="86"/>
-      <c r="CN29" s="86"/>
+      <c r="BI29" s="264"/>
+      <c r="BJ29" s="264"/>
+      <c r="BK29" s="264"/>
+      <c r="BL29" s="264"/>
+      <c r="BM29" s="264"/>
+      <c r="BN29" s="264"/>
+      <c r="BO29" s="264"/>
+      <c r="BP29" s="264"/>
+      <c r="BQ29" s="264"/>
+      <c r="BR29" s="264"/>
+      <c r="BS29" s="264"/>
+      <c r="BT29" s="264"/>
+      <c r="BU29" s="264"/>
+      <c r="BV29" s="264"/>
+      <c r="BW29" s="264"/>
+      <c r="BX29" s="264"/>
+      <c r="BY29" s="264"/>
+      <c r="BZ29" s="264"/>
+      <c r="CA29" s="264"/>
+      <c r="CB29" s="264"/>
+      <c r="CC29" s="264"/>
+      <c r="CD29" s="265"/>
+      <c r="CE29" s="264"/>
+      <c r="CF29" s="264"/>
+      <c r="CG29" s="264"/>
+      <c r="CH29" s="264"/>
+      <c r="CI29" s="264"/>
+      <c r="CJ29" s="264"/>
+      <c r="CK29" s="264"/>
+      <c r="CL29" s="264"/>
+      <c r="CM29" s="264"/>
+      <c r="CN29" s="264"/>
     </row>
     <row r="30" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="117" t="s">
@@ -5917,38 +5969,38 @@
       <c r="BH30" s="85">
         <v>23</v>
       </c>
-      <c r="BI30" s="86"/>
-      <c r="BJ30" s="86"/>
-      <c r="BK30" s="86"/>
-      <c r="BL30" s="86"/>
-      <c r="BM30" s="86"/>
-      <c r="BN30" s="86"/>
-      <c r="BO30" s="86"/>
-      <c r="BP30" s="86"/>
-      <c r="BQ30" s="86"/>
-      <c r="BR30" s="86"/>
-      <c r="BS30" s="86"/>
-      <c r="BT30" s="86"/>
-      <c r="BU30" s="86"/>
-      <c r="BV30" s="86"/>
-      <c r="BW30" s="86"/>
-      <c r="BX30" s="86"/>
-      <c r="BY30" s="86"/>
-      <c r="BZ30" s="86"/>
-      <c r="CA30" s="86"/>
-      <c r="CB30" s="86"/>
-      <c r="CC30" s="86"/>
-      <c r="CD30" s="87"/>
-      <c r="CE30" s="86"/>
-      <c r="CF30" s="86"/>
-      <c r="CG30" s="86"/>
-      <c r="CH30" s="86"/>
-      <c r="CI30" s="86"/>
-      <c r="CJ30" s="86"/>
-      <c r="CK30" s="86"/>
-      <c r="CL30" s="86"/>
-      <c r="CM30" s="86"/>
-      <c r="CN30" s="86"/>
+      <c r="BI30" s="264"/>
+      <c r="BJ30" s="264"/>
+      <c r="BK30" s="264"/>
+      <c r="BL30" s="264"/>
+      <c r="BM30" s="264"/>
+      <c r="BN30" s="264"/>
+      <c r="BO30" s="264"/>
+      <c r="BP30" s="264"/>
+      <c r="BQ30" s="264"/>
+      <c r="BR30" s="264"/>
+      <c r="BS30" s="264"/>
+      <c r="BT30" s="264"/>
+      <c r="BU30" s="264"/>
+      <c r="BV30" s="264"/>
+      <c r="BW30" s="264"/>
+      <c r="BX30" s="264"/>
+      <c r="BY30" s="264"/>
+      <c r="BZ30" s="264"/>
+      <c r="CA30" s="264"/>
+      <c r="CB30" s="264"/>
+      <c r="CC30" s="264"/>
+      <c r="CD30" s="265"/>
+      <c r="CE30" s="264"/>
+      <c r="CF30" s="264"/>
+      <c r="CG30" s="264"/>
+      <c r="CH30" s="264"/>
+      <c r="CI30" s="264"/>
+      <c r="CJ30" s="264"/>
+      <c r="CK30" s="264"/>
+      <c r="CL30" s="264"/>
+      <c r="CM30" s="264"/>
+      <c r="CN30" s="264"/>
     </row>
     <row r="31" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="117"/>
@@ -6017,38 +6069,38 @@
       <c r="BH31" s="85">
         <v>24</v>
       </c>
-      <c r="BI31" s="86"/>
-      <c r="BJ31" s="86"/>
-      <c r="BK31" s="86"/>
-      <c r="BL31" s="86"/>
-      <c r="BM31" s="86"/>
-      <c r="BN31" s="86"/>
-      <c r="BO31" s="86"/>
-      <c r="BP31" s="86"/>
-      <c r="BQ31" s="86"/>
-      <c r="BR31" s="86"/>
-      <c r="BS31" s="86"/>
-      <c r="BT31" s="86"/>
-      <c r="BU31" s="86"/>
-      <c r="BV31" s="86"/>
-      <c r="BW31" s="86"/>
-      <c r="BX31" s="86"/>
-      <c r="BY31" s="86"/>
-      <c r="BZ31" s="86"/>
-      <c r="CA31" s="86"/>
-      <c r="CB31" s="86"/>
-      <c r="CC31" s="86"/>
-      <c r="CD31" s="87"/>
-      <c r="CE31" s="86"/>
-      <c r="CF31" s="86"/>
-      <c r="CG31" s="86"/>
-      <c r="CH31" s="86"/>
-      <c r="CI31" s="86"/>
-      <c r="CJ31" s="86"/>
-      <c r="CK31" s="86"/>
-      <c r="CL31" s="86"/>
-      <c r="CM31" s="86"/>
-      <c r="CN31" s="86"/>
+      <c r="BI31" s="264"/>
+      <c r="BJ31" s="264"/>
+      <c r="BK31" s="264"/>
+      <c r="BL31" s="264"/>
+      <c r="BM31" s="264"/>
+      <c r="BN31" s="264"/>
+      <c r="BO31" s="264"/>
+      <c r="BP31" s="264"/>
+      <c r="BQ31" s="264"/>
+      <c r="BR31" s="264"/>
+      <c r="BS31" s="264"/>
+      <c r="BT31" s="264"/>
+      <c r="BU31" s="264"/>
+      <c r="BV31" s="264"/>
+      <c r="BW31" s="264"/>
+      <c r="BX31" s="264"/>
+      <c r="BY31" s="264"/>
+      <c r="BZ31" s="264"/>
+      <c r="CA31" s="264"/>
+      <c r="CB31" s="264"/>
+      <c r="CC31" s="264"/>
+      <c r="CD31" s="265"/>
+      <c r="CE31" s="264"/>
+      <c r="CF31" s="264"/>
+      <c r="CG31" s="264"/>
+      <c r="CH31" s="264"/>
+      <c r="CI31" s="264"/>
+      <c r="CJ31" s="264"/>
+      <c r="CK31" s="264"/>
+      <c r="CL31" s="264"/>
+      <c r="CM31" s="264"/>
+      <c r="CN31" s="264"/>
     </row>
     <row r="32" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="117"/>
@@ -6115,38 +6167,38 @@
       <c r="BH32" s="85">
         <v>25</v>
       </c>
-      <c r="BI32" s="86"/>
-      <c r="BJ32" s="86"/>
-      <c r="BK32" s="86"/>
-      <c r="BL32" s="86"/>
-      <c r="BM32" s="86"/>
-      <c r="BN32" s="86"/>
-      <c r="BO32" s="86"/>
-      <c r="BP32" s="86"/>
-      <c r="BQ32" s="86"/>
-      <c r="BR32" s="86"/>
-      <c r="BS32" s="86"/>
-      <c r="BT32" s="86"/>
-      <c r="BU32" s="86"/>
-      <c r="BV32" s="86"/>
-      <c r="BW32" s="86"/>
-      <c r="BX32" s="86"/>
-      <c r="BY32" s="86"/>
-      <c r="BZ32" s="86"/>
-      <c r="CA32" s="86"/>
-      <c r="CB32" s="86"/>
-      <c r="CC32" s="86"/>
-      <c r="CD32" s="87"/>
-      <c r="CE32" s="86"/>
-      <c r="CF32" s="86"/>
-      <c r="CG32" s="86"/>
-      <c r="CH32" s="86"/>
-      <c r="CI32" s="86"/>
-      <c r="CJ32" s="86"/>
-      <c r="CK32" s="86"/>
-      <c r="CL32" s="86"/>
-      <c r="CM32" s="86"/>
-      <c r="CN32" s="86"/>
+      <c r="BI32" s="264"/>
+      <c r="BJ32" s="264"/>
+      <c r="BK32" s="264"/>
+      <c r="BL32" s="264"/>
+      <c r="BM32" s="264"/>
+      <c r="BN32" s="264"/>
+      <c r="BO32" s="264"/>
+      <c r="BP32" s="264"/>
+      <c r="BQ32" s="264"/>
+      <c r="BR32" s="264"/>
+      <c r="BS32" s="264"/>
+      <c r="BT32" s="264"/>
+      <c r="BU32" s="264"/>
+      <c r="BV32" s="264"/>
+      <c r="BW32" s="264"/>
+      <c r="BX32" s="264"/>
+      <c r="BY32" s="264"/>
+      <c r="BZ32" s="264"/>
+      <c r="CA32" s="264"/>
+      <c r="CB32" s="264"/>
+      <c r="CC32" s="264"/>
+      <c r="CD32" s="265"/>
+      <c r="CE32" s="264"/>
+      <c r="CF32" s="264"/>
+      <c r="CG32" s="264"/>
+      <c r="CH32" s="264"/>
+      <c r="CI32" s="264"/>
+      <c r="CJ32" s="264"/>
+      <c r="CK32" s="264"/>
+      <c r="CL32" s="264"/>
+      <c r="CM32" s="264"/>
+      <c r="CN32" s="264"/>
     </row>
     <row r="33" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="117"/>
@@ -6215,38 +6267,38 @@
       <c r="BH33" s="85">
         <v>26</v>
       </c>
-      <c r="BI33" s="86"/>
-      <c r="BJ33" s="86"/>
-      <c r="BK33" s="86"/>
-      <c r="BL33" s="86"/>
-      <c r="BM33" s="86"/>
-      <c r="BN33" s="86"/>
-      <c r="BO33" s="86"/>
-      <c r="BP33" s="86"/>
-      <c r="BQ33" s="86"/>
-      <c r="BR33" s="86"/>
-      <c r="BS33" s="86"/>
-      <c r="BT33" s="86"/>
-      <c r="BU33" s="86"/>
-      <c r="BV33" s="86"/>
-      <c r="BW33" s="86"/>
-      <c r="BX33" s="86"/>
-      <c r="BY33" s="86"/>
-      <c r="BZ33" s="86"/>
-      <c r="CA33" s="86"/>
-      <c r="CB33" s="86"/>
-      <c r="CC33" s="86"/>
-      <c r="CD33" s="87"/>
-      <c r="CE33" s="86"/>
-      <c r="CF33" s="86"/>
-      <c r="CG33" s="86"/>
-      <c r="CH33" s="86"/>
-      <c r="CI33" s="86"/>
-      <c r="CJ33" s="86"/>
-      <c r="CK33" s="86"/>
-      <c r="CL33" s="86"/>
-      <c r="CM33" s="86"/>
-      <c r="CN33" s="86"/>
+      <c r="BI33" s="264"/>
+      <c r="BJ33" s="264"/>
+      <c r="BK33" s="264"/>
+      <c r="BL33" s="264"/>
+      <c r="BM33" s="264"/>
+      <c r="BN33" s="264"/>
+      <c r="BO33" s="264"/>
+      <c r="BP33" s="264"/>
+      <c r="BQ33" s="264"/>
+      <c r="BR33" s="264"/>
+      <c r="BS33" s="264"/>
+      <c r="BT33" s="264"/>
+      <c r="BU33" s="264"/>
+      <c r="BV33" s="264"/>
+      <c r="BW33" s="264"/>
+      <c r="BX33" s="264"/>
+      <c r="BY33" s="264"/>
+      <c r="BZ33" s="264"/>
+      <c r="CA33" s="264"/>
+      <c r="CB33" s="264"/>
+      <c r="CC33" s="264"/>
+      <c r="CD33" s="265"/>
+      <c r="CE33" s="264"/>
+      <c r="CF33" s="264"/>
+      <c r="CG33" s="264"/>
+      <c r="CH33" s="264"/>
+      <c r="CI33" s="264"/>
+      <c r="CJ33" s="264"/>
+      <c r="CK33" s="264"/>
+      <c r="CL33" s="264"/>
+      <c r="CM33" s="264"/>
+      <c r="CN33" s="264"/>
     </row>
     <row r="34" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="117"/>
@@ -6313,38 +6365,38 @@
       <c r="BH34" s="85">
         <v>27</v>
       </c>
-      <c r="BI34" s="86"/>
-      <c r="BJ34" s="86"/>
-      <c r="BK34" s="86"/>
-      <c r="BL34" s="86"/>
-      <c r="BM34" s="86"/>
-      <c r="BN34" s="86"/>
-      <c r="BO34" s="86"/>
-      <c r="BP34" s="86"/>
-      <c r="BQ34" s="86"/>
-      <c r="BR34" s="86"/>
-      <c r="BS34" s="86"/>
-      <c r="BT34" s="86"/>
-      <c r="BU34" s="86"/>
-      <c r="BV34" s="86"/>
-      <c r="BW34" s="86"/>
-      <c r="BX34" s="86"/>
-      <c r="BY34" s="86"/>
-      <c r="BZ34" s="86"/>
-      <c r="CA34" s="86"/>
-      <c r="CB34" s="86"/>
-      <c r="CC34" s="86"/>
-      <c r="CD34" s="87"/>
-      <c r="CE34" s="86"/>
-      <c r="CF34" s="86"/>
-      <c r="CG34" s="86"/>
-      <c r="CH34" s="86"/>
-      <c r="CI34" s="86"/>
-      <c r="CJ34" s="86"/>
-      <c r="CK34" s="86"/>
-      <c r="CL34" s="86"/>
-      <c r="CM34" s="86"/>
-      <c r="CN34" s="86"/>
+      <c r="BI34" s="264"/>
+      <c r="BJ34" s="264"/>
+      <c r="BK34" s="264"/>
+      <c r="BL34" s="264"/>
+      <c r="BM34" s="264"/>
+      <c r="BN34" s="264"/>
+      <c r="BO34" s="264"/>
+      <c r="BP34" s="264"/>
+      <c r="BQ34" s="264"/>
+      <c r="BR34" s="264"/>
+      <c r="BS34" s="264"/>
+      <c r="BT34" s="264"/>
+      <c r="BU34" s="264"/>
+      <c r="BV34" s="264"/>
+      <c r="BW34" s="264"/>
+      <c r="BX34" s="264"/>
+      <c r="BY34" s="264"/>
+      <c r="BZ34" s="264"/>
+      <c r="CA34" s="264"/>
+      <c r="CB34" s="264"/>
+      <c r="CC34" s="264"/>
+      <c r="CD34" s="265"/>
+      <c r="CE34" s="264"/>
+      <c r="CF34" s="264"/>
+      <c r="CG34" s="264"/>
+      <c r="CH34" s="264"/>
+      <c r="CI34" s="264"/>
+      <c r="CJ34" s="264"/>
+      <c r="CK34" s="264"/>
+      <c r="CL34" s="264"/>
+      <c r="CM34" s="264"/>
+      <c r="CN34" s="264"/>
     </row>
     <row r="35" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="117"/>
@@ -6413,38 +6465,38 @@
       <c r="BH35" s="85">
         <v>28</v>
       </c>
-      <c r="BI35" s="86"/>
-      <c r="BJ35" s="86"/>
-      <c r="BK35" s="86"/>
-      <c r="BL35" s="86"/>
-      <c r="BM35" s="86"/>
-      <c r="BN35" s="86"/>
-      <c r="BO35" s="86"/>
-      <c r="BP35" s="86"/>
-      <c r="BQ35" s="86"/>
-      <c r="BR35" s="86"/>
-      <c r="BS35" s="86"/>
-      <c r="BT35" s="86"/>
-      <c r="BU35" s="86"/>
-      <c r="BV35" s="86"/>
-      <c r="BW35" s="86"/>
-      <c r="BX35" s="86"/>
-      <c r="BY35" s="86"/>
-      <c r="BZ35" s="86"/>
-      <c r="CA35" s="86"/>
-      <c r="CB35" s="86"/>
-      <c r="CC35" s="86"/>
-      <c r="CD35" s="87"/>
-      <c r="CE35" s="86"/>
-      <c r="CF35" s="86"/>
-      <c r="CG35" s="86"/>
-      <c r="CH35" s="86"/>
-      <c r="CI35" s="86"/>
-      <c r="CJ35" s="86"/>
-      <c r="CK35" s="86"/>
-      <c r="CL35" s="86"/>
-      <c r="CM35" s="86"/>
-      <c r="CN35" s="86"/>
+      <c r="BI35" s="264"/>
+      <c r="BJ35" s="264"/>
+      <c r="BK35" s="264"/>
+      <c r="BL35" s="264"/>
+      <c r="BM35" s="264"/>
+      <c r="BN35" s="264"/>
+      <c r="BO35" s="264"/>
+      <c r="BP35" s="264"/>
+      <c r="BQ35" s="264"/>
+      <c r="BR35" s="264"/>
+      <c r="BS35" s="264"/>
+      <c r="BT35" s="264"/>
+      <c r="BU35" s="264"/>
+      <c r="BV35" s="264"/>
+      <c r="BW35" s="264"/>
+      <c r="BX35" s="264"/>
+      <c r="BY35" s="264"/>
+      <c r="BZ35" s="264"/>
+      <c r="CA35" s="264"/>
+      <c r="CB35" s="264"/>
+      <c r="CC35" s="264"/>
+      <c r="CD35" s="265"/>
+      <c r="CE35" s="264"/>
+      <c r="CF35" s="264"/>
+      <c r="CG35" s="264"/>
+      <c r="CH35" s="264"/>
+      <c r="CI35" s="264"/>
+      <c r="CJ35" s="264"/>
+      <c r="CK35" s="264"/>
+      <c r="CL35" s="264"/>
+      <c r="CM35" s="264"/>
+      <c r="CN35" s="264"/>
     </row>
     <row r="36" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="117"/>
@@ -6511,38 +6563,38 @@
       <c r="BH36" s="85">
         <v>29</v>
       </c>
-      <c r="BI36" s="86"/>
-      <c r="BJ36" s="86"/>
-      <c r="BK36" s="86"/>
-      <c r="BL36" s="86"/>
-      <c r="BM36" s="86"/>
-      <c r="BN36" s="86"/>
-      <c r="BO36" s="86"/>
-      <c r="BP36" s="86"/>
-      <c r="BQ36" s="86"/>
-      <c r="BR36" s="86"/>
-      <c r="BS36" s="86"/>
-      <c r="BT36" s="86"/>
-      <c r="BU36" s="86"/>
-      <c r="BV36" s="86"/>
-      <c r="BW36" s="86"/>
-      <c r="BX36" s="86"/>
-      <c r="BY36" s="86"/>
-      <c r="BZ36" s="86"/>
-      <c r="CA36" s="86"/>
-      <c r="CB36" s="86"/>
-      <c r="CC36" s="86"/>
-      <c r="CD36" s="87"/>
-      <c r="CE36" s="86"/>
-      <c r="CF36" s="86"/>
-      <c r="CG36" s="86"/>
-      <c r="CH36" s="86"/>
-      <c r="CI36" s="86"/>
-      <c r="CJ36" s="86"/>
-      <c r="CK36" s="86"/>
-      <c r="CL36" s="86"/>
-      <c r="CM36" s="86"/>
-      <c r="CN36" s="86"/>
+      <c r="BI36" s="264"/>
+      <c r="BJ36" s="264"/>
+      <c r="BK36" s="264"/>
+      <c r="BL36" s="264"/>
+      <c r="BM36" s="264"/>
+      <c r="BN36" s="264"/>
+      <c r="BO36" s="264"/>
+      <c r="BP36" s="264"/>
+      <c r="BQ36" s="264"/>
+      <c r="BR36" s="264"/>
+      <c r="BS36" s="264"/>
+      <c r="BT36" s="264"/>
+      <c r="BU36" s="264"/>
+      <c r="BV36" s="264"/>
+      <c r="BW36" s="264"/>
+      <c r="BX36" s="264"/>
+      <c r="BY36" s="264"/>
+      <c r="BZ36" s="264"/>
+      <c r="CA36" s="264"/>
+      <c r="CB36" s="264"/>
+      <c r="CC36" s="264"/>
+      <c r="CD36" s="265"/>
+      <c r="CE36" s="264"/>
+      <c r="CF36" s="264"/>
+      <c r="CG36" s="264"/>
+      <c r="CH36" s="264"/>
+      <c r="CI36" s="264"/>
+      <c r="CJ36" s="264"/>
+      <c r="CK36" s="264"/>
+      <c r="CL36" s="264"/>
+      <c r="CM36" s="264"/>
+      <c r="CN36" s="264"/>
     </row>
     <row r="37" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="88"/>
@@ -6611,38 +6663,38 @@
       <c r="BH37" s="85">
         <v>30</v>
       </c>
-      <c r="BI37" s="86"/>
-      <c r="BJ37" s="86"/>
-      <c r="BK37" s="86"/>
-      <c r="BL37" s="86"/>
-      <c r="BM37" s="86"/>
-      <c r="BN37" s="86"/>
-      <c r="BO37" s="86"/>
-      <c r="BP37" s="86"/>
-      <c r="BQ37" s="86"/>
-      <c r="BR37" s="86"/>
-      <c r="BS37" s="86"/>
-      <c r="BT37" s="86"/>
-      <c r="BU37" s="86"/>
-      <c r="BV37" s="86"/>
-      <c r="BW37" s="86"/>
-      <c r="BX37" s="86"/>
-      <c r="BY37" s="86"/>
-      <c r="BZ37" s="86"/>
-      <c r="CA37" s="86"/>
-      <c r="CB37" s="86"/>
-      <c r="CC37" s="86"/>
-      <c r="CD37" s="87"/>
-      <c r="CE37" s="86"/>
-      <c r="CF37" s="86"/>
-      <c r="CG37" s="86"/>
-      <c r="CH37" s="86"/>
-      <c r="CI37" s="86"/>
-      <c r="CJ37" s="86"/>
-      <c r="CK37" s="86"/>
-      <c r="CL37" s="86"/>
-      <c r="CM37" s="86"/>
-      <c r="CN37" s="86"/>
+      <c r="BI37" s="264"/>
+      <c r="BJ37" s="264"/>
+      <c r="BK37" s="264"/>
+      <c r="BL37" s="264"/>
+      <c r="BM37" s="264"/>
+      <c r="BN37" s="264"/>
+      <c r="BO37" s="264"/>
+      <c r="BP37" s="264"/>
+      <c r="BQ37" s="264"/>
+      <c r="BR37" s="264"/>
+      <c r="BS37" s="264"/>
+      <c r="BT37" s="264"/>
+      <c r="BU37" s="264"/>
+      <c r="BV37" s="264"/>
+      <c r="BW37" s="264"/>
+      <c r="BX37" s="264"/>
+      <c r="BY37" s="264"/>
+      <c r="BZ37" s="264"/>
+      <c r="CA37" s="264"/>
+      <c r="CB37" s="264"/>
+      <c r="CC37" s="264"/>
+      <c r="CD37" s="265"/>
+      <c r="CE37" s="264"/>
+      <c r="CF37" s="264"/>
+      <c r="CG37" s="264"/>
+      <c r="CH37" s="264"/>
+      <c r="CI37" s="264"/>
+      <c r="CJ37" s="264"/>
+      <c r="CK37" s="264"/>
+      <c r="CL37" s="264"/>
+      <c r="CM37" s="264"/>
+      <c r="CN37" s="264"/>
     </row>
     <row r="38" spans="1:92" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="88"/>
@@ -8610,7 +8662,7 @@
   <dimension ref="A1:BJ47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC9" sqref="B9:AC9"/>
+      <selection activeCell="AD9" sqref="AD9:AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
